--- a/Data/Raw/fe_newnames.xlsx
+++ b/Data/Raw/fe_newnames.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\fewapo\Data\Raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1559A9C2-1F51-44EA-8238-87EAE1B95482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7FBA09-7E97-4AB4-B51D-573E81CD1299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="662">
   <si>
     <t>Unique ID</t>
   </si>
@@ -1891,9 +1891,6 @@
     <t>Deputies were attempting to arrest a man at his home for reported harassing and threatening behavior.  When he would not come out, they broke in.  The man allegedly had a gun, so the deputies shot and killed him.</t>
   </si>
   <si>
-    <t>https://www.spokesman.com/stories/2024/jan/30/deputies-shoot-kill-male-in-north-spokane-police-u/</t>
-  </si>
-  <si>
     <t>Alexei Giovanni Selivanoff</t>
   </si>
   <si>
@@ -1910,13 +1907,115 @@
   </si>
   <si>
     <t>Stevens Street and Cliff Drive</t>
+  </si>
+  <si>
+    <t>Richard Rogissart</t>
+  </si>
+  <si>
+    <t>Deputy Hunter Ballou, Deputy Matthew Costello, Deputy Travis Moser, Deputy Parker Perry</t>
+  </si>
+  <si>
+    <t>https://www.spokesman.com/stories/2024/feb/07/55-year-old-man-identified-as-person-shot-killed-b/</t>
+  </si>
+  <si>
+    <t>Craig Anglisano</t>
+  </si>
+  <si>
+    <t>1100 East Wellesley Avenue</t>
+  </si>
+  <si>
+    <t>https://www.spokesman.com/stories/2024/feb/12/spokane-police-shoot-kill-man-after-he-reportedly-/</t>
+  </si>
+  <si>
+    <t>https://www.spokesman.com/stories/2024/feb/10/man-has-yet-to-be-located-after-jumping-into-spoka/</t>
+  </si>
+  <si>
+    <t>West Water Avenue</t>
+  </si>
+  <si>
+    <t>Police reponded to a domestic violence call.  When they arrived, they allegedly found the man on the riverbank near the home.  He reportedly jumped into the river, and went under.  His body has not yet been found.</t>
+  </si>
+  <si>
+    <t>Officers Michael Brunner; William Braten; Steven Donges; Will Dowsing; Trystan Herzog; Ryan McLucas; Dylan Pavlischak; Andrew Wilson; and Cpl. Chris Johnson</t>
+  </si>
+  <si>
+    <t>https://www.spokesman.com/stories/2024/feb/08/spokane-police-identify-nine-officers-who-shot-at-/</t>
+  </si>
+  <si>
+    <t>Police responded to a call for help from a woman who was being threatened by a man with a gun in her home.  During the call they allegedly heard gunshots, and understood the woman had been shot.  They arrived, entered the home, and shot and killed the man.</t>
+  </si>
+  <si>
+    <t>Police responded to a DOC officer saying a man he supervised was suicidal and armed with a knife in downtown Spokane.  Police first tased and then shot and killed the man.</t>
+  </si>
+  <si>
+    <t>600 West Riverside Avenue</t>
+  </si>
+  <si>
+    <t>https://www.kxly.com/news/spokane-police-shoot-suspect-armed-with-a-knife-in-downtown-spokane-dies-at-hospital/article_527aa320-cabe-11ee-8b4d-7737ccb412ae.html</t>
+  </si>
+  <si>
+    <t>Oscar Venegas</t>
+  </si>
+  <si>
+    <t>Erick Cid</t>
+  </si>
+  <si>
+    <t>https://www.chronline.com/stories/man-pursued-and-fatally-shot-by-law-enforcement-near-tenino-nov-14-identified,303935</t>
+  </si>
+  <si>
+    <t>Clark County sheriff’s deputies fatally shot a man they say appeared to have a gun early Tuesday morning in Brush Prairie. The deputies were there to check on a woman after her daughter called 911 to express concerns about her safety.</t>
+  </si>
+  <si>
+    <t>https://www.columbian.com/news/2024/feb/20/clark-county-sheriffs-deputies-fatally-shot-a-man-during-a-welfare-check-in-brush-prairie/</t>
+  </si>
+  <si>
+    <t>12521 N.E. 152nd Ave</t>
+  </si>
+  <si>
+    <t>Brush Prairie</t>
+  </si>
+  <si>
+    <t>https://www.spokesman.com/stories/2024/feb/20/woman-shot-and-killed-herself-to-avoid-jail-time-a/</t>
+  </si>
+  <si>
+    <t>Sally</t>
+  </si>
+  <si>
+    <t>A woman discovered with a gunshot wound to the head following a police chase involving teenagers wearing ski masks and firing guns from their speeding car in the area of Market Street and Euclid Avenue last Friday shot herself rather than risk going to jail , according to court documents.</t>
+  </si>
+  <si>
+    <t>3200 N Market St</t>
+  </si>
+  <si>
+    <t>Sol Bagby</t>
+  </si>
+  <si>
+    <t>800 72nd Street East</t>
+  </si>
+  <si>
+    <t>Lopeti Aiolupotea-Magalei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At approximately 1:16am, Pierce County Deputies conducted an investigative stop on several subjects.   During this contact, one of the subjects fled from the deputies southbound on E McKinley Av and then eastbound on the railroad tracks.  Deputies pursued this subject on foot.  During the foot pursuit the subject was seen armed with a handgun.  Two deputies fired their weapons at the subject who was later pronounced deceased at the location. </t>
+  </si>
+  <si>
+    <t>https://www.piercecountywa.gov/documentcenter/view/135617</t>
+  </si>
+  <si>
+    <t>Jonathan Gale</t>
+  </si>
+  <si>
+    <t>Sergeant Tom Yoder, Deputy Forrest Gonzalez, Deputy Holly Dezubria</t>
+  </si>
+  <si>
+    <t>https://www.kptv.com/2024/03/01/clark-co-sheriff-releases-video-moment-deputies-shot-killed-suspect-brush-prairie/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2031,6 +2130,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2332,7 +2438,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2375,17 +2481,20 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -2419,6 +2528,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -2541,8 +2651,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AD97" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="A1:AD97" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AD103" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="A1:AD103" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="30">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Unique ID" dataDxfId="29"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="28"/>
@@ -2876,13 +2986,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD97"/>
+  <dimension ref="A1:AD103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="W88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G102" sqref="G102"/>
+      <selection pane="bottomRight" activeCell="AB103" sqref="AB103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2890,6 +3000,7 @@
     <col min="1" max="1" width="11.81640625" customWidth="1"/>
     <col min="2" max="2" width="24.453125" customWidth="1"/>
     <col min="4" max="4" width="9.7265625" customWidth="1"/>
+    <col min="5" max="5" width="16.6328125" customWidth="1"/>
     <col min="6" max="6" width="47.54296875" customWidth="1"/>
     <col min="7" max="7" width="27.1796875" customWidth="1"/>
     <col min="8" max="8" width="23.453125" customWidth="1"/>
@@ -6002,6 +6113,9 @@
         <v>89</v>
       </c>
       <c r="V47" t="s">
+        <v>645</v>
+      </c>
+      <c r="Z47" t="s">
         <v>351</v>
       </c>
       <c r="AA47" t="s">
@@ -8030,7 +8144,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>90080</v>
       </c>
@@ -8092,7 +8206,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>90081</v>
       </c>
@@ -8154,7 +8268,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>90082</v>
       </c>
@@ -8213,7 +8327,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>90083</v>
       </c>
@@ -8278,7 +8392,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>90084</v>
       </c>
@@ -8340,7 +8454,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>90085</v>
       </c>
@@ -8399,7 +8513,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>90086</v>
       </c>
@@ -8461,7 +8575,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>90087</v>
       </c>
@@ -8523,7 +8637,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>90088</v>
       </c>
@@ -8576,7 +8690,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>90089</v>
       </c>
@@ -8644,13 +8758,13 @@
         <v>591</v>
       </c>
       <c r="AA90" t="s">
+        <v>623</v>
+      </c>
+      <c r="AB90" t="s">
         <v>624</v>
       </c>
-      <c r="AB90" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90091</v>
       </c>
@@ -8712,7 +8826,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>90092</v>
       </c>
@@ -8777,7 +8891,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>90093</v>
       </c>
@@ -8839,7 +8953,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>90094</v>
       </c>
@@ -8901,12 +9015,12 @@
         <v>614</v>
       </c>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>90095</v>
       </c>
-      <c r="B95" s="4" t="s">
-        <v>623</v>
+      <c r="B95" s="2" t="s">
+        <v>622</v>
       </c>
       <c r="C95">
         <v>31</v>
@@ -8963,144 +9077,519 @@
         <v>619</v>
       </c>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A96" s="2">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A96">
         <v>90096</v>
       </c>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E96" s="2"/>
-      <c r="F96" s="3">
+      <c r="B96" t="s">
+        <v>628</v>
+      </c>
+      <c r="C96">
+        <v>55</v>
+      </c>
+      <c r="D96" t="s">
+        <v>30</v>
+      </c>
+      <c r="F96" s="1">
         <v>45321</v>
       </c>
-      <c r="G96" s="2" t="s">
+      <c r="G96" t="s">
         <v>620</v>
       </c>
-      <c r="H96" s="2" t="s">
+      <c r="H96" t="s">
         <v>71</v>
       </c>
-      <c r="I96" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J96" s="2">
+      <c r="I96" t="s">
+        <v>33</v>
+      </c>
+      <c r="J96">
         <v>99208</v>
       </c>
-      <c r="K96" s="2" t="s">
+      <c r="K96" t="s">
         <v>71</v>
       </c>
-      <c r="L96" s="2">
+      <c r="L96">
         <v>47.717873099999998</v>
       </c>
-      <c r="M96" s="2">
+      <c r="M96">
         <v>-117.4175343</v>
       </c>
-      <c r="N96" s="2" t="s">
+      <c r="N96" t="s">
         <v>263</v>
       </c>
-      <c r="O96" s="2" t="s">
+      <c r="O96" t="s">
         <v>36</v>
       </c>
-      <c r="P96" s="2" t="s">
+      <c r="P96" t="s">
         <v>37</v>
       </c>
-      <c r="Q96" s="2" t="s">
+      <c r="Q96" t="s">
         <v>207</v>
       </c>
-      <c r="R96" s="2"/>
-      <c r="S96" s="2" t="s">
+      <c r="S96" t="s">
         <v>621</v>
       </c>
-      <c r="T96" s="2"/>
-      <c r="U96" s="2" t="s">
+      <c r="U96" t="s">
         <v>52</v>
       </c>
-      <c r="V96" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="W96" s="2"/>
-      <c r="X96" s="2"/>
-      <c r="Y96" s="2"/>
-      <c r="Z96" s="2"/>
-      <c r="AA96" s="2"/>
-      <c r="AB96" s="2"/>
-      <c r="AC96" s="2"/>
-      <c r="AD96" s="2"/>
+      <c r="V96" t="s">
+        <v>630</v>
+      </c>
+      <c r="AA96" t="s">
+        <v>629</v>
+      </c>
     </row>
     <row r="97" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A97" s="2">
+      <c r="A97">
         <v>90097</v>
       </c>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E97" s="2"/>
-      <c r="F97" s="3">
+      <c r="B97" t="s">
+        <v>631</v>
+      </c>
+      <c r="C97">
+        <v>43</v>
+      </c>
+      <c r="D97" t="s">
+        <v>30</v>
+      </c>
+      <c r="F97" s="1">
         <v>45322</v>
       </c>
-      <c r="G97" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="H97" s="2" t="s">
+      <c r="G97" t="s">
+        <v>627</v>
+      </c>
+      <c r="H97" t="s">
         <v>71</v>
       </c>
-      <c r="I97" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J97" s="2">
+      <c r="I97" t="s">
+        <v>33</v>
+      </c>
+      <c r="J97">
         <v>99204</v>
       </c>
-      <c r="K97" s="2" t="s">
+      <c r="K97" t="s">
         <v>71</v>
       </c>
-      <c r="L97" s="2">
+      <c r="L97">
         <v>47.645941499999999</v>
       </c>
-      <c r="M97" s="2">
+      <c r="M97">
         <v>-117.42505989999999</v>
       </c>
-      <c r="N97" s="2" t="s">
+      <c r="N97" t="s">
         <v>72</v>
       </c>
-      <c r="O97" s="2" t="s">
+      <c r="O97" t="s">
         <v>36</v>
       </c>
-      <c r="P97" s="2" t="s">
+      <c r="P97" t="s">
         <v>37</v>
       </c>
-      <c r="Q97" s="2" t="s">
+      <c r="Q97" t="s">
         <v>207</v>
       </c>
-      <c r="R97" s="2"/>
-      <c r="S97" s="2" t="s">
+      <c r="S97" t="s">
+        <v>625</v>
+      </c>
+      <c r="U97" t="s">
+        <v>52</v>
+      </c>
+      <c r="V97" t="s">
         <v>626</v>
       </c>
-      <c r="T97" s="2"/>
-      <c r="U97" s="2" t="s">
+      <c r="X97" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA97" t="s">
+        <v>637</v>
+      </c>
+      <c r="AB97" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="98" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>90098</v>
+      </c>
+      <c r="B98" t="s">
+        <v>644</v>
+      </c>
+      <c r="C98">
+        <v>50</v>
+      </c>
+      <c r="D98" t="s">
+        <v>30</v>
+      </c>
+      <c r="F98" s="1">
+        <v>45334</v>
+      </c>
+      <c r="G98" t="s">
+        <v>632</v>
+      </c>
+      <c r="H98" t="s">
+        <v>71</v>
+      </c>
+      <c r="I98" t="s">
+        <v>33</v>
+      </c>
+      <c r="J98">
+        <v>99207</v>
+      </c>
+      <c r="K98" t="s">
+        <v>71</v>
+      </c>
+      <c r="L98">
+        <v>47.7004406</v>
+      </c>
+      <c r="M98">
+        <v>-117.396219</v>
+      </c>
+      <c r="N98" t="s">
+        <v>72</v>
+      </c>
+      <c r="O98" t="s">
+        <v>36</v>
+      </c>
+      <c r="P98" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>207</v>
+      </c>
+      <c r="S98" t="s">
+        <v>639</v>
+      </c>
+      <c r="U98" t="s">
         <v>52</v>
       </c>
-      <c r="V97" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="W97" s="2"/>
-      <c r="X97" s="2" t="s">
+      <c r="V98" s="3" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="99" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>90099</v>
+      </c>
+      <c r="B99" t="s">
+        <v>654</v>
+      </c>
+      <c r="D99" t="s">
+        <v>30</v>
+      </c>
+      <c r="E99" t="s">
+        <v>84</v>
+      </c>
+      <c r="F99" s="1">
+        <v>45332</v>
+      </c>
+      <c r="G99" t="s">
+        <v>635</v>
+      </c>
+      <c r="H99" t="s">
+        <v>71</v>
+      </c>
+      <c r="I99" t="s">
+        <v>33</v>
+      </c>
+      <c r="J99">
+        <v>99201</v>
+      </c>
+      <c r="K99" t="s">
+        <v>71</v>
+      </c>
+      <c r="L99">
+        <v>47.6596884</v>
+      </c>
+      <c r="M99">
+        <v>-117.4381614</v>
+      </c>
+      <c r="N99" t="s">
+        <v>72</v>
+      </c>
+      <c r="O99" t="s">
+        <v>561</v>
+      </c>
+      <c r="S99" t="s">
+        <v>636</v>
+      </c>
+      <c r="U99" t="s">
+        <v>561</v>
+      </c>
+      <c r="V99" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="100" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>90100</v>
+      </c>
+      <c r="B100" t="s">
+        <v>643</v>
+      </c>
+      <c r="C100">
+        <v>35</v>
+      </c>
+      <c r="D100" t="s">
+        <v>30</v>
+      </c>
+      <c r="F100" s="1">
+        <v>45334</v>
+      </c>
+      <c r="G100" t="s">
+        <v>641</v>
+      </c>
+      <c r="H100" t="s">
+        <v>71</v>
+      </c>
+      <c r="I100" t="s">
+        <v>33</v>
+      </c>
+      <c r="J100">
+        <v>99201</v>
+      </c>
+      <c r="K100" t="s">
+        <v>71</v>
+      </c>
+      <c r="L100">
+        <v>47.657952299999998</v>
+      </c>
+      <c r="M100">
+        <v>-117.42363640000001</v>
+      </c>
+      <c r="N100" t="s">
+        <v>72</v>
+      </c>
+      <c r="O100" t="s">
+        <v>36</v>
+      </c>
+      <c r="P100" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>216</v>
+      </c>
+      <c r="S100" t="s">
+        <v>640</v>
+      </c>
+      <c r="U100" t="s">
+        <v>52</v>
+      </c>
+      <c r="V100" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="W100" t="s">
+        <v>590</v>
+      </c>
+      <c r="X100" t="s">
         <v>99</v>
       </c>
-      <c r="Y97" s="2"/>
-      <c r="Z97" s="2"/>
-      <c r="AA97" s="2"/>
-      <c r="AB97" s="2"/>
-      <c r="AC97" s="2"/>
-      <c r="AD97" s="2"/>
+    </row>
+    <row r="101" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>90101</v>
+      </c>
+      <c r="B101" t="s">
+        <v>651</v>
+      </c>
+      <c r="D101" t="s">
+        <v>168</v>
+      </c>
+      <c r="F101" s="1">
+        <v>45338</v>
+      </c>
+      <c r="G101" t="s">
+        <v>653</v>
+      </c>
+      <c r="H101" t="s">
+        <v>71</v>
+      </c>
+      <c r="I101" t="s">
+        <v>33</v>
+      </c>
+      <c r="J101">
+        <v>99207</v>
+      </c>
+      <c r="K101" t="s">
+        <v>71</v>
+      </c>
+      <c r="L101">
+        <v>47.686246799999999</v>
+      </c>
+      <c r="M101">
+        <v>-117.3677964</v>
+      </c>
+      <c r="N101" t="s">
+        <v>72</v>
+      </c>
+      <c r="O101" t="s">
+        <v>36</v>
+      </c>
+      <c r="P101" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>207</v>
+      </c>
+      <c r="R101" t="s">
+        <v>39</v>
+      </c>
+      <c r="S101" t="s">
+        <v>652</v>
+      </c>
+      <c r="U101" t="s">
+        <v>41</v>
+      </c>
+      <c r="V101" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="102" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>90102</v>
+      </c>
+      <c r="B102" t="s">
+        <v>659</v>
+      </c>
+      <c r="C102">
+        <v>53</v>
+      </c>
+      <c r="D102" t="s">
+        <v>30</v>
+      </c>
+      <c r="F102" s="1">
+        <v>45342</v>
+      </c>
+      <c r="G102" t="s">
+        <v>648</v>
+      </c>
+      <c r="H102" t="s">
+        <v>649</v>
+      </c>
+      <c r="I102" t="s">
+        <v>33</v>
+      </c>
+      <c r="J102">
+        <v>98606</v>
+      </c>
+      <c r="K102" t="s">
+        <v>47</v>
+      </c>
+      <c r="L102">
+        <v>45.712875699999998</v>
+      </c>
+      <c r="M102">
+        <v>-122.5163099</v>
+      </c>
+      <c r="N102" t="s">
+        <v>615</v>
+      </c>
+      <c r="O102" t="s">
+        <v>36</v>
+      </c>
+      <c r="P102" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>207</v>
+      </c>
+      <c r="S102" t="s">
+        <v>646</v>
+      </c>
+      <c r="U102" t="s">
+        <v>52</v>
+      </c>
+      <c r="V102" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="AA102" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB102" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="103" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>90103</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="C103" s="5">
+        <v>40</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E103" t="s">
+        <v>69</v>
+      </c>
+      <c r="F103" s="6">
+        <v>45369</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I103" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J103" s="5">
+        <v>98404</v>
+      </c>
+      <c r="K103" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L103" s="5">
+        <v>47.191309199999999</v>
+      </c>
+      <c r="M103" s="5">
+        <v>-122.4191421</v>
+      </c>
+      <c r="N103" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O103" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P103" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q103" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="R103" s="5"/>
+      <c r="S103" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="T103" s="5"/>
+      <c r="U103" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V103" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="W103" s="5"/>
+      <c r="X103" s="5"/>
+      <c r="Y103" s="5"/>
+      <c r="Z103" s="5"/>
+      <c r="AA103" s="5"/>
+      <c r="AB103" s="5"/>
+      <c r="AC103" s="5"/>
+      <c r="AD103" s="5"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="V98" r:id="rId1" xr:uid="{989D8BD6-E86F-4580-B2A9-513298D6F86A}"/>
+    <hyperlink ref="V100" r:id="rId2" xr:uid="{F3A7DA00-F8A5-47D8-9653-80C07B327419}"/>
+    <hyperlink ref="V102" r:id="rId3" xr:uid="{D410200E-9C82-42EC-8872-FC44A64A0761}"/>
+    <hyperlink ref="V103" r:id="rId4" xr:uid="{8E96F9EF-81DE-465A-9CAE-084D6FCF0C68}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Data/Raw/fe_newnames.xlsx
+++ b/Data/Raw/fe_newnames.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\fewapo\Data\Raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7FBA09-7E97-4AB4-B51D-573E81CD1299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F6BED1-B5A3-49DE-8688-3FB1A564EB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fe-newnames.xlsx" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="824">
   <si>
     <t>Unique ID</t>
   </si>
@@ -2009,6 +2009,493 @@
   </si>
   <si>
     <t>https://www.kptv.com/2024/03/01/clark-co-sheriff-releases-video-moment-deputies-shot-killed-suspect-brush-prairie/</t>
+  </si>
+  <si>
+    <t>https://komonews.com/news/local/woman-killed-sr525-wrong-way-crash-lynnwood-snohomish-county-deputies-domestic-violence-kidnapping-suspect-pursuit</t>
+  </si>
+  <si>
+    <t>Trudy Slanger</t>
+  </si>
+  <si>
+    <t>14800 State Route 525</t>
+  </si>
+  <si>
+    <t>Snohomish County Sheriff's Office</t>
+  </si>
+  <si>
+    <t>Sheriff's deputies were pursuing a  man in connection to a domestic violence assault and kidnapping of a woman who was in his truck.  They terminated as he started driving the wrong way on State Route 525 just before the crash.  His truck hit a SUV head-on, killing the driver and seriously injuring himself and the passenger in his car.</t>
+  </si>
+  <si>
+    <t>14000 NE 20th Ave</t>
+  </si>
+  <si>
+    <t>Deputies responded to two reported carjackings, and tracked the suspect to an American Legion building, where they shot him.  A witness said that the he realized the suspect was armed when he raised his arms.</t>
+  </si>
+  <si>
+    <t>Alan Jenks</t>
+  </si>
+  <si>
+    <t>1800 West Dean</t>
+  </si>
+  <si>
+    <t>https://www.krem.com/article/news/crime/spokane-arson-police-shooting-victim-identity/293-ff0bcc77-d49d-40fb-9dd4-64592221ca27</t>
+  </si>
+  <si>
+    <t>Spokane police officers were responding to a suspicious house fire. Police claim Jenks was not cooperative while being interviewed about the incident and tried to walk away during questioning.  Officers tried to detain Jenks, at which point police say he shot a gun he was carrying and two officers shot back and killed him on the scene.  Another man was arrested and charged with arson for starting the fire.</t>
+  </si>
+  <si>
+    <t>Lynnwood</t>
+  </si>
+  <si>
+    <t>Benjamin Steven Woods</t>
+  </si>
+  <si>
+    <t>https://www.columbian.com/news/2024/apr/17/prineville-man-shot-multiple-times-by-clark-county-sheriffs-deputies-in-salmon-creek-says-medical-examiner/</t>
+  </si>
+  <si>
+    <t>https://www.king5.com/article/news/crime/man-killed-by-police-tukwila-hotel-believed-he-was-meeting-girls-under-12/281-03098558-b006-4a14-866c-7ceb3f7fc374</t>
+  </si>
+  <si>
+    <t>16500 Southcenter Pkwy</t>
+  </si>
+  <si>
+    <t>Officers were conducting an operation at the hotel as part of the department's Internet Crimes Against Children Taskforce.  Bodycam video shows them opening the door to confront the suspect, when he pulls a handgun out of his jacket they shoot and kill him.</t>
+  </si>
+  <si>
+    <t>Bruce Coval Meneley</t>
+  </si>
+  <si>
+    <t>Officers Adam Fowler, Officer Nicholas French</t>
+  </si>
+  <si>
+    <t>https://www.thestranger.com/slog-am/2024/04/24/79483588/slog-am-first-seattle-police-shooting-this-year-supreme-court-hears-idaho-abortion-case-senate-passes-tiktok-ban?utm_source=Stranger%2FMercury%2FEverOut&amp;utm_campaign=b0c08e7248-EMAIL_CAMPAIGN_2023_02_09_08_31_COPY_01&amp;utm_medium=email&amp;utm_term=0_-a7406d5101-%5BLIST_EMAIL_ID%5D</t>
+  </si>
+  <si>
+    <t>Tukwila</t>
+  </si>
+  <si>
+    <t>Sgt Fred Harrison, Deputy Enrique Cordero; Deputy Jim Payne; Deputy Michael Gonzalez</t>
+  </si>
+  <si>
+    <t>Spokane County Sherrif's Office</t>
+  </si>
+  <si>
+    <t>30300 North Monroe Road</t>
+  </si>
+  <si>
+    <t>Spokane County Sheriff’s Office specialty units responded to assist the Stevens County Sheriff’s Office with arresting Hegel, who had failed to show up to court earlier in the week.  After attempting to deescalate the situation, deputies deployed chemical munitions into the residence to force him to come out, but he did not.  They eventually forced open the home’s front door and allegedly responded to an immediate threat by shooting and killing him.</t>
+  </si>
+  <si>
+    <t>https://www.spokesman.com/stories/2024/apr/03/man-shot-by-deputies-near-deer-park-had-standoff-w/</t>
+  </si>
+  <si>
+    <t>Deputy Josiah Loos, Detectives Samuel Turner and Travis West</t>
+  </si>
+  <si>
+    <t>https://www.khq.com/news/3-spokane-county-deputies-who-shot-and-killed-a-child-rape-suspect-named/article_a0019890-f383-11ee-aae2-a70786480827.html</t>
+  </si>
+  <si>
+    <t>Donald Hegel</t>
+  </si>
+  <si>
+    <t>Joseph Jacob Hadden</t>
+  </si>
+  <si>
+    <t>101 W. Front St</t>
+  </si>
+  <si>
+    <t>Port Angeles</t>
+  </si>
+  <si>
+    <t>Port Angeles Police Department</t>
+  </si>
+  <si>
+    <t>Two Port Angeles police officers responded to a bank hold-up alarm May 3 and encountered ths subject, who allegedly had a handgun.  They shot and killed him.</t>
+  </si>
+  <si>
+    <t>https://www.msn.com/en-us/news/crime/investigators-seeking-woman-who-used-atm/ar-BB1mWN0b</t>
+  </si>
+  <si>
+    <t>Marvin Arellano</t>
+  </si>
+  <si>
+    <t>I5 exit 195</t>
+  </si>
+  <si>
+    <t>Hammer</t>
+  </si>
+  <si>
+    <t>WSP troopers shot and killed a man who was likely having a manic episode and had attacked two construction workers after getting stuck behind their vehicle on I5.</t>
+  </si>
+  <si>
+    <t>https://apnews.com/article/police-shoot-idaho-man-washington-freeway-a781bf295af8c5c4faca692d6e615f7b</t>
+  </si>
+  <si>
+    <t>Salih Beslic</t>
+  </si>
+  <si>
+    <t>Machete</t>
+  </si>
+  <si>
+    <t>https://www.tri-cityherald.com/news/local/crime/article288917692.html</t>
+  </si>
+  <si>
+    <t>Detective TJ Orth</t>
+  </si>
+  <si>
+    <t>3300 W Court St</t>
+  </si>
+  <si>
+    <t>Police were called to respond to a man allegedly wielding a machete.  When he allegedly charged at the officers he was shot and killed.</t>
+  </si>
+  <si>
+    <t>Michael Aaron Vaughn</t>
+  </si>
+  <si>
+    <t>https://www.kentreporter.com/northwest/man-killed-by-sheriffs-deputies-in-auburn-identified/</t>
+  </si>
+  <si>
+    <t>24 Auburn Way South</t>
+  </si>
+  <si>
+    <t>Auburn</t>
+  </si>
+  <si>
+    <t>King County Sheriff's Office, Auburn Police Department</t>
+  </si>
+  <si>
+    <t>Vaughn was shot and killed by police during an eviction.</t>
+  </si>
+  <si>
+    <t>https://www.columbian.com/news/2024/jun/25/four-vancouver-police-officers-identified-in-early-morning-fatal-shooting-on-andresen-road/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seargant  James Kelly, Officers Jason Haigwood, Justin Reiner and Philip Wilkening </t>
+  </si>
+  <si>
+    <t>Jonathan West Nelson</t>
+  </si>
+  <si>
+    <t>2400 Northeast Andresen Road</t>
+  </si>
+  <si>
+    <t>https://www.columbian.com/news/2024/jun/20/40-year-old-vancouver-man-fatally-shot-by-police-on-andresen-road-identified/</t>
+  </si>
+  <si>
+    <t>Police were responding to a report of a man with a gun.  They shot him after he allegedly pointed the firearm at him.</t>
+  </si>
+  <si>
+    <t>https://www.cityofvancouver.us/vancouver-police-involved-in-shooting/</t>
+  </si>
+  <si>
+    <t>https://www.cityofvancouver.us/vancouver-police-officer-involved-in-shooting/</t>
+  </si>
+  <si>
+    <t>Police were responding to a report of a man with and aggressive dog and a gun.  They shot him after he allegedly pointed the firearm at him.</t>
+  </si>
+  <si>
+    <t>https://www.clarkcountytoday.com/news/vancouver-police-officers-identified-in-june-8-shooting/</t>
+  </si>
+  <si>
+    <t>Officer Brandon Riedel</t>
+  </si>
+  <si>
+    <t>Vadim V. Sashchenko</t>
+  </si>
+  <si>
+    <t>100 block of SE Columbia Way</t>
+  </si>
+  <si>
+    <t>Deer Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 205th St E and 6th Ave Ct E.</t>
+  </si>
+  <si>
+    <t>Police were pursuing a subject who did not respond to an attempted traffic stop.  The subject allegedly shot at police both during the chase, and after he was cornered in his neighborhood.  They returned fire, killing him.</t>
+  </si>
+  <si>
+    <t>https://komonews.com/news/local/pierce-county-spanaway-officer-involved-shooting-ois-sheriffs-office-deputies-police-officers-washington-state-patrol-troopers-shooting-gunshot-shot-freeway-i5-tacoma-suspect-condition-law-enforcement</t>
+  </si>
+  <si>
+    <t>https://www.seattletimes.com/seattle-news/law-justice/pierce-county-deputies-fatally-shoot-person-near-spanaway/</t>
+  </si>
+  <si>
+    <t>Police were pursuing a stolen car.   The driver crashed while fleeing.  The passenger in his car, a 14-year-old girl, was injured and the driver of the other car was severely injured and died a few days later.</t>
+  </si>
+  <si>
+    <t>4400 Airport Way South</t>
+  </si>
+  <si>
+    <t>https://www.kiro7.com/news/one-dead-after-high-speed-car-chase-next-boeing-airfield/7NE75LCJKNCI5JEDMIYNO54P7M/</t>
+  </si>
+  <si>
+    <t>Ivan Zaytsev</t>
+  </si>
+  <si>
+    <t>Jonathan Luksan</t>
+  </si>
+  <si>
+    <t>Dante Cudini</t>
+  </si>
+  <si>
+    <t>Christian Demetri Moshofsky</t>
+  </si>
+  <si>
+    <t>102 Madison Ave</t>
+  </si>
+  <si>
+    <t>242nd Avenue Court East</t>
+  </si>
+  <si>
+    <t>4800 33rd Avenue Court East</t>
+  </si>
+  <si>
+    <t>Colville</t>
+  </si>
+  <si>
+    <t>Graham</t>
+  </si>
+  <si>
+    <t>Stevens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+260th St. E and 70th Ave</t>
+  </si>
+  <si>
+    <t>Stevens County Sheriff's Office</t>
+  </si>
+  <si>
+    <t>Highway 395 and Auto View Road</t>
+  </si>
+  <si>
+    <t>Lois K Phair</t>
+  </si>
+  <si>
+    <t>KCME deaths 8/9/2024</t>
+  </si>
+  <si>
+    <t>https://www.statesmanexaminer.com/news/local/suspect-in-attack-on-prosecutor-named/article_0aec85f2-54d7-11ef-9761-43a632b11302.html</t>
+  </si>
+  <si>
+    <t>The subject had allegedly attacked a deputy prosecutor after a court hearing and fled.  He was located and stopped by a sheriff's deputy, and allegedly exited his van and charged the deputy with a machete in his hand. The deputy shot and killed him.</t>
+  </si>
+  <si>
+    <t>Sheriff's deputies were responding to a domestic incident involving a weapon.  The man allegedly pointed his weapon at the deputies, and three of them shot and killed him.</t>
+  </si>
+  <si>
+    <t>https://www.piercecountywa.gov/DocumentCenter/View/139933/PCFIT-PCSD-August-23-2024</t>
+  </si>
+  <si>
+    <t>https://mynorthwest.com/3969687/man-killed-in-pierce-county-deputy-involved-shooting/</t>
+  </si>
+  <si>
+    <t>https://www.chronline.com/stories/38-year-old-man-killed-by-pierce-county-deputies-during-pursuit-officially-identified,347721</t>
+  </si>
+  <si>
+    <t>The subject was was shot and killed by Pierce County deputies following a pursuit.  The reason for the initial pursuit was not released, but the subject was described as a "criminal suspect".</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26100 104th Avenue Southeast</t>
+  </si>
+  <si>
+    <t>Alizar A. Kachiyev</t>
+  </si>
+  <si>
+    <t>https://ilovekent.net/teen-driver-charged-as-adult-in-july-13-fatal-kent-crash/</t>
+  </si>
+  <si>
+    <t>Deputies responded to a domestic-violence call involving an argument among family members. The 911 caller said their brother had a knife. Deputies contacted the man, he ran to a shed on the property and they reported, “Shots fired,” over the radio shortly after.</t>
+  </si>
+  <si>
+    <t>Kent police said officers were responding to a 911 call of shots fired when they heard more gunshots they believed had been fired at them from the upper story of a nearby building, and one officer fired a gun in that direction.  Officers then detained someone who said their brother, believed to be subject, had shot himself. However, a Port of Seattle Police Department spokesperson said investigators “don’t have conclusive answers” as to whether the subject was killed by a police officer.  The King County prosecutors office listed this as a use of force fatality.</t>
+  </si>
+  <si>
+    <t>https://www.seattletimes.com/seattle-news/law-justice/details-on-mans-death-still-unclear-after-he-exchanged-gunfire-with-kent-police/</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>https://www.kentreporter.com/news/mother-of-man-fatally-shot-in-kent-starts-fundraiser-for-funeral/</t>
+  </si>
+  <si>
+    <t>https://www.dignitymemorial.com/obituaries/seattle-wa/lois-phair-11943544</t>
+  </si>
+  <si>
+    <t>WSP were pursuing a driver who fled from multiple attempts to stop her for expired registration tags.  The driver allegedly rammed the trooper's vehicle, sped off and crashed into a power pole, killing the passenger.  Troopers claim they were not actively pursuing the vehicle when it hit the light pole.</t>
+  </si>
+  <si>
+    <t>Gina Munna</t>
+  </si>
+  <si>
+    <t>https://www.wsaz.com/2024/09/10/grandmother-70-dies-head-on-crash-with-driver-allegedly-trying-flee-deputies/</t>
+  </si>
+  <si>
+    <t>The subject was being pursued by deputies for a suspected stolen car and drug-related behavior, through Lacey and Olympia.  Eventually she collided with another car, killing one of the occupants and injuring two others.</t>
+  </si>
+  <si>
+    <t>Fones Rd and Pacific Avenue</t>
+  </si>
+  <si>
+    <t>Snohomish Couty Sheriff's Office</t>
+  </si>
+  <si>
+    <t>https://www.seattletimes.com/seattle-news/suspect-killed-after-snohomish-county-deputies-chase-ram-vehicle/</t>
+  </si>
+  <si>
+    <t>7500 Hiway 9</t>
+  </si>
+  <si>
+    <t>The subject was being pursued by deputies for a suspected homicide.  They tried stopping the suspect with a PIT maneuver, using their patrol car to push the rear-end of a fleeing vehicle sideways and causing it to spin out. The man was thrown from the vehicle and died at the scene.</t>
+  </si>
+  <si>
+    <t>Sumner</t>
+  </si>
+  <si>
+    <t>Sumner Police Department, Puyallup Police Department, Bonney Lake Police Department</t>
+  </si>
+  <si>
+    <t>Sumner police were dispatched to investigate a man in crisis on the railroad tracks. The man was allegedly armed with a knife. Washington State Patrol, the Puyallup Police Department, Bonney Lake Police Department and a civilian crisis responder provided assistance. The man was shot and killed by officers from 3 different departments after about 2 hours.  The man who originally called 911 said he would never have called if he had known what would happen.</t>
+  </si>
+  <si>
+    <t>https://www.fox13seattle.com/news/person-fatally-shot-police-sumner</t>
+  </si>
+  <si>
+    <t>900 Traffic Avenue</t>
+  </si>
+  <si>
+    <t>Kody Dean Olsen</t>
+  </si>
+  <si>
+    <t>https://komonews.com/news/local/maple-valley-bodies-found-arrest-charges-seattle-tacoma-washington-king-pierce-county-brandon-gerner-joshua-jones-kody-olsen-suspects-jail-victims-robert-riley-ashley-williams-shootout-deputies-officer-involved-shooting-crime-crisis-animal-horse-lemon</t>
+  </si>
+  <si>
+    <t>4300 Vickery Ave E</t>
+  </si>
+  <si>
+    <t>Deputies attempted a traffic stop for a suspected DUI but the subject fled.  At some point he allegedly shot at the deputies and they fired back.  He was eventually pulled from the vehicle and transported to hospital where he died several days later.</t>
+  </si>
+  <si>
+    <t>https://komonews.com/news/local/tacoma-standoff-shooting-dui-suspect-bullet-hits-pierce-county-deputy-handcuff-belt-uninjured-4300-vickery-ave-east-ois</t>
+  </si>
+  <si>
+    <t>https://www.piercecountywa.gov/DocumentCenter/View/134569/January-12-2024-PCFIT-4300-Vickery-Avenue</t>
+  </si>
+  <si>
+    <t>Timothy McDonald</t>
+  </si>
+  <si>
+    <t>Jeffery Kiner</t>
+  </si>
+  <si>
+    <t>https://www.thenewstribune.com/news/local/crime/article289697439.html</t>
+  </si>
+  <si>
+    <t>https://www.piercecountywa.gov/DocumentCenter/View/138570/July-5-2024-PCFIT-4800-33rd-Ave-Ct-E</t>
+  </si>
+  <si>
+    <t>Charles Ferree</t>
+  </si>
+  <si>
+    <t>Deolia Blandford</t>
+  </si>
+  <si>
+    <t>Highway 101 and SE Lynch Road</t>
+  </si>
+  <si>
+    <t>Shelton</t>
+  </si>
+  <si>
+    <t>Mason</t>
+  </si>
+  <si>
+    <t>The victim was attempting to make a turn when the trooper who was traveling at a high rate of speed to a vehicle fire at an exit of the highway 101, reportedly with lights and siren activated, collided with the victim's vehicle, killing both the victim and his passenger.</t>
+  </si>
+  <si>
+    <t>The victim was a passenger in a vehicle attempting to make a turn when the trooper who was traveling at a high rate of speed to a vehicle fire at an exit of the highway 101, reportedly with lights and siren activated, collided with the vehicle, killing both the victim and the driver.</t>
+  </si>
+  <si>
+    <t>Vehicle Accident</t>
+  </si>
+  <si>
+    <t>https://www.thenewstribune.com/news/local/article287454220.html</t>
+  </si>
+  <si>
+    <t>Gabriel Daniel Renteria</t>
+  </si>
+  <si>
+    <t>Native American</t>
+  </si>
+  <si>
+    <t>I5 milepost 190</t>
+  </si>
+  <si>
+    <t>Police responded to a report of shots fired and found one person dead and another critically injured.  Based on local witness descriptions they located the alleged suspect and pursued him onto I5, where he crashed, involving other vehicles.  Police allege he then shot himself.</t>
+  </si>
+  <si>
+    <t>John Robinson</t>
+  </si>
+  <si>
+    <t>Yelm Police Department, Nisqually Tribal Police Department, Thurston County Sheriff's Office</t>
+  </si>
+  <si>
+    <t>4600 Herman Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Police pursued the subject who fled for some distance before losing control over his motorcyle on a gravel driveway, crashed and was killed. </t>
+  </si>
+  <si>
+    <t>ME_url</t>
+  </si>
+  <si>
+    <t>https://www.piercecountywa.gov/CivicAlerts.aspx?AID=6540</t>
+  </si>
+  <si>
+    <t>Vancouver Police Department, Clark County Sheriff's Office, SWAT</t>
+  </si>
+  <si>
+    <t>Police responded to reports of a man threatening his neighbors.  They arrived with a drone and an armored vehicle.  The man allegedly had a gun and a rifle and shot at the armed vehicle.  After a 3 hour standoff, he was shot and killed</t>
+  </si>
+  <si>
+    <t>https://www.seattletimes.com/seattle-news/law-justice/wsp-pursuit-ends-in-deadly-crash-in-everett/</t>
+  </si>
+  <si>
+    <t>"Another neighbor, Selene Gudino, said she is grateful her family was not hurt. She explained she had parked in her driveway with her kids in the car within seconds of the crash just a few hundred feet away." https://www.msn.com/en-us/news/crime/state-patrol-pursuit-leads-to-deadly-rollover-crash-in-everett/ar-AA1rrstK Komo News</t>
+  </si>
+  <si>
+    <t>1900 Rainier Avenue</t>
+  </si>
+  <si>
+    <t>name not released due to suicide</t>
+  </si>
+  <si>
+    <t>https://snohomishcountywa.gov/ArchiveCenter/ViewFile/Item/7216</t>
+  </si>
+  <si>
+    <t>https://www.theolympian.com/news/local/article292881774.html</t>
+  </si>
+  <si>
+    <t>https://www.heraldnet.com/news/police-chase-ends-in-fatal-crash-in-everett/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Washington State Patrol initiated the pursuit along Highway 2 near Lake Stevens, which then continued into Everett.  What led to the pursuit is still not known.  The chase ended in a residential neighborhood with a fatal rollover crash.  </t>
+  </si>
+  <si>
+    <t>Elicio Paco Sanorico-Bocanegra</t>
+  </si>
+  <si>
+    <t>https://www.heraldnet.com/news/everett-double-shooting-victim-and-suspect-both-18-identified/</t>
+  </si>
+  <si>
+    <t>https://www.oregonlive.com/crime/2024/10/man-shot-to-death-by-vancouver-police-during-standoff-in-september-identified.html</t>
+  </si>
+  <si>
+    <t>Michael D. Williams</t>
+  </si>
+  <si>
+    <t>5400 NE 71st st</t>
   </si>
 </sst>
 </file>
@@ -2322,7 +2809,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2437,6 +2924,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD6DADC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD6DADC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2483,7 +2981,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2491,8 +2989,7 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2539,7 +3036,10 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="33">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2651,39 +3151,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AD103" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="A1:AD103" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="30">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Unique ID" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Age" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Gender" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Race" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Date of injury resulting in death (month/day/year)" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Location of injury (address)" dataDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Location of death (city)" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="State" dataDxfId="21"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Location of death (zip code)" dataDxfId="20"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Location of death (county)" dataDxfId="19"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Latitude" dataDxfId="18"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Longitude" dataDxfId="17"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Agency or agencies involved" dataDxfId="16"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Highest level of force" dataDxfId="15"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Armed/Unarmed" dataDxfId="14"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Alleged weapon" dataDxfId="13"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Fleeing/Not fleeing" dataDxfId="12"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Brief description" dataDxfId="11"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Dispositions/Exclusions INTERNAL USE, NOT FOR ANALYSIS" dataDxfId="10"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Intended use of force (Developing)" dataDxfId="9"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Supporting document link" dataDxfId="8"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Foreknowledge of mental illness? INTERNAL USE, NOT FOR ANALYSIS" dataDxfId="7"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="MH Crisis" dataDxfId="6"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Notes" dataDxfId="5"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="additional_url" dataDxfId="4"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="officer_names" dataDxfId="3"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="officer_url" dataDxfId="2"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="victim_url" dataDxfId="1"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="IIT_url" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AE132" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+  <autoFilter ref="A1:AE132" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AD128">
+    <sortCondition ref="A1:A128"/>
+  </sortState>
+  <tableColumns count="31">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Unique ID" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Age" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Gender" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Race" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Date of injury resulting in death (month/day/year)" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Location of injury (address)" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Location of death (city)" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="State" dataDxfId="22"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Location of death (zip code)" dataDxfId="21"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Location of death (county)" dataDxfId="20"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Latitude" dataDxfId="19"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Longitude" dataDxfId="18"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Agency or agencies involved" dataDxfId="17"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Highest level of force" dataDxfId="16"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Armed/Unarmed" dataDxfId="15"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Alleged weapon" dataDxfId="14"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Fleeing/Not fleeing" dataDxfId="13"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Brief description" dataDxfId="12"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Dispositions/Exclusions INTERNAL USE, NOT FOR ANALYSIS" dataDxfId="11"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Intended use of force (Developing)" dataDxfId="10"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Supporting document link" dataDxfId="9"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Foreknowledge of mental illness? INTERNAL USE, NOT FOR ANALYSIS" dataDxfId="8"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="MH Crisis" dataDxfId="7"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Notes" dataDxfId="6"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="additional_url" dataDxfId="5"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="officer_names" dataDxfId="4"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="officer_url" dataDxfId="3"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="victim_url" dataDxfId="2"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="IIT_url" dataDxfId="1"/>
+    <tableColumn id="31" xr3:uid="{D2192FFE-CAEF-48FA-BD54-4E5A331A662B}" name="ME_url" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2986,46 +3490,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD103"/>
+  <dimension ref="A1:AE132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="W88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C110" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB103" sqref="AB103"/>
+      <selection pane="bottomRight" activeCell="A124" sqref="A124:XFD124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" customWidth="1"/>
-    <col min="5" max="5" width="16.6328125" customWidth="1"/>
-    <col min="6" max="6" width="47.54296875" customWidth="1"/>
-    <col min="7" max="7" width="27.1796875" customWidth="1"/>
-    <col min="8" max="8" width="23.453125" customWidth="1"/>
-    <col min="10" max="10" width="27.54296875" customWidth="1"/>
-    <col min="11" max="11" width="26.26953125" customWidth="1"/>
-    <col min="12" max="12" width="10.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="10" max="10" width="27.5703125" customWidth="1"/>
+    <col min="11" max="11" width="26.28515625" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="28.1796875" customWidth="1"/>
+    <col min="14" max="14" width="28.140625" customWidth="1"/>
     <col min="15" max="15" width="22" customWidth="1"/>
-    <col min="16" max="16" width="18.1796875" customWidth="1"/>
-    <col min="17" max="17" width="17.54296875" customWidth="1"/>
-    <col min="18" max="18" width="20.54296875" customWidth="1"/>
-    <col min="19" max="19" width="17.81640625" customWidth="1"/>
-    <col min="20" max="20" width="54.54296875" customWidth="1"/>
-    <col min="21" max="21" width="34.1796875" customWidth="1"/>
+    <col min="16" max="16" width="18.140625" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" customWidth="1"/>
+    <col min="18" max="18" width="20.5703125" customWidth="1"/>
+    <col min="19" max="19" width="17.85546875" customWidth="1"/>
+    <col min="20" max="20" width="54.5703125" customWidth="1"/>
+    <col min="21" max="21" width="34.140625" customWidth="1"/>
     <col min="22" max="22" width="26" customWidth="1"/>
-    <col min="23" max="23" width="63.7265625" customWidth="1"/>
-    <col min="24" max="24" width="11.26953125" customWidth="1"/>
-    <col min="26" max="26" width="15.54296875" customWidth="1"/>
-    <col min="27" max="27" width="15.81640625" customWidth="1"/>
-    <col min="28" max="28" width="12.453125" customWidth="1"/>
+    <col min="23" max="23" width="63.7109375" customWidth="1"/>
+    <col min="24" max="24" width="11.28515625" customWidth="1"/>
+    <col min="26" max="26" width="15.5703125" customWidth="1"/>
+    <col min="27" max="27" width="15.85546875" customWidth="1"/>
+    <col min="28" max="28" width="12.42578125" customWidth="1"/>
     <col min="29" max="29" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3116,8 +3620,11 @@
       <c r="AD1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>90001</v>
       </c>
@@ -3176,7 +3683,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>90002</v>
       </c>
@@ -3244,7 +3751,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>90003</v>
       </c>
@@ -3306,7 +3813,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>90004</v>
       </c>
@@ -3368,7 +3875,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>90005</v>
       </c>
@@ -3439,7 +3946,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>90006</v>
       </c>
@@ -3498,7 +4005,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>90007</v>
       </c>
@@ -3569,7 +4076,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>90008</v>
       </c>
@@ -3637,7 +4144,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>90009</v>
       </c>
@@ -3702,7 +4209,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>90010</v>
       </c>
@@ -3770,7 +4277,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>90011</v>
       </c>
@@ -3841,7 +4348,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>90012</v>
       </c>
@@ -3912,7 +4419,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>90013</v>
       </c>
@@ -3971,7 +4478,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>90014</v>
       </c>
@@ -4033,7 +4540,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>90015</v>
       </c>
@@ -4095,7 +4602,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>90016</v>
       </c>
@@ -4160,7 +4667,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>90017</v>
       </c>
@@ -4219,7 +4726,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>90018</v>
       </c>
@@ -4284,7 +4791,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>90019</v>
       </c>
@@ -4343,7 +4850,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>90020</v>
       </c>
@@ -4411,7 +4918,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>90021</v>
       </c>
@@ -4482,7 +4989,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>90022</v>
       </c>
@@ -4547,7 +5054,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>90023</v>
       </c>
@@ -4621,7 +5128,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>90024</v>
       </c>
@@ -4692,7 +5199,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>90025</v>
       </c>
@@ -4754,7 +5261,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>90026</v>
       </c>
@@ -4822,7 +5329,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>90027</v>
       </c>
@@ -4881,7 +5388,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>90028</v>
       </c>
@@ -4952,7 +5459,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>90029</v>
       </c>
@@ -5020,7 +5527,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>90030</v>
       </c>
@@ -5097,7 +5604,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>90031</v>
       </c>
@@ -5156,7 +5663,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>90032</v>
       </c>
@@ -5230,7 +5737,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>90033</v>
       </c>
@@ -5295,7 +5802,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>90034</v>
       </c>
@@ -5369,7 +5876,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>90035</v>
       </c>
@@ -5434,7 +5941,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>90036</v>
       </c>
@@ -5493,7 +6000,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>90037</v>
       </c>
@@ -5549,7 +6056,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>90038</v>
       </c>
@@ -5617,7 +6124,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>90039</v>
       </c>
@@ -5685,7 +6192,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>90040</v>
       </c>
@@ -5750,7 +6257,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>90041</v>
       </c>
@@ -5809,7 +6316,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>90042</v>
       </c>
@@ -5868,7 +6375,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>90043</v>
       </c>
@@ -5927,7 +6434,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>90044</v>
       </c>
@@ -5992,7 +6499,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>90045</v>
       </c>
@@ -6054,7 +6561,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>90046</v>
       </c>
@@ -6122,7 +6629,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>90047</v>
       </c>
@@ -6187,7 +6694,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>90048</v>
       </c>
@@ -6249,7 +6756,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>90049</v>
       </c>
@@ -6314,7 +6821,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>90050</v>
       </c>
@@ -6376,7 +6883,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>90051</v>
       </c>
@@ -6438,7 +6945,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>90052</v>
       </c>
@@ -6497,7 +7004,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>90053</v>
       </c>
@@ -6553,7 +7060,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>90054</v>
       </c>
@@ -6612,7 +7119,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>90055</v>
       </c>
@@ -6677,7 +7184,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>90056</v>
       </c>
@@ -6733,7 +7240,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>90057</v>
       </c>
@@ -6792,7 +7299,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>90058</v>
       </c>
@@ -6857,7 +7364,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>90059</v>
       </c>
@@ -6919,7 +7426,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>90060</v>
       </c>
@@ -6978,7 +7485,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>90061</v>
       </c>
@@ -7034,7 +7541,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>90062</v>
       </c>
@@ -7096,7 +7603,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>90063</v>
       </c>
@@ -7158,7 +7665,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>90064</v>
       </c>
@@ -7217,7 +7724,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>90065</v>
       </c>
@@ -7279,7 +7786,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>90066</v>
       </c>
@@ -7341,7 +7848,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>90067</v>
       </c>
@@ -7403,7 +7910,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>90068</v>
       </c>
@@ -7468,7 +7975,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>90069</v>
       </c>
@@ -7533,7 +8040,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>90070</v>
       </c>
@@ -7592,7 +8099,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>90071</v>
       </c>
@@ -7651,7 +8158,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>90072</v>
       </c>
@@ -7713,7 +8220,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>90073</v>
       </c>
@@ -7772,7 +8279,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>90074</v>
       </c>
@@ -7840,7 +8347,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>90075</v>
       </c>
@@ -7902,7 +8409,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>90076</v>
       </c>
@@ -7961,7 +8468,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>90077</v>
       </c>
@@ -8023,7 +8530,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>90078</v>
       </c>
@@ -8079,7 +8586,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>90079</v>
       </c>
@@ -8144,7 +8651,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>90080</v>
       </c>
@@ -8206,7 +8713,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>90081</v>
       </c>
@@ -8268,7 +8775,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>90082</v>
       </c>
@@ -8327,7 +8834,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>90083</v>
       </c>
@@ -8392,7 +8899,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>90084</v>
       </c>
@@ -8454,7 +8961,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>90085</v>
       </c>
@@ -8513,7 +9020,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>90086</v>
       </c>
@@ -8575,7 +9082,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>90087</v>
       </c>
@@ -8637,7 +9144,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>90088</v>
       </c>
@@ -8690,7 +9197,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>90089</v>
       </c>
@@ -8764,7 +9271,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90091</v>
       </c>
@@ -8826,7 +9333,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90092</v>
       </c>
@@ -8891,7 +9398,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>90093</v>
       </c>
@@ -8953,7 +9460,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>90094</v>
       </c>
@@ -9015,7 +9522,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="95" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>90095</v>
       </c>
@@ -9077,7 +9584,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>90096</v>
       </c>
@@ -9139,7 +9646,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>90097</v>
       </c>
@@ -9152,6 +9659,9 @@
       <c r="D97" t="s">
         <v>30</v>
       </c>
+      <c r="E97" t="s">
+        <v>84</v>
+      </c>
       <c r="F97" s="1">
         <v>45322</v>
       </c>
@@ -9207,7 +9717,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>90098</v>
       </c>
@@ -9266,7 +9776,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>90099</v>
       </c>
@@ -9319,7 +9829,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>90100</v>
       </c>
@@ -9384,7 +9894,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>90101</v>
       </c>
@@ -9443,7 +9953,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>90102</v>
       </c>
@@ -9508,77 +10018,1838 @@
         <v>661</v>
       </c>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>90103</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" t="s">
         <v>656</v>
       </c>
-      <c r="C103" s="5">
+      <c r="C103">
         <v>40</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="D103" t="s">
         <v>30</v>
       </c>
       <c r="E103" t="s">
         <v>69</v>
       </c>
-      <c r="F103" s="6">
+      <c r="F103" s="1">
         <v>45369</v>
       </c>
-      <c r="G103" s="5" t="s">
+      <c r="G103" t="s">
         <v>655</v>
       </c>
-      <c r="H103" s="5" t="s">
+      <c r="H103" t="s">
         <v>121</v>
       </c>
-      <c r="I103" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J103" s="5">
+      <c r="I103" t="s">
+        <v>33</v>
+      </c>
+      <c r="J103">
         <v>98404</v>
       </c>
-      <c r="K103" s="5" t="s">
+      <c r="K103" t="s">
         <v>34</v>
       </c>
-      <c r="L103" s="5">
+      <c r="L103">
         <v>47.191309199999999</v>
       </c>
-      <c r="M103" s="5">
+      <c r="M103">
         <v>-122.4191421</v>
       </c>
-      <c r="N103" s="5" t="s">
+      <c r="N103" t="s">
         <v>35</v>
       </c>
-      <c r="O103" s="5" t="s">
+      <c r="O103" t="s">
         <v>36</v>
       </c>
-      <c r="P103" s="5" t="s">
+      <c r="P103" t="s">
         <v>37</v>
       </c>
-      <c r="Q103" s="5" t="s">
+      <c r="Q103" t="s">
         <v>207</v>
       </c>
-      <c r="R103" s="5"/>
-      <c r="S103" s="5" t="s">
+      <c r="S103" t="s">
         <v>657</v>
       </c>
-      <c r="T103" s="5"/>
-      <c r="U103" s="5" t="s">
+      <c r="U103" t="s">
         <v>52</v>
       </c>
       <c r="V103" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="W103" s="5"/>
-      <c r="X103" s="5"/>
-      <c r="Y103" s="5"/>
-      <c r="Z103" s="5"/>
-      <c r="AA103" s="5"/>
-      <c r="AB103" s="5"/>
-      <c r="AC103" s="5"/>
-      <c r="AD103" s="5"/>
+    </row>
+    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>90104</v>
+      </c>
+      <c r="B104" t="s">
+        <v>663</v>
+      </c>
+      <c r="C104">
+        <v>83</v>
+      </c>
+      <c r="D104" t="s">
+        <v>168</v>
+      </c>
+      <c r="F104" s="1">
+        <v>45393</v>
+      </c>
+      <c r="G104" t="s">
+        <v>664</v>
+      </c>
+      <c r="H104" t="s">
+        <v>673</v>
+      </c>
+      <c r="I104" t="s">
+        <v>33</v>
+      </c>
+      <c r="J104">
+        <v>98236</v>
+      </c>
+      <c r="K104" t="s">
+        <v>190</v>
+      </c>
+      <c r="L104">
+        <v>47.992808799999999</v>
+      </c>
+      <c r="M104">
+        <v>-122.4006334</v>
+      </c>
+      <c r="N104" t="s">
+        <v>665</v>
+      </c>
+      <c r="O104" t="s">
+        <v>39</v>
+      </c>
+      <c r="R104" t="s">
+        <v>39</v>
+      </c>
+      <c r="S104" t="s">
+        <v>666</v>
+      </c>
+      <c r="U104" t="s">
+        <v>171</v>
+      </c>
+      <c r="V104" s="3" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>90105</v>
+      </c>
+      <c r="B105" t="s">
+        <v>674</v>
+      </c>
+      <c r="C105">
+        <v>41</v>
+      </c>
+      <c r="D105" t="s">
+        <v>30</v>
+      </c>
+      <c r="F105" s="1">
+        <v>45395</v>
+      </c>
+      <c r="G105" t="s">
+        <v>667</v>
+      </c>
+      <c r="H105" t="s">
+        <v>46</v>
+      </c>
+      <c r="I105" t="s">
+        <v>33</v>
+      </c>
+      <c r="J105">
+        <v>98686</v>
+      </c>
+      <c r="K105" t="s">
+        <v>47</v>
+      </c>
+      <c r="L105">
+        <v>45.722899400000003</v>
+      </c>
+      <c r="M105">
+        <v>-122.6689896</v>
+      </c>
+      <c r="N105" t="s">
+        <v>615</v>
+      </c>
+      <c r="O105" t="s">
+        <v>36</v>
+      </c>
+      <c r="P105" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>207</v>
+      </c>
+      <c r="S105" t="s">
+        <v>668</v>
+      </c>
+      <c r="U105" t="s">
+        <v>52</v>
+      </c>
+      <c r="V105" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>90106</v>
+      </c>
+      <c r="B106" t="s">
+        <v>669</v>
+      </c>
+      <c r="C106">
+        <v>38</v>
+      </c>
+      <c r="D106" t="s">
+        <v>30</v>
+      </c>
+      <c r="F106" s="1">
+        <v>45382</v>
+      </c>
+      <c r="G106" t="s">
+        <v>670</v>
+      </c>
+      <c r="H106" t="s">
+        <v>71</v>
+      </c>
+      <c r="I106" t="s">
+        <v>33</v>
+      </c>
+      <c r="J106">
+        <v>99201</v>
+      </c>
+      <c r="K106" t="s">
+        <v>71</v>
+      </c>
+      <c r="L106">
+        <v>47.666288199999997</v>
+      </c>
+      <c r="M106">
+        <v>-117.44106050000001</v>
+      </c>
+      <c r="N106" t="s">
+        <v>72</v>
+      </c>
+      <c r="O106" t="s">
+        <v>36</v>
+      </c>
+      <c r="P106" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>207</v>
+      </c>
+      <c r="S106" t="s">
+        <v>672</v>
+      </c>
+      <c r="U106" t="s">
+        <v>52</v>
+      </c>
+      <c r="V106" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>90107</v>
+      </c>
+      <c r="B107" t="s">
+        <v>679</v>
+      </c>
+      <c r="C107">
+        <v>67</v>
+      </c>
+      <c r="D107" t="s">
+        <v>30</v>
+      </c>
+      <c r="E107" t="s">
+        <v>84</v>
+      </c>
+      <c r="F107" s="1">
+        <v>45399</v>
+      </c>
+      <c r="G107" t="s">
+        <v>677</v>
+      </c>
+      <c r="H107" t="s">
+        <v>682</v>
+      </c>
+      <c r="I107" t="s">
+        <v>33</v>
+      </c>
+      <c r="J107">
+        <v>98188</v>
+      </c>
+      <c r="K107" t="s">
+        <v>130</v>
+      </c>
+      <c r="L107">
+        <v>47.454423900000002</v>
+      </c>
+      <c r="M107">
+        <v>-122.263414</v>
+      </c>
+      <c r="N107" t="s">
+        <v>131</v>
+      </c>
+      <c r="O107" t="s">
+        <v>36</v>
+      </c>
+      <c r="P107" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>207</v>
+      </c>
+      <c r="S107" t="s">
+        <v>678</v>
+      </c>
+      <c r="U107" t="s">
+        <v>52</v>
+      </c>
+      <c r="V107" t="s">
+        <v>676</v>
+      </c>
+      <c r="AA107" t="s">
+        <v>680</v>
+      </c>
+      <c r="AB107" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>90108</v>
+      </c>
+      <c r="B108" t="s">
+        <v>690</v>
+      </c>
+      <c r="C108">
+        <v>43</v>
+      </c>
+      <c r="D108" t="s">
+        <v>30</v>
+      </c>
+      <c r="E108" t="s">
+        <v>84</v>
+      </c>
+      <c r="F108" s="1">
+        <v>45380</v>
+      </c>
+      <c r="G108" t="s">
+        <v>685</v>
+      </c>
+      <c r="H108" t="s">
+        <v>727</v>
+      </c>
+      <c r="I108" t="s">
+        <v>33</v>
+      </c>
+      <c r="J108">
+        <v>99006</v>
+      </c>
+      <c r="K108" t="s">
+        <v>71</v>
+      </c>
+      <c r="L108">
+        <v>47.934369599999997</v>
+      </c>
+      <c r="M108">
+        <v>-117.5001469</v>
+      </c>
+      <c r="N108" t="s">
+        <v>684</v>
+      </c>
+      <c r="O108" t="s">
+        <v>36</v>
+      </c>
+      <c r="S108" t="s">
+        <v>686</v>
+      </c>
+      <c r="U108" t="s">
+        <v>52</v>
+      </c>
+      <c r="V108" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="AA108" t="s">
+        <v>688</v>
+      </c>
+      <c r="AB108" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>90109</v>
+      </c>
+      <c r="B109" t="s">
+        <v>691</v>
+      </c>
+      <c r="C109">
+        <v>38</v>
+      </c>
+      <c r="D109" t="s">
+        <v>30</v>
+      </c>
+      <c r="F109" s="1">
+        <v>45415</v>
+      </c>
+      <c r="G109" t="s">
+        <v>692</v>
+      </c>
+      <c r="H109" t="s">
+        <v>693</v>
+      </c>
+      <c r="I109" t="s">
+        <v>33</v>
+      </c>
+      <c r="J109">
+        <v>98362</v>
+      </c>
+      <c r="K109" t="s">
+        <v>306</v>
+      </c>
+      <c r="L109">
+        <v>48.120190000000001</v>
+      </c>
+      <c r="M109">
+        <v>-123.4376948</v>
+      </c>
+      <c r="N109" t="s">
+        <v>694</v>
+      </c>
+      <c r="O109" t="s">
+        <v>36</v>
+      </c>
+      <c r="P109" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>207</v>
+      </c>
+      <c r="S109" t="s">
+        <v>695</v>
+      </c>
+      <c r="U109" t="s">
+        <v>52</v>
+      </c>
+      <c r="V109" s="3" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>90110</v>
+      </c>
+      <c r="B110" t="s">
+        <v>697</v>
+      </c>
+      <c r="C110">
+        <v>31</v>
+      </c>
+      <c r="D110" t="s">
+        <v>30</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" s="1">
+        <v>45428</v>
+      </c>
+      <c r="G110" t="s">
+        <v>698</v>
+      </c>
+      <c r="H110" t="s">
+        <v>409</v>
+      </c>
+      <c r="I110" t="s">
+        <v>33</v>
+      </c>
+      <c r="J110">
+        <v>98201</v>
+      </c>
+      <c r="K110" t="s">
+        <v>190</v>
+      </c>
+      <c r="L110">
+        <v>47.970298100000001</v>
+      </c>
+      <c r="M110">
+        <v>-122.2198267</v>
+      </c>
+      <c r="N110" t="s">
+        <v>138</v>
+      </c>
+      <c r="O110" t="s">
+        <v>36</v>
+      </c>
+      <c r="P110" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>699</v>
+      </c>
+      <c r="S110" t="s">
+        <v>700</v>
+      </c>
+      <c r="U110" t="s">
+        <v>52</v>
+      </c>
+      <c r="V110" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>90111</v>
+      </c>
+      <c r="B111" t="s">
+        <v>702</v>
+      </c>
+      <c r="C111">
+        <v>47</v>
+      </c>
+      <c r="D111" t="s">
+        <v>30</v>
+      </c>
+      <c r="F111" s="1">
+        <v>45435</v>
+      </c>
+      <c r="G111" t="s">
+        <v>706</v>
+      </c>
+      <c r="H111" t="s">
+        <v>145</v>
+      </c>
+      <c r="I111" t="s">
+        <v>33</v>
+      </c>
+      <c r="J111">
+        <v>99301</v>
+      </c>
+      <c r="K111" t="s">
+        <v>146</v>
+      </c>
+      <c r="L111">
+        <v>46.2428387</v>
+      </c>
+      <c r="M111">
+        <v>-119.1375922</v>
+      </c>
+      <c r="N111" t="s">
+        <v>147</v>
+      </c>
+      <c r="O111" t="s">
+        <v>36</v>
+      </c>
+      <c r="P111" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>703</v>
+      </c>
+      <c r="S111" t="s">
+        <v>707</v>
+      </c>
+      <c r="U111" t="s">
+        <v>52</v>
+      </c>
+      <c r="V111" t="s">
+        <v>704</v>
+      </c>
+      <c r="X111" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA111" t="s">
+        <v>705</v>
+      </c>
+      <c r="AB111" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>90112</v>
+      </c>
+      <c r="B112" t="s">
+        <v>708</v>
+      </c>
+      <c r="C112">
+        <v>48</v>
+      </c>
+      <c r="D112" t="s">
+        <v>30</v>
+      </c>
+      <c r="F112" s="1">
+        <v>45436</v>
+      </c>
+      <c r="G112" t="s">
+        <v>710</v>
+      </c>
+      <c r="H112" t="s">
+        <v>711</v>
+      </c>
+      <c r="I112" t="s">
+        <v>33</v>
+      </c>
+      <c r="J112">
+        <v>98002</v>
+      </c>
+      <c r="K112" t="s">
+        <v>130</v>
+      </c>
+      <c r="L112">
+        <v>47.306731399999997</v>
+      </c>
+      <c r="M112">
+        <v>-122.2278898</v>
+      </c>
+      <c r="N112" t="s">
+        <v>712</v>
+      </c>
+      <c r="O112" t="s">
+        <v>36</v>
+      </c>
+      <c r="S112" t="s">
+        <v>713</v>
+      </c>
+      <c r="U112" t="s">
+        <v>52</v>
+      </c>
+      <c r="V112" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="113" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>90113</v>
+      </c>
+      <c r="B113" t="s">
+        <v>725</v>
+      </c>
+      <c r="C113">
+        <v>43</v>
+      </c>
+      <c r="D113" t="s">
+        <v>30</v>
+      </c>
+      <c r="E113" t="s">
+        <v>84</v>
+      </c>
+      <c r="F113" s="1">
+        <v>45451</v>
+      </c>
+      <c r="G113" t="s">
+        <v>726</v>
+      </c>
+      <c r="H113" t="s">
+        <v>46</v>
+      </c>
+      <c r="I113" t="s">
+        <v>33</v>
+      </c>
+      <c r="J113">
+        <v>98661</v>
+      </c>
+      <c r="K113" t="s">
+        <v>47</v>
+      </c>
+      <c r="L113">
+        <v>45.621664600000003</v>
+      </c>
+      <c r="M113">
+        <v>-122.67751029999999</v>
+      </c>
+      <c r="N113" t="s">
+        <v>48</v>
+      </c>
+      <c r="O113" t="s">
+        <v>36</v>
+      </c>
+      <c r="P113" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>207</v>
+      </c>
+      <c r="S113" t="s">
+        <v>722</v>
+      </c>
+      <c r="U113" t="s">
+        <v>52</v>
+      </c>
+      <c r="V113" t="s">
+        <v>723</v>
+      </c>
+      <c r="Z113" t="s">
+        <v>721</v>
+      </c>
+      <c r="AA113" t="s">
+        <v>724</v>
+      </c>
+      <c r="AB113" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="114" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>90114</v>
+      </c>
+      <c r="B114" t="s">
+        <v>716</v>
+      </c>
+      <c r="C114">
+        <v>42</v>
+      </c>
+      <c r="D114" t="s">
+        <v>30</v>
+      </c>
+      <c r="F114" s="1">
+        <v>45460</v>
+      </c>
+      <c r="G114" t="s">
+        <v>717</v>
+      </c>
+      <c r="H114" t="s">
+        <v>46</v>
+      </c>
+      <c r="I114" t="s">
+        <v>33</v>
+      </c>
+      <c r="J114">
+        <v>98661</v>
+      </c>
+      <c r="K114" t="s">
+        <v>47</v>
+      </c>
+      <c r="L114">
+        <v>45.642665100000002</v>
+      </c>
+      <c r="M114">
+        <v>-122.6040588</v>
+      </c>
+      <c r="N114" t="s">
+        <v>48</v>
+      </c>
+      <c r="O114" t="s">
+        <v>36</v>
+      </c>
+      <c r="P114" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>207</v>
+      </c>
+      <c r="S114" t="s">
+        <v>719</v>
+      </c>
+      <c r="U114" t="s">
+        <v>52</v>
+      </c>
+      <c r="V114" t="s">
+        <v>718</v>
+      </c>
+      <c r="Z114" t="s">
+        <v>720</v>
+      </c>
+      <c r="AA114" t="s">
+        <v>715</v>
+      </c>
+      <c r="AB114" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="115" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>90115</v>
+      </c>
+      <c r="B115" t="s">
+        <v>735</v>
+      </c>
+      <c r="D115" t="s">
+        <v>30</v>
+      </c>
+      <c r="E115" t="s">
+        <v>84</v>
+      </c>
+      <c r="F115" s="1">
+        <v>45475</v>
+      </c>
+      <c r="G115" t="s">
+        <v>728</v>
+      </c>
+      <c r="H115" t="s">
+        <v>153</v>
+      </c>
+      <c r="I115" t="s">
+        <v>33</v>
+      </c>
+      <c r="J115">
+        <v>98387</v>
+      </c>
+      <c r="K115" t="s">
+        <v>34</v>
+      </c>
+      <c r="L115">
+        <v>47.070533099999999</v>
+      </c>
+      <c r="M115">
+        <v>-122.4260957</v>
+      </c>
+      <c r="N115" t="s">
+        <v>35</v>
+      </c>
+      <c r="O115" t="s">
+        <v>36</v>
+      </c>
+      <c r="P115" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>207</v>
+      </c>
+      <c r="R115" t="s">
+        <v>39</v>
+      </c>
+      <c r="S115" t="s">
+        <v>729</v>
+      </c>
+      <c r="U115" t="s">
+        <v>52</v>
+      </c>
+      <c r="V115" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="Z115" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="116" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>90116</v>
+      </c>
+      <c r="B116" t="s">
+        <v>736</v>
+      </c>
+      <c r="C116">
+        <v>42</v>
+      </c>
+      <c r="D116" t="s">
+        <v>30</v>
+      </c>
+      <c r="F116" s="1">
+        <v>45462</v>
+      </c>
+      <c r="G116" t="s">
+        <v>741</v>
+      </c>
+      <c r="H116" t="s">
+        <v>121</v>
+      </c>
+      <c r="I116" t="s">
+        <v>33</v>
+      </c>
+      <c r="J116">
+        <v>98422</v>
+      </c>
+      <c r="K116" t="s">
+        <v>34</v>
+      </c>
+      <c r="L116">
+        <v>47.2134541</v>
+      </c>
+      <c r="M116">
+        <v>-122.3876114</v>
+      </c>
+      <c r="N116" t="s">
+        <v>35</v>
+      </c>
+      <c r="O116" t="s">
+        <v>36</v>
+      </c>
+      <c r="R116" t="s">
+        <v>116</v>
+      </c>
+      <c r="S116" t="s">
+        <v>760</v>
+      </c>
+      <c r="U116" t="s">
+        <v>52</v>
+      </c>
+      <c r="V116" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="AD116" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="117" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>90117</v>
+      </c>
+      <c r="B117" t="s">
+        <v>758</v>
+      </c>
+      <c r="C117">
+        <v>41</v>
+      </c>
+      <c r="D117" t="s">
+        <v>30</v>
+      </c>
+      <c r="F117" s="1">
+        <v>45486</v>
+      </c>
+      <c r="G117" t="s">
+        <v>757</v>
+      </c>
+      <c r="H117" t="s">
+        <v>137</v>
+      </c>
+      <c r="I117" t="s">
+        <v>33</v>
+      </c>
+      <c r="J117">
+        <v>98031</v>
+      </c>
+      <c r="K117" t="s">
+        <v>130</v>
+      </c>
+      <c r="L117">
+        <v>47.396026599999999</v>
+      </c>
+      <c r="M117">
+        <v>-122.2099808</v>
+      </c>
+      <c r="N117" t="s">
+        <v>227</v>
+      </c>
+      <c r="O117" t="s">
+        <v>39</v>
+      </c>
+      <c r="R117" t="s">
+        <v>39</v>
+      </c>
+      <c r="S117" t="s">
+        <v>732</v>
+      </c>
+      <c r="U117" t="s">
+        <v>171</v>
+      </c>
+      <c r="V117" s="3" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="118" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>90118</v>
+      </c>
+      <c r="B118" t="s">
+        <v>748</v>
+      </c>
+      <c r="C118">
+        <v>67</v>
+      </c>
+      <c r="D118" t="s">
+        <v>168</v>
+      </c>
+      <c r="E118" t="s">
+        <v>84</v>
+      </c>
+      <c r="F118" s="1">
+        <v>45512</v>
+      </c>
+      <c r="G118" t="s">
+        <v>733</v>
+      </c>
+      <c r="H118" t="s">
+        <v>129</v>
+      </c>
+      <c r="I118" t="s">
+        <v>33</v>
+      </c>
+      <c r="J118">
+        <v>98108</v>
+      </c>
+      <c r="K118" t="s">
+        <v>130</v>
+      </c>
+      <c r="L118">
+        <v>47.563173999999997</v>
+      </c>
+      <c r="M118">
+        <v>-122.32303899999999</v>
+      </c>
+      <c r="N118" t="s">
+        <v>138</v>
+      </c>
+      <c r="O118" t="s">
+        <v>39</v>
+      </c>
+      <c r="R118" t="s">
+        <v>39</v>
+      </c>
+      <c r="S118" t="s">
+        <v>766</v>
+      </c>
+      <c r="U118" t="s">
+        <v>171</v>
+      </c>
+      <c r="V118" t="s">
+        <v>734</v>
+      </c>
+      <c r="Y118" t="s">
+        <v>749</v>
+      </c>
+      <c r="Z118" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="119" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>90119</v>
+      </c>
+      <c r="B119" t="s">
+        <v>738</v>
+      </c>
+      <c r="C119">
+        <v>33</v>
+      </c>
+      <c r="D119" t="s">
+        <v>30</v>
+      </c>
+      <c r="E119" t="s">
+        <v>187</v>
+      </c>
+      <c r="F119" s="1">
+        <v>45532</v>
+      </c>
+      <c r="G119" t="s">
+        <v>739</v>
+      </c>
+      <c r="H119" t="s">
+        <v>137</v>
+      </c>
+      <c r="I119" t="s">
+        <v>33</v>
+      </c>
+      <c r="J119">
+        <v>98032</v>
+      </c>
+      <c r="K119" t="s">
+        <v>130</v>
+      </c>
+      <c r="L119">
+        <v>47.381646699999997</v>
+      </c>
+      <c r="M119">
+        <v>-122.2476602</v>
+      </c>
+      <c r="N119" t="s">
+        <v>227</v>
+      </c>
+      <c r="O119" t="s">
+        <v>36</v>
+      </c>
+      <c r="S119" t="s">
+        <v>761</v>
+      </c>
+      <c r="U119" t="s">
+        <v>763</v>
+      </c>
+      <c r="V119" t="s">
+        <v>762</v>
+      </c>
+      <c r="Z119" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="120" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>90120</v>
+      </c>
+      <c r="B120" t="s">
+        <v>786</v>
+      </c>
+      <c r="C120" s="5">
+        <v>48</v>
+      </c>
+      <c r="D120" t="s">
+        <v>30</v>
+      </c>
+      <c r="E120" t="s">
+        <v>84</v>
+      </c>
+      <c r="F120" s="1">
+        <v>45497</v>
+      </c>
+      <c r="G120" t="s">
+        <v>740</v>
+      </c>
+      <c r="H120" t="s">
+        <v>32</v>
+      </c>
+      <c r="I120" t="s">
+        <v>33</v>
+      </c>
+      <c r="J120">
+        <v>98321</v>
+      </c>
+      <c r="K120" t="s">
+        <v>34</v>
+      </c>
+      <c r="L120">
+        <v>47.1508477</v>
+      </c>
+      <c r="M120">
+        <v>-122.10860599999999</v>
+      </c>
+      <c r="N120" t="s">
+        <v>35</v>
+      </c>
+      <c r="O120" t="s">
+        <v>36</v>
+      </c>
+      <c r="P120" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>207</v>
+      </c>
+      <c r="S120" t="s">
+        <v>752</v>
+      </c>
+      <c r="U120" t="s">
+        <v>52</v>
+      </c>
+      <c r="V120" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="Z120" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="121" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>90121</v>
+      </c>
+      <c r="B121" t="s">
+        <v>787</v>
+      </c>
+      <c r="C121">
+        <v>57</v>
+      </c>
+      <c r="D121" t="s">
+        <v>30</v>
+      </c>
+      <c r="E121" t="s">
+        <v>84</v>
+      </c>
+      <c r="F121" s="1">
+        <v>45492</v>
+      </c>
+      <c r="G121" t="s">
+        <v>747</v>
+      </c>
+      <c r="H121" t="s">
+        <v>742</v>
+      </c>
+      <c r="I121" t="s">
+        <v>33</v>
+      </c>
+      <c r="J121">
+        <v>99114</v>
+      </c>
+      <c r="K121" t="s">
+        <v>744</v>
+      </c>
+      <c r="L121">
+        <v>48.580203400000002</v>
+      </c>
+      <c r="M121">
+        <v>-117.9693434</v>
+      </c>
+      <c r="N121" t="s">
+        <v>746</v>
+      </c>
+      <c r="O121" t="s">
+        <v>36</v>
+      </c>
+      <c r="P121" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>49</v>
+      </c>
+      <c r="S121" t="s">
+        <v>751</v>
+      </c>
+      <c r="U121" t="s">
+        <v>52</v>
+      </c>
+      <c r="V121" s="3" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="122" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>90122</v>
+      </c>
+      <c r="B122" t="s">
+        <v>737</v>
+      </c>
+      <c r="C122">
+        <v>38</v>
+      </c>
+      <c r="D122" t="s">
+        <v>30</v>
+      </c>
+      <c r="F122" s="1">
+        <v>45488</v>
+      </c>
+      <c r="G122" t="s">
+        <v>745</v>
+      </c>
+      <c r="H122" t="s">
+        <v>743</v>
+      </c>
+      <c r="I122" t="s">
+        <v>33</v>
+      </c>
+      <c r="J122">
+        <v>98338</v>
+      </c>
+      <c r="K122" t="s">
+        <v>34</v>
+      </c>
+      <c r="L122">
+        <v>47.020754199999999</v>
+      </c>
+      <c r="M122">
+        <v>-122.3413482</v>
+      </c>
+      <c r="N122" t="s">
+        <v>35</v>
+      </c>
+      <c r="O122" t="s">
+        <v>36</v>
+      </c>
+      <c r="R122" t="s">
+        <v>39</v>
+      </c>
+      <c r="S122" t="s">
+        <v>756</v>
+      </c>
+      <c r="U122" t="s">
+        <v>89</v>
+      </c>
+      <c r="V122" s="3" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="123" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>90123</v>
+      </c>
+      <c r="B123" t="s">
+        <v>767</v>
+      </c>
+      <c r="C123">
+        <v>70</v>
+      </c>
+      <c r="D123" t="s">
+        <v>168</v>
+      </c>
+      <c r="E123" t="s">
+        <v>84</v>
+      </c>
+      <c r="F123" s="1">
+        <v>45542</v>
+      </c>
+      <c r="G123" t="s">
+        <v>770</v>
+      </c>
+      <c r="H123" t="s">
+        <v>269</v>
+      </c>
+      <c r="I123" t="s">
+        <v>33</v>
+      </c>
+      <c r="J123">
+        <v>98501</v>
+      </c>
+      <c r="K123" t="s">
+        <v>64</v>
+      </c>
+      <c r="L123">
+        <v>47.041699199999996</v>
+      </c>
+      <c r="M123">
+        <v>-122.84954310000001</v>
+      </c>
+      <c r="N123" t="s">
+        <v>181</v>
+      </c>
+      <c r="O123" t="s">
+        <v>39</v>
+      </c>
+      <c r="R123" t="s">
+        <v>39</v>
+      </c>
+      <c r="S123" t="s">
+        <v>769</v>
+      </c>
+      <c r="U123" t="s">
+        <v>171</v>
+      </c>
+      <c r="V123" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="124" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>90124</v>
+      </c>
+      <c r="C124">
+        <v>19</v>
+      </c>
+      <c r="D124" t="s">
+        <v>30</v>
+      </c>
+      <c r="F124" s="1">
+        <v>45549</v>
+      </c>
+      <c r="G124" t="s">
+        <v>773</v>
+      </c>
+      <c r="H124" t="s">
+        <v>190</v>
+      </c>
+      <c r="I124" t="s">
+        <v>33</v>
+      </c>
+      <c r="J124">
+        <v>98258</v>
+      </c>
+      <c r="K124" t="s">
+        <v>190</v>
+      </c>
+      <c r="L124">
+        <v>48.060391199999998</v>
+      </c>
+      <c r="M124">
+        <v>-122.11364639999999</v>
+      </c>
+      <c r="N124" t="s">
+        <v>771</v>
+      </c>
+      <c r="O124" t="s">
+        <v>39</v>
+      </c>
+      <c r="R124" t="s">
+        <v>39</v>
+      </c>
+      <c r="S124" t="s">
+        <v>774</v>
+      </c>
+      <c r="U124" t="s">
+        <v>171</v>
+      </c>
+      <c r="V124" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="125" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>90125</v>
+      </c>
+      <c r="B125" t="s">
+        <v>799</v>
+      </c>
+      <c r="C125">
+        <v>35</v>
+      </c>
+      <c r="D125" t="s">
+        <v>30</v>
+      </c>
+      <c r="E125" t="s">
+        <v>800</v>
+      </c>
+      <c r="F125" s="1">
+        <v>45549</v>
+      </c>
+      <c r="G125" t="s">
+        <v>779</v>
+      </c>
+      <c r="H125" t="s">
+        <v>775</v>
+      </c>
+      <c r="I125" t="s">
+        <v>33</v>
+      </c>
+      <c r="J125">
+        <v>98390</v>
+      </c>
+      <c r="K125" t="s">
+        <v>34</v>
+      </c>
+      <c r="L125">
+        <v>47.200977399999999</v>
+      </c>
+      <c r="M125">
+        <v>-122.24831690000001</v>
+      </c>
+      <c r="N125" t="s">
+        <v>776</v>
+      </c>
+      <c r="O125" t="s">
+        <v>36</v>
+      </c>
+      <c r="P125" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>49</v>
+      </c>
+      <c r="S125" t="s">
+        <v>777</v>
+      </c>
+      <c r="U125" t="s">
+        <v>52</v>
+      </c>
+      <c r="V125" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="AE125" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="126" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>90126</v>
+      </c>
+      <c r="B126" t="s">
+        <v>780</v>
+      </c>
+      <c r="C126">
+        <v>45</v>
+      </c>
+      <c r="D126" t="s">
+        <v>30</v>
+      </c>
+      <c r="E126" t="s">
+        <v>84</v>
+      </c>
+      <c r="F126" s="1">
+        <v>45272</v>
+      </c>
+      <c r="G126" t="s">
+        <v>782</v>
+      </c>
+      <c r="H126" t="s">
+        <v>121</v>
+      </c>
+      <c r="I126" t="s">
+        <v>33</v>
+      </c>
+      <c r="J126">
+        <v>98443</v>
+      </c>
+      <c r="K126" t="s">
+        <v>34</v>
+      </c>
+      <c r="L126">
+        <v>47.217165799999997</v>
+      </c>
+      <c r="M126">
+        <v>-122.3795559</v>
+      </c>
+      <c r="N126" t="s">
+        <v>35</v>
+      </c>
+      <c r="O126" t="s">
+        <v>36</v>
+      </c>
+      <c r="P126" t="s">
+        <v>37</v>
+      </c>
+      <c r="R126" t="s">
+        <v>39</v>
+      </c>
+      <c r="S126" t="s">
+        <v>783</v>
+      </c>
+      <c r="U126" t="s">
+        <v>89</v>
+      </c>
+      <c r="V126" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="Z126" t="s">
+        <v>781</v>
+      </c>
+      <c r="AD126" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="127" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>90127</v>
+      </c>
+      <c r="B127" t="s">
+        <v>790</v>
+      </c>
+      <c r="C127">
+        <v>72</v>
+      </c>
+      <c r="D127" t="s">
+        <v>30</v>
+      </c>
+      <c r="E127" t="s">
+        <v>84</v>
+      </c>
+      <c r="F127" s="1">
+        <v>45388</v>
+      </c>
+      <c r="G127" t="s">
+        <v>792</v>
+      </c>
+      <c r="H127" t="s">
+        <v>793</v>
+      </c>
+      <c r="I127" t="s">
+        <v>33</v>
+      </c>
+      <c r="J127">
+        <v>98584</v>
+      </c>
+      <c r="K127" t="s">
+        <v>794</v>
+      </c>
+      <c r="L127">
+        <v>47.142985500000002</v>
+      </c>
+      <c r="M127">
+        <v>-123.0974449</v>
+      </c>
+      <c r="N127" t="s">
+        <v>138</v>
+      </c>
+      <c r="O127" t="s">
+        <v>39</v>
+      </c>
+      <c r="S127" t="s">
+        <v>795</v>
+      </c>
+      <c r="U127" t="s">
+        <v>797</v>
+      </c>
+      <c r="V127" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="128" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>90128</v>
+      </c>
+      <c r="B128" t="s">
+        <v>791</v>
+      </c>
+      <c r="C128">
+        <v>49</v>
+      </c>
+      <c r="D128" t="s">
+        <v>168</v>
+      </c>
+      <c r="E128" t="s">
+        <v>84</v>
+      </c>
+      <c r="F128" s="1">
+        <v>45388</v>
+      </c>
+      <c r="G128" t="s">
+        <v>792</v>
+      </c>
+      <c r="H128" t="s">
+        <v>793</v>
+      </c>
+      <c r="I128" t="s">
+        <v>33</v>
+      </c>
+      <c r="J128">
+        <v>98584</v>
+      </c>
+      <c r="K128" t="s">
+        <v>794</v>
+      </c>
+      <c r="L128">
+        <v>47.142985500000002</v>
+      </c>
+      <c r="M128">
+        <v>-123.0974449</v>
+      </c>
+      <c r="N128" t="s">
+        <v>138</v>
+      </c>
+      <c r="O128" t="s">
+        <v>39</v>
+      </c>
+      <c r="S128" t="s">
+        <v>796</v>
+      </c>
+      <c r="U128" t="s">
+        <v>797</v>
+      </c>
+      <c r="V128" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="129" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>90129</v>
+      </c>
+      <c r="B129" t="s">
+        <v>819</v>
+      </c>
+      <c r="C129">
+        <v>18</v>
+      </c>
+      <c r="D129" t="s">
+        <v>30</v>
+      </c>
+      <c r="E129" t="s">
+        <v>44</v>
+      </c>
+      <c r="F129" s="1">
+        <v>45557</v>
+      </c>
+      <c r="G129" t="s">
+        <v>801</v>
+      </c>
+      <c r="H129" t="s">
+        <v>409</v>
+      </c>
+      <c r="I129" t="s">
+        <v>33</v>
+      </c>
+      <c r="J129">
+        <v>98203</v>
+      </c>
+      <c r="K129" t="s">
+        <v>190</v>
+      </c>
+      <c r="L129">
+        <v>47.929929199999997</v>
+      </c>
+      <c r="M129">
+        <v>-122.23107</v>
+      </c>
+      <c r="N129" t="s">
+        <v>420</v>
+      </c>
+      <c r="O129" t="s">
+        <v>39</v>
+      </c>
+      <c r="P129" t="s">
+        <v>37</v>
+      </c>
+      <c r="R129" t="s">
+        <v>39</v>
+      </c>
+      <c r="S129" t="s">
+        <v>802</v>
+      </c>
+      <c r="U129" t="s">
+        <v>41</v>
+      </c>
+      <c r="V129" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y129" t="s">
+        <v>814</v>
+      </c>
+      <c r="AE129" s="4" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="130" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>90130</v>
+      </c>
+      <c r="B130" t="s">
+        <v>803</v>
+      </c>
+      <c r="C130">
+        <v>36</v>
+      </c>
+      <c r="D130" t="s">
+        <v>30</v>
+      </c>
+      <c r="F130" s="1">
+        <v>45555</v>
+      </c>
+      <c r="G130" t="s">
+        <v>805</v>
+      </c>
+      <c r="H130" t="s">
+        <v>269</v>
+      </c>
+      <c r="I130" t="s">
+        <v>33</v>
+      </c>
+      <c r="J130">
+        <v>98501</v>
+      </c>
+      <c r="K130" t="s">
+        <v>64</v>
+      </c>
+      <c r="L130">
+        <v>47.014322</v>
+      </c>
+      <c r="M130">
+        <v>-122.844269</v>
+      </c>
+      <c r="N130" t="s">
+        <v>804</v>
+      </c>
+      <c r="O130" t="s">
+        <v>39</v>
+      </c>
+      <c r="R130" t="s">
+        <v>139</v>
+      </c>
+      <c r="S130" t="s">
+        <v>806</v>
+      </c>
+      <c r="U130" t="s">
+        <v>171</v>
+      </c>
+      <c r="V130" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="131" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>90131</v>
+      </c>
+      <c r="B131" t="s">
+        <v>822</v>
+      </c>
+      <c r="C131">
+        <v>56</v>
+      </c>
+      <c r="D131" t="s">
+        <v>30</v>
+      </c>
+      <c r="F131" s="1">
+        <v>45562</v>
+      </c>
+      <c r="G131" t="s">
+        <v>823</v>
+      </c>
+      <c r="H131" t="s">
+        <v>46</v>
+      </c>
+      <c r="I131" t="s">
+        <v>33</v>
+      </c>
+      <c r="J131">
+        <v>98661</v>
+      </c>
+      <c r="K131" t="s">
+        <v>47</v>
+      </c>
+      <c r="L131">
+        <v>45.6739125</v>
+      </c>
+      <c r="M131">
+        <v>-122.61947189999999</v>
+      </c>
+      <c r="N131" t="s">
+        <v>809</v>
+      </c>
+      <c r="O131" t="s">
+        <v>36</v>
+      </c>
+      <c r="P131" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>207</v>
+      </c>
+      <c r="S131" t="s">
+        <v>810</v>
+      </c>
+      <c r="U131" t="s">
+        <v>52</v>
+      </c>
+      <c r="V131" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="132" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>90132</v>
+      </c>
+      <c r="D132" t="s">
+        <v>30</v>
+      </c>
+      <c r="F132" s="1">
+        <v>45564</v>
+      </c>
+      <c r="G132" t="s">
+        <v>813</v>
+      </c>
+      <c r="H132" t="s">
+        <v>409</v>
+      </c>
+      <c r="I132" t="s">
+        <v>33</v>
+      </c>
+      <c r="J132">
+        <v>98201</v>
+      </c>
+      <c r="K132" t="s">
+        <v>190</v>
+      </c>
+      <c r="L132">
+        <v>47.992366400000002</v>
+      </c>
+      <c r="M132">
+        <v>-122.200962</v>
+      </c>
+      <c r="N132" t="s">
+        <v>138</v>
+      </c>
+      <c r="O132" t="s">
+        <v>39</v>
+      </c>
+      <c r="R132" t="s">
+        <v>39</v>
+      </c>
+      <c r="S132" t="s">
+        <v>818</v>
+      </c>
+      <c r="U132" t="s">
+        <v>171</v>
+      </c>
+      <c r="V132" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="Y132" t="s">
+        <v>812</v>
+      </c>
+      <c r="Z132" t="s">
+        <v>817</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9586,10 +11857,20 @@
     <hyperlink ref="V100" r:id="rId2" xr:uid="{F3A7DA00-F8A5-47D8-9653-80C07B327419}"/>
     <hyperlink ref="V102" r:id="rId3" xr:uid="{D410200E-9C82-42EC-8872-FC44A64A0761}"/>
     <hyperlink ref="V103" r:id="rId4" xr:uid="{8E96F9EF-81DE-465A-9CAE-084D6FCF0C68}"/>
+    <hyperlink ref="V104" r:id="rId5" xr:uid="{E56DD1EB-FD4A-459E-8CE4-13E80335B609}"/>
+    <hyperlink ref="V108" r:id="rId6" xr:uid="{D528F3D6-B85E-4E25-9F17-2FC22AA53BE0}"/>
+    <hyperlink ref="V109" r:id="rId7" xr:uid="{82315842-37E2-4E90-A39A-CF1CA94C10A9}"/>
+    <hyperlink ref="V115" r:id="rId8" xr:uid="{D4A88BDF-65AA-41E5-A416-922436E6084C}"/>
+    <hyperlink ref="V125" r:id="rId9" xr:uid="{A3F5670F-1A81-4C57-A5D1-6E88AC528848}"/>
+    <hyperlink ref="V126" r:id="rId10" xr:uid="{56DF61C4-ADE9-4481-A0E0-16C6BA0253B6}"/>
+    <hyperlink ref="V127" r:id="rId11" xr:uid="{2F5E5ECD-7633-4256-B7BA-C30080DEE1F7}"/>
+    <hyperlink ref="V128" r:id="rId12" xr:uid="{6816D393-9C44-40AF-B65E-D44C362F32C4}"/>
+    <hyperlink ref="V132" r:id="rId13" xr:uid="{7FCFF8A8-6CD4-4850-B07C-123343A80752}"/>
+    <hyperlink ref="AE129" r:id="rId14" xr:uid="{2D3C2A56-A3DE-4A76-8C05-17EBDCDE9850}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId15"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Data/Raw/fe_newnames.xlsx
+++ b/Data/Raw/fe_newnames.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\fewapo\Data\Raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9149B8F4-58A2-4972-B820-949140FE3C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7903C755-556B-400E-8554-14DE9186E0CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2132" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="950">
   <si>
     <t>Unique ID</t>
   </si>
@@ -487,9 +487,6 @@
     <t>The victim was being sought on a warrant for second-degree assault when the South Sound Gang Task Force located him.  The Pierce Co Sheriff's office called in the SWAT to assist with the arrest.  Police allege there was an exchange of gunfire; two deputies were shot, in addition to the victim.</t>
   </si>
   <si>
-    <t>https://www.q13fox.com/news/2-swat-officers-shot-in-spanaway-pierce-county-Sheriff's-department-says</t>
-  </si>
-  <si>
     <t>https://www.thenewstribune.com/news/local/crime/article259446764.html</t>
   </si>
   <si>
@@ -1046,9 +1043,6 @@
   </si>
   <si>
     <t>Deputy Stephan Blaakman, Deputy Alexx Bullion</t>
-  </si>
-  <si>
-    <t>Name Notknown</t>
   </si>
   <si>
     <t>31736 50th Ln SW, Federal Way, WA 98023</t>
@@ -2197,9 +2191,6 @@
     <t>Officer Brandon Riedel</t>
   </si>
   <si>
-    <t>Vadim V. Sashchenko</t>
-  </si>
-  <si>
     <t>100 block of SE Columbia Way</t>
   </si>
   <si>
@@ -2225,9 +2216,6 @@
   </si>
   <si>
     <t>https://www.kiro7.com/news/one-dead-after-high-speed-car-chase-next-boeing-airfield/7NE75LCJKNCI5JEDMIYNO54P7M/</t>
-  </si>
-  <si>
-    <t>Ivan Zaytsev</t>
   </si>
   <si>
     <t>Jonathan Luksan</t>
@@ -2742,13 +2730,157 @@
   </si>
   <si>
     <t>https://content.govdelivery.com/attachments/WAKING/2025/01/17/file_attachments/3136931/Decedents%20List_01172025.pdf</t>
+  </si>
+  <si>
+    <t>2300 Southwest Webster Street</t>
+  </si>
+  <si>
+    <t>A woman called 911 and told dispatchers her husband was reportedly in a Police Precinct parking lot making suicidal statements.  Officers attempted to escort the man out of the secured lot. The man, reportedly armed with a knife, began walking toward officers asking police to shoot him. An officer fired a less lethal 40 mm round, and the man allegedly began running toward another officer. That officer shot and killed the man.</t>
+  </si>
+  <si>
+    <t>https://spdblotter.seattle.gov/2025/03/19/seattle-police-department-investigating-after-an-officer-shot-a-person/</t>
+  </si>
+  <si>
+    <t>Officer Kyle Hay</t>
+  </si>
+  <si>
+    <t>Northport</t>
+  </si>
+  <si>
+    <t>3300 SR 25</t>
+  </si>
+  <si>
+    <t>Stevens County sheriff deputies shot and killed a man while attempting to carry out a felony arrest warrant.</t>
+  </si>
+  <si>
+    <t>https://www.spokesman.com/stories/2025/mar/24/stevens-county-deputies-kill-suspect-in-standoff-n/</t>
+  </si>
+  <si>
+    <t>https://wsp.wa.gov/about-us/independent-investigation-team/</t>
+  </si>
+  <si>
+    <t>1700 E Yakima Ave</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Officers responded to a call about a  man armed with a rifle in a hotel lobby. They found the man outside the hotel on a greenway path, and an officer shot an killed him.</t>
+  </si>
+  <si>
+    <t>https://wsp.wa.gov/wp-content/uploads/2025/02/YVSIU-OIS-Initial-Press-Release.pdf</t>
+  </si>
+  <si>
+    <t>Robert Brewer Heaverlo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Officer Brad Althauser</t>
+  </si>
+  <si>
+    <t>Althauser also fatally shot J. Juan Briseno-Ortega on June 10, 2016</t>
+  </si>
+  <si>
+    <t>https://www.yakimaherald.com/news/local/crime_and_courts/yakima-police-officer-who-shot-and-killed-man-near-greenway-trail-also-involved-in-2016/article_1dda2a1a-e8e4-11ef-8ba4-db5b65557363.html</t>
+  </si>
+  <si>
+    <t>2300 South Eddy Street</t>
+  </si>
+  <si>
+    <t>Officers responded to a burglary call.  When they arrived the suspect was clearly in crisis, unclothed, with a swiffer mop and a knife.  They released a dog who attacked the man, and the man responded by knifing the dog.  He then lost his balance and fell, as the officer shot him 7 times.</t>
+  </si>
+  <si>
+    <t>https://seattlecollegian.com/examining-2022s-first-seattle-police-shooting-two-avoidable-casualties/</t>
+  </si>
+  <si>
+    <t>Officer Tim Jones</t>
+  </si>
+  <si>
+    <t>Rigoberto Brambila-Pelayo</t>
+  </si>
+  <si>
+    <t>https://www.docketalarm.com/cases/Washington_State_King_County_Superior_Court/18-1-03297-7%20KNT/STATE_OF_WASHINGTON_VS_BRAMBILA-PELAYO_RIGOBERTO/</t>
+  </si>
+  <si>
+    <t>https://kingcounty.gov/so-so/dept/pao/about-king-county/about-pao/data-reports/public-integrity/2022</t>
+  </si>
+  <si>
+    <t>Jeffrey Webley</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>in file</t>
+  </si>
+  <si>
+    <t>aka Nathan Stolsig</t>
+  </si>
+  <si>
+    <t>in file as Nathan Stolsig</t>
+  </si>
+  <si>
+    <t>Timothy Mwangi</t>
+  </si>
+  <si>
+    <t>Vadim V. Sashcheko</t>
+  </si>
+  <si>
+    <t>Ivan Zaystev</t>
+  </si>
+  <si>
+    <t>https://www.piercecountywa.gov/CivicAlerts.aspx?AID=6463</t>
+  </si>
+  <si>
+    <t>Alecandro A. Castaneda</t>
+  </si>
+  <si>
+    <t>400 North Ash Street</t>
+  </si>
+  <si>
+    <t>Centralia</t>
+  </si>
+  <si>
+    <t>Officers responded to a domestic violence call.  During a scuffle, they shot and killed the man.</t>
+  </si>
+  <si>
+    <t>https://www.chronline.com/stories/investigators-release-names-of-centralia-officer-victim-in-fatal-police-shooting,374062</t>
+  </si>
+  <si>
+    <t>Officer Ruben Ramirez</t>
+  </si>
+  <si>
+    <t>https://www.thenewstribune.com/news/local/crime/article268117502.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 800 91st Place SW</t>
+  </si>
+  <si>
+    <t>https://www.skagitcounty.net/SMART/Documents/PressRelease/SMART%20Press%20Release%20-%20Sedro%20Woolley%20Officer%20Involved%20Shooting%20RELEASE%203.3.2022%20-Final.pdf</t>
+  </si>
+  <si>
+    <t>I5 at Skagit River Bridge</t>
+  </si>
+  <si>
+    <t>Burlington</t>
+  </si>
+  <si>
+    <t>Troopers attempted to stop a motorcyclist at 3am multiple times.  The cyclist fled each time, and finally crashed on I5 and was hit by a truck and killed.</t>
+  </si>
+  <si>
+    <t>https://www.skagitcounty.net/SMART/Documents/PressRelease/SMART%20Press%20Release%20-I-5%20021325.pdf</t>
+  </si>
+  <si>
+    <t>https://www.skagitcounty.net/SMART/Documents/PressRelease/UPDATE%20May%2030%202023-SMART%20Press%20Release%20-%2023-ST0001%20Snohomish%20County%20Region%201%20SWAT.pdf</t>
+  </si>
+  <si>
+    <t>Urban Andrew Seay</t>
+  </si>
+  <si>
+    <t>https://content.govdelivery.com/attachments/WAKING/2025/03/21/file_attachments/3205269/Decedents%20List_03212025.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2896,6 +3028,12 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -3257,7 +3395,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3273,10 +3411,11 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3438,10 +3577,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AE148" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
-  <autoFilter ref="A1:AE148" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AE144">
-    <sortCondition ref="A1:A144"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AE154" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+  <autoFilter ref="A1:AE154" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AE154">
+    <sortCondition ref="A1:A154"/>
   </sortState>
   <tableColumns count="31">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Unique ID" dataDxfId="30"/>
@@ -3777,43 +3916,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE148"/>
+  <dimension ref="A1:AE154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="P130" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C138" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V146" sqref="V146"/>
+      <selection pane="bottomRight" activeCell="A150" sqref="A150:A154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" customWidth="1"/>
-    <col min="10" max="10" width="6.42578125" customWidth="1"/>
-    <col min="11" max="11" width="26.28515625" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" customWidth="1"/>
-    <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="28.140625" customWidth="1"/>
-    <col min="15" max="15" width="22" customWidth="1"/>
-    <col min="16" max="16" width="18.140625" customWidth="1"/>
-    <col min="17" max="17" width="17.5703125" customWidth="1"/>
-    <col min="18" max="18" width="20.5703125" customWidth="1"/>
-    <col min="19" max="19" width="17.85546875" customWidth="1"/>
-    <col min="20" max="20" width="54.5703125" customWidth="1"/>
-    <col min="21" max="21" width="34.140625" customWidth="1"/>
-    <col min="22" max="22" width="26" customWidth="1"/>
-    <col min="23" max="23" width="63.7109375" customWidth="1"/>
-    <col min="24" max="24" width="11.28515625" customWidth="1"/>
-    <col min="26" max="26" width="15.5703125" customWidth="1"/>
-    <col min="27" max="27" width="15.85546875" customWidth="1"/>
-    <col min="28" max="28" width="12.42578125" customWidth="1"/>
-    <col min="29" max="29" width="12" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="6.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="26.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="12" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="28.140625" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="22" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="18.140625" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="17.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="20.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="17.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="54.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="34.140625" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="26" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="63.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="11.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="9.140625" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="15.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="15.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="12.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="12" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="9.140625" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
@@ -3908,7 +4050,7 @@
         <v>29</v>
       </c>
       <c r="AE1" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
@@ -4156,7 +4298,7 @@
         <v>66</v>
       </c>
       <c r="U5" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="V5" t="s">
         <v>67</v>
@@ -4333,7 +4475,7 @@
         <v>-122.5904891</v>
       </c>
       <c r="N8" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="O8" t="s">
         <v>36</v>
@@ -4495,6 +4637,9 @@
       <c r="AA10" t="s">
         <v>110</v>
       </c>
+      <c r="AD10" t="s">
+        <v>942</v>
+      </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -4705,6 +4850,12 @@
       <c r="AA13" t="s">
         <v>60</v>
       </c>
+      <c r="AD13" t="s">
+        <v>924</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>927</v>
+      </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -4880,21 +5031,21 @@
         <v>52</v>
       </c>
       <c r="V16" t="s">
+        <v>940</v>
+      </c>
+      <c r="Z16" t="s">
         <v>155</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>156</v>
       </c>
-      <c r="AA16" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>90016</v>
       </c>
       <c r="B17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C17">
         <v>19</v>
@@ -4909,7 +5060,7 @@
         <v>44636</v>
       </c>
       <c r="G17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H17" t="s">
         <v>129</v>
@@ -4945,21 +5096,27 @@
         <v>116</v>
       </c>
       <c r="S17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U17" t="s">
         <v>89</v>
       </c>
       <c r="V17" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>924</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>90017</v>
       </c>
       <c r="B18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C18">
         <v>37</v>
@@ -4974,7 +5131,7 @@
         <v>44636</v>
       </c>
       <c r="G18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H18" t="s">
         <v>121</v>
@@ -5001,30 +5158,30 @@
         <v>36</v>
       </c>
       <c r="S18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U18" t="s">
         <v>52</v>
       </c>
       <c r="V18" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA18" t="s">
         <v>165</v>
       </c>
-      <c r="AA18" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>90018</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C19">
         <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E19" t="s">
         <v>44</v>
@@ -5033,7 +5190,7 @@
         <v>44636</v>
       </c>
       <c r="G19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H19" t="s">
         <v>78</v>
@@ -5063,27 +5220,27 @@
         <v>39</v>
       </c>
       <c r="S19" t="s">
+        <v>169</v>
+      </c>
+      <c r="U19" t="s">
         <v>170</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19" t="s">
         <v>171</v>
-      </c>
-      <c r="V19" t="s">
-        <v>172</v>
       </c>
       <c r="AA19" t="s">
         <v>60</v>
       </c>
       <c r="AC19" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>90019</v>
       </c>
       <c r="B20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C20">
         <v>55</v>
@@ -5095,10 +5252,10 @@
         <v>44645</v>
       </c>
       <c r="G20" t="s">
+        <v>174</v>
+      </c>
+      <c r="H20" t="s">
         <v>175</v>
-      </c>
-      <c r="H20" t="s">
-        <v>176</v>
       </c>
       <c r="I20" t="s">
         <v>33</v>
@@ -5125,24 +5282,24 @@
         <v>87</v>
       </c>
       <c r="S20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="U20" t="s">
         <v>89</v>
       </c>
       <c r="V20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AA20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>90020</v>
       </c>
       <c r="B21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C21">
         <v>56</v>
@@ -5154,7 +5311,7 @@
         <v>44663</v>
       </c>
       <c r="G21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H21" t="s">
         <v>63</v>
@@ -5175,10 +5332,10 @@
         <v>-122.7559016</v>
       </c>
       <c r="N21" t="s">
+        <v>180</v>
+      </c>
+      <c r="O21" t="s">
         <v>181</v>
-      </c>
-      <c r="O21" t="s">
-        <v>182</v>
       </c>
       <c r="P21" t="s">
         <v>107</v>
@@ -5187,13 +5344,13 @@
         <v>50</v>
       </c>
       <c r="S21" t="s">
+        <v>182</v>
+      </c>
+      <c r="U21" t="s">
         <v>183</v>
       </c>
-      <c r="U21" t="s">
+      <c r="V21" t="s">
         <v>184</v>
-      </c>
-      <c r="V21" t="s">
-        <v>185</v>
       </c>
       <c r="W21" t="s">
         <v>98</v>
@@ -5205,12 +5362,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>90021</v>
       </c>
       <c r="B22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C22">
         <v>46</v>
@@ -5219,16 +5376,16 @@
         <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F22" s="1">
         <v>44673</v>
       </c>
       <c r="G22" t="s">
+        <v>187</v>
+      </c>
+      <c r="H22" t="s">
         <v>188</v>
-      </c>
-      <c r="H22" t="s">
-        <v>189</v>
       </c>
       <c r="I22" t="s">
         <v>33</v>
@@ -5237,7 +5394,7 @@
         <v>98026</v>
       </c>
       <c r="K22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L22">
         <v>47.800942399999997</v>
@@ -5246,7 +5403,7 @@
         <v>-122.3660079</v>
       </c>
       <c r="N22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O22" t="s">
         <v>36</v>
@@ -5261,27 +5418,27 @@
         <v>50</v>
       </c>
       <c r="S22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U22" t="s">
         <v>52</v>
       </c>
       <c r="V22" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z22" t="s">
         <v>193</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>194</v>
       </c>
       <c r="AA22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>90022</v>
       </c>
       <c r="B23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C23">
         <v>31</v>
@@ -5296,10 +5453,10 @@
         <v>44685</v>
       </c>
       <c r="G23" t="s">
+        <v>195</v>
+      </c>
+      <c r="H23" t="s">
         <v>196</v>
-      </c>
-      <c r="H23" t="s">
-        <v>197</v>
       </c>
       <c r="I23" t="s">
         <v>33</v>
@@ -5317,7 +5474,7 @@
         <v>-122.2993548</v>
       </c>
       <c r="N23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O23" t="s">
         <v>36</v>
@@ -5326,27 +5483,33 @@
         <v>39</v>
       </c>
       <c r="S23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="U23" t="s">
         <v>89</v>
       </c>
       <c r="V23" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z23" t="s">
         <v>200</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>201</v>
       </c>
       <c r="AA23" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD23" t="s">
+        <v>924</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>90023</v>
       </c>
       <c r="B24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C24">
         <v>36</v>
@@ -5361,10 +5524,10 @@
         <v>44688</v>
       </c>
       <c r="G24" t="s">
+        <v>202</v>
+      </c>
+      <c r="H24" t="s">
         <v>203</v>
-      </c>
-      <c r="H24" t="s">
-        <v>204</v>
       </c>
       <c r="I24" t="s">
         <v>33</v>
@@ -5373,7 +5536,7 @@
         <v>98801</v>
       </c>
       <c r="K24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L24">
         <v>47.424255100000003</v>
@@ -5382,7 +5545,7 @@
         <v>-120.315864</v>
       </c>
       <c r="N24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O24" t="s">
         <v>36</v>
@@ -5391,36 +5554,36 @@
         <v>37</v>
       </c>
       <c r="Q24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R24" t="s">
         <v>50</v>
       </c>
       <c r="S24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="U24" t="s">
         <v>52</v>
       </c>
       <c r="V24" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z24" t="s">
         <v>209</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AA24" t="s">
         <v>210</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AC24" t="s">
         <v>211</v>
       </c>
-      <c r="AC24" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>90024</v>
       </c>
       <c r="B25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C25">
         <v>27</v>
@@ -5429,13 +5592,13 @@
         <v>30</v>
       </c>
       <c r="E25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F25" s="1">
         <v>44713</v>
       </c>
       <c r="G25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H25" t="s">
         <v>137</v>
@@ -5456,7 +5619,7 @@
         <v>-122.29159780000001</v>
       </c>
       <c r="N25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O25" t="s">
         <v>36</v>
@@ -5465,33 +5628,39 @@
         <v>37</v>
       </c>
       <c r="Q25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R25" t="s">
         <v>50</v>
       </c>
       <c r="S25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U25" t="s">
         <v>52</v>
       </c>
       <c r="V25" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z25" t="s">
         <v>218</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>219</v>
       </c>
       <c r="AA25" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD25" t="s">
+        <v>924</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>90025</v>
       </c>
       <c r="B26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C26">
         <v>32</v>
@@ -5503,10 +5672,10 @@
         <v>44716</v>
       </c>
       <c r="G26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I26" t="s">
         <v>33</v>
@@ -5515,7 +5684,7 @@
         <v>98801</v>
       </c>
       <c r="K26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L26">
         <v>47.421030199999997</v>
@@ -5524,7 +5693,7 @@
         <v>-120.3503857</v>
       </c>
       <c r="N26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O26" t="s">
         <v>36</v>
@@ -5533,27 +5702,27 @@
         <v>37</v>
       </c>
       <c r="Q26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U26" t="s">
         <v>52</v>
       </c>
       <c r="V26" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA26" t="s">
         <v>223</v>
       </c>
-      <c r="AA26" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>90026</v>
       </c>
       <c r="B27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C27">
         <v>27</v>
@@ -5568,7 +5737,7 @@
         <v>44725</v>
       </c>
       <c r="G27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H27" t="s">
         <v>137</v>
@@ -5589,7 +5758,7 @@
         <v>-122.6036831</v>
       </c>
       <c r="N27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O27" t="s">
         <v>36</v>
@@ -5598,30 +5767,36 @@
         <v>37</v>
       </c>
       <c r="Q27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R27" t="s">
         <v>50</v>
       </c>
       <c r="S27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="U27" t="s">
         <v>52</v>
       </c>
       <c r="V27" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AA27" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD27" t="s">
+        <v>924</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>90027</v>
       </c>
       <c r="B28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C28">
         <v>33</v>
@@ -5636,10 +5811,10 @@
         <v>44748</v>
       </c>
       <c r="G28" t="s">
+        <v>230</v>
+      </c>
+      <c r="H28" t="s">
         <v>231</v>
-      </c>
-      <c r="H28" t="s">
-        <v>232</v>
       </c>
       <c r="I28" t="s">
         <v>33</v>
@@ -5657,30 +5832,30 @@
         <v>-122.4919</v>
       </c>
       <c r="N28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O28" t="s">
         <v>39</v>
       </c>
       <c r="S28" t="s">
+        <v>233</v>
+      </c>
+      <c r="U28" t="s">
+        <v>170</v>
+      </c>
+      <c r="V28" t="s">
         <v>234</v>
-      </c>
-      <c r="U28" t="s">
-        <v>171</v>
-      </c>
-      <c r="V28" t="s">
-        <v>235</v>
       </c>
       <c r="AA28" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>90028</v>
       </c>
       <c r="B29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C29">
         <v>39</v>
@@ -5695,7 +5870,7 @@
         <v>44776</v>
       </c>
       <c r="G29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H29" t="s">
         <v>71</v>
@@ -5725,33 +5900,33 @@
         <v>37</v>
       </c>
       <c r="Q29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R29" t="s">
         <v>50</v>
       </c>
       <c r="S29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="U29" t="s">
         <v>89</v>
       </c>
       <c r="V29" t="s">
+        <v>238</v>
+      </c>
+      <c r="AA29" t="s">
         <v>239</v>
       </c>
-      <c r="AA29" t="s">
+      <c r="AD29" t="s">
         <v>240</v>
       </c>
-      <c r="AD29" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>90029</v>
       </c>
       <c r="B30" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C30">
         <v>26</v>
@@ -5766,10 +5941,10 @@
         <v>44779</v>
       </c>
       <c r="G30" t="s">
+        <v>242</v>
+      </c>
+      <c r="H30" t="s">
         <v>243</v>
-      </c>
-      <c r="H30" t="s">
-        <v>244</v>
       </c>
       <c r="I30" t="s">
         <v>33</v>
@@ -5778,7 +5953,7 @@
         <v>98953</v>
       </c>
       <c r="K30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L30">
         <v>46.447409200000003</v>
@@ -5787,7 +5962,7 @@
         <v>-120.2639808</v>
       </c>
       <c r="N30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O30" t="s">
         <v>36</v>
@@ -5796,30 +5971,30 @@
         <v>37</v>
       </c>
       <c r="Q30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R30" t="s">
+        <v>246</v>
+      </c>
+      <c r="S30" t="s">
         <v>247</v>
-      </c>
-      <c r="S30" t="s">
-        <v>248</v>
       </c>
       <c r="U30" t="s">
         <v>89</v>
       </c>
       <c r="V30" t="s">
+        <v>248</v>
+      </c>
+      <c r="AA30" t="s">
         <v>249</v>
       </c>
-      <c r="AA30" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>90030</v>
       </c>
       <c r="B31" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C31">
         <v>35</v>
@@ -5834,7 +6009,7 @@
         <v>44782</v>
       </c>
       <c r="G31" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H31" t="s">
         <v>153</v>
@@ -5855,48 +6030,48 @@
         <v>-122.43627619999999</v>
       </c>
       <c r="N31" t="s">
+        <v>252</v>
+      </c>
+      <c r="O31" t="s">
         <v>253</v>
-      </c>
-      <c r="O31" t="s">
-        <v>254</v>
       </c>
       <c r="P31" t="s">
         <v>37</v>
       </c>
       <c r="Q31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R31" t="s">
         <v>39</v>
       </c>
       <c r="S31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="U31" t="s">
         <v>89</v>
       </c>
       <c r="V31" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA31" t="s">
         <v>256</v>
       </c>
-      <c r="AA31" t="s">
+      <c r="AB31" t="s">
         <v>257</v>
       </c>
-      <c r="AB31" t="s">
+      <c r="AC31" t="s">
         <v>258</v>
       </c>
-      <c r="AC31" t="s">
+      <c r="AD31" t="s">
         <v>259</v>
       </c>
-      <c r="AD31" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>90031</v>
       </c>
       <c r="B32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C32">
         <v>36</v>
@@ -5908,7 +6083,7 @@
         <v>44794</v>
       </c>
       <c r="G32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H32" t="s">
         <v>71</v>
@@ -5929,7 +6104,7 @@
         <v>-117.3843347</v>
       </c>
       <c r="N32" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O32" t="s">
         <v>36</v>
@@ -5938,24 +6113,24 @@
         <v>39</v>
       </c>
       <c r="S32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="U32" t="s">
         <v>52</v>
       </c>
       <c r="V32" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA32" t="s">
         <v>265</v>
       </c>
-      <c r="AA32" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>90032</v>
       </c>
       <c r="B33" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C33">
         <v>37</v>
@@ -5964,16 +6139,16 @@
         <v>30</v>
       </c>
       <c r="E33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F33" s="1">
         <v>44795</v>
       </c>
       <c r="G33" t="s">
+        <v>267</v>
+      </c>
+      <c r="H33" t="s">
         <v>268</v>
-      </c>
-      <c r="H33" t="s">
-        <v>269</v>
       </c>
       <c r="I33" t="s">
         <v>33</v>
@@ -5991,7 +6166,7 @@
         <v>-122.835983</v>
       </c>
       <c r="N33" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O33" t="s">
         <v>36</v>
@@ -6000,36 +6175,36 @@
         <v>37</v>
       </c>
       <c r="Q33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R33" t="s">
         <v>50</v>
       </c>
       <c r="S33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="U33" t="s">
         <v>52</v>
       </c>
       <c r="V33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="X33" t="s">
         <v>99</v>
       </c>
       <c r="AA33" t="s">
+        <v>272</v>
+      </c>
+      <c r="AB33" t="s">
         <v>273</v>
       </c>
-      <c r="AB33" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>90033</v>
       </c>
       <c r="B34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C34">
         <v>40</v>
@@ -6041,7 +6216,7 @@
         <v>44801</v>
       </c>
       <c r="G34" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H34" t="s">
         <v>121</v>
@@ -6071,30 +6246,30 @@
         <v>37</v>
       </c>
       <c r="Q34" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R34" t="s">
         <v>50</v>
       </c>
       <c r="S34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="U34" t="s">
         <v>52</v>
       </c>
       <c r="V34" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA34" t="s">
         <v>278</v>
       </c>
-      <c r="AA34" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>90034</v>
       </c>
       <c r="B35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C35">
         <v>54</v>
@@ -6109,10 +6284,10 @@
         <v>44808</v>
       </c>
       <c r="G35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I35" t="s">
         <v>33</v>
@@ -6130,7 +6305,7 @@
         <v>-122.3070166</v>
       </c>
       <c r="N35" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O35" t="s">
         <v>36</v>
@@ -6139,36 +6314,42 @@
         <v>37</v>
       </c>
       <c r="Q35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R35" t="s">
         <v>50</v>
       </c>
       <c r="S35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="U35" t="s">
         <v>52</v>
       </c>
       <c r="V35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X35" t="s">
         <v>99</v>
       </c>
       <c r="Y35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AA35" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD35" t="s">
+        <v>924</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>90035</v>
       </c>
       <c r="B36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C36">
         <v>41</v>
@@ -6183,7 +6364,7 @@
         <v>44808</v>
       </c>
       <c r="G36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H36" t="s">
         <v>71</v>
@@ -6213,27 +6394,27 @@
         <v>37</v>
       </c>
       <c r="Q36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="U36" t="s">
         <v>52</v>
       </c>
       <c r="V36" t="s">
+        <v>288</v>
+      </c>
+      <c r="AA36" t="s">
         <v>289</v>
       </c>
-      <c r="AA36" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>90036</v>
       </c>
       <c r="B37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C37">
         <v>43</v>
@@ -6242,16 +6423,16 @@
         <v>30</v>
       </c>
       <c r="E37" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F37" s="1">
         <v>44814</v>
       </c>
       <c r="G37" t="s">
+        <v>291</v>
+      </c>
+      <c r="H37" t="s">
         <v>292</v>
-      </c>
-      <c r="H37" t="s">
-        <v>293</v>
       </c>
       <c r="I37" t="s">
         <v>33</v>
@@ -6269,86 +6450,105 @@
         <v>-122.3111629</v>
       </c>
       <c r="N37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O37" t="s">
         <v>36</v>
       </c>
       <c r="S37" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="U37" t="s">
         <v>52</v>
       </c>
       <c r="V37" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AA37" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="AD37" t="s">
+        <v>924</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
         <v>90037</v>
       </c>
-      <c r="C38">
+      <c r="B38" s="6"/>
+      <c r="C38" s="6">
         <v>50</v>
       </c>
-      <c r="D38" t="s">
-        <v>30</v>
-      </c>
-      <c r="F38" s="1">
+      <c r="D38" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="7">
         <v>44821</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="H38" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J38" s="6">
+        <v>98948</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="L38" s="6">
+        <v>46.375255500000002</v>
+      </c>
+      <c r="M38" s="6">
+        <v>-120.4714779</v>
+      </c>
+      <c r="N38" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="I38" t="s">
-        <v>33</v>
-      </c>
-      <c r="J38">
-        <v>98948</v>
-      </c>
-      <c r="K38" t="s">
-        <v>245</v>
-      </c>
-      <c r="L38">
-        <v>46.375255500000002</v>
-      </c>
-      <c r="M38">
-        <v>-120.4714779</v>
-      </c>
-      <c r="N38" t="s">
+      <c r="O38" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="O38" t="s">
-        <v>36</v>
-      </c>
-      <c r="S38" t="s">
+      <c r="T38" s="6"/>
+      <c r="U38" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="V38" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="U38" t="s">
-        <v>52</v>
-      </c>
-      <c r="V38" t="s">
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="Y38" t="s">
-        <v>302</v>
-      </c>
-      <c r="AA38" t="s">
+      <c r="Z38" s="6"/>
+      <c r="AA38" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AB38" s="6"/>
+      <c r="AC38" s="6"/>
+      <c r="AD38" s="6"/>
+      <c r="AE38" s="6"/>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>90038</v>
       </c>
       <c r="B39" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C39">
         <v>49</v>
@@ -6363,10 +6563,10 @@
         <v>44826</v>
       </c>
       <c r="G39" t="s">
+        <v>303</v>
+      </c>
+      <c r="H39" t="s">
         <v>304</v>
-      </c>
-      <c r="H39" t="s">
-        <v>305</v>
       </c>
       <c r="I39" t="s">
         <v>33</v>
@@ -6375,7 +6575,7 @@
         <v>98382</v>
       </c>
       <c r="K39" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L39">
         <v>48.083399999999997</v>
@@ -6393,30 +6593,30 @@
         <v>37</v>
       </c>
       <c r="Q39" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R39" t="s">
         <v>50</v>
       </c>
       <c r="S39" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="U39" t="s">
         <v>52</v>
       </c>
       <c r="V39" t="s">
+        <v>307</v>
+      </c>
+      <c r="AA39" t="s">
         <v>308</v>
       </c>
-      <c r="AA39" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>90039</v>
       </c>
       <c r="B40" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C40">
         <v>36</v>
@@ -6431,10 +6631,10 @@
         <v>44826</v>
       </c>
       <c r="G40" t="s">
+        <v>310</v>
+      </c>
+      <c r="H40" t="s">
         <v>311</v>
-      </c>
-      <c r="H40" t="s">
-        <v>312</v>
       </c>
       <c r="I40" t="s">
         <v>33</v>
@@ -6443,7 +6643,7 @@
         <v>98951</v>
       </c>
       <c r="K40" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L40">
         <v>46.424562399999999</v>
@@ -6452,7 +6652,7 @@
         <v>-120.3999468</v>
       </c>
       <c r="N40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O40" t="s">
         <v>36</v>
@@ -6461,30 +6661,30 @@
         <v>37</v>
       </c>
       <c r="Q40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R40" t="s">
         <v>116</v>
       </c>
       <c r="S40" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="U40" t="s">
         <v>89</v>
       </c>
       <c r="V40" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AA40" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>90040</v>
       </c>
       <c r="B41" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C41">
         <v>49</v>
@@ -6492,14 +6692,17 @@
       <c r="D41" t="s">
         <v>30</v>
       </c>
+      <c r="E41" t="s">
+        <v>926</v>
+      </c>
       <c r="F41" s="1">
         <v>44827</v>
       </c>
       <c r="G41" t="s">
+        <v>315</v>
+      </c>
+      <c r="H41" t="s">
         <v>316</v>
-      </c>
-      <c r="H41" t="s">
-        <v>317</v>
       </c>
       <c r="I41" t="s">
         <v>33</v>
@@ -6508,7 +6711,7 @@
         <v>98320</v>
       </c>
       <c r="K41" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L41">
         <v>47.697998599999998</v>
@@ -6517,7 +6720,7 @@
         <v>-122.8971256</v>
       </c>
       <c r="N41" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O41" t="s">
         <v>36</v>
@@ -6526,30 +6729,33 @@
         <v>37</v>
       </c>
       <c r="Q41" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S41" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="U41" t="s">
         <v>52</v>
       </c>
       <c r="V41" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA41" t="s">
         <v>321</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="AD41" t="s">
         <v>322</v>
       </c>
-      <c r="AD41" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE41" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>90041</v>
       </c>
       <c r="B42" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C42">
         <v>64</v>
@@ -6564,10 +6770,10 @@
         <v>44829</v>
       </c>
       <c r="G42" t="s">
+        <v>324</v>
+      </c>
+      <c r="H42" t="s">
         <v>325</v>
-      </c>
-      <c r="H42" t="s">
-        <v>326</v>
       </c>
       <c r="I42" t="s">
         <v>33</v>
@@ -6594,21 +6800,21 @@
         <v>139</v>
       </c>
       <c r="S42" t="s">
+        <v>326</v>
+      </c>
+      <c r="U42" t="s">
+        <v>170</v>
+      </c>
+      <c r="V42" t="s">
         <v>327</v>
       </c>
-      <c r="U42" t="s">
-        <v>171</v>
-      </c>
-      <c r="V42" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>90042</v>
       </c>
       <c r="B43" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C43">
         <v>22</v>
@@ -6616,14 +6822,15 @@
       <c r="D43" t="s">
         <v>30</v>
       </c>
+      <c r="E43"/>
       <c r="F43" s="1">
         <v>44835</v>
       </c>
       <c r="G43" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H43" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I43" t="s">
         <v>33</v>
@@ -6632,7 +6839,7 @@
         <v>98902</v>
       </c>
       <c r="K43" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L43">
         <v>46.617488600000001</v>
@@ -6641,33 +6848,44 @@
         <v>-120.5510824</v>
       </c>
       <c r="N43" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O43" t="s">
         <v>39</v>
       </c>
+      <c r="P43"/>
+      <c r="Q43"/>
       <c r="R43" t="s">
         <v>39</v>
       </c>
       <c r="S43" t="s">
-        <v>332</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="T43"/>
       <c r="U43" t="s">
         <v>141</v>
       </c>
       <c r="V43" t="s">
-        <v>333</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="W43"/>
+      <c r="X43"/>
+      <c r="Y43"/>
+      <c r="Z43"/>
       <c r="AA43" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AB43"/>
+      <c r="AC43"/>
+      <c r="AD43"/>
+      <c r="AE43"/>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>90043</v>
       </c>
       <c r="B44" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C44">
         <v>25</v>
@@ -6679,10 +6897,10 @@
         <v>44835</v>
       </c>
       <c r="G44" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H44" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I44" t="s">
         <v>33</v>
@@ -6691,7 +6909,7 @@
         <v>98902</v>
       </c>
       <c r="K44" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L44">
         <v>46.617488600000001</v>
@@ -6700,7 +6918,7 @@
         <v>-120.5510824</v>
       </c>
       <c r="N44" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O44" t="s">
         <v>39</v>
@@ -6709,24 +6927,24 @@
         <v>39</v>
       </c>
       <c r="S44" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="U44" t="s">
         <v>141</v>
       </c>
       <c r="V44" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AA44" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>90044</v>
       </c>
       <c r="B45" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C45">
         <v>52</v>
@@ -6738,10 +6956,10 @@
         <v>44846</v>
       </c>
       <c r="G45" t="s">
+        <v>335</v>
+      </c>
+      <c r="H45" t="s">
         <v>336</v>
-      </c>
-      <c r="H45" t="s">
-        <v>337</v>
       </c>
       <c r="I45" t="s">
         <v>33</v>
@@ -6759,7 +6977,7 @@
         <v>-117.6161932</v>
       </c>
       <c r="N45" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O45" t="s">
         <v>36</v>
@@ -6768,42 +6986,51 @@
         <v>37</v>
       </c>
       <c r="Q45" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R45" t="s">
         <v>87</v>
       </c>
       <c r="S45" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="U45" t="s">
         <v>52</v>
       </c>
       <c r="V45" t="s">
+        <v>339</v>
+      </c>
+      <c r="AA45" t="s">
         <v>340</v>
       </c>
-      <c r="AA45" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE45" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>90045</v>
       </c>
       <c r="B46" t="s">
-        <v>342</v>
+        <v>925</v>
+      </c>
+      <c r="C46">
+        <v>34</v>
       </c>
       <c r="D46" t="s">
         <v>30</v>
+      </c>
+      <c r="E46" t="s">
+        <v>926</v>
       </c>
       <c r="F46" s="1">
         <v>44878</v>
       </c>
       <c r="G46" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I46" t="s">
         <v>33</v>
@@ -6821,7 +7048,7 @@
         <v>-122.3989827</v>
       </c>
       <c r="N46" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O46" t="s">
         <v>36</v>
@@ -6830,30 +7057,36 @@
         <v>37</v>
       </c>
       <c r="Q46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R46" t="s">
         <v>50</v>
       </c>
       <c r="S46" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="U46" t="s">
         <v>52</v>
       </c>
       <c r="V46" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AA46" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD46" t="s">
+        <v>924</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>90046</v>
       </c>
       <c r="B47" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C47">
         <v>21</v>
@@ -6865,10 +7098,10 @@
         <v>44879</v>
       </c>
       <c r="G47" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H47" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I47" t="s">
         <v>33</v>
@@ -6886,7 +7119,7 @@
         <v>-122.92159169999999</v>
       </c>
       <c r="N47" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="O47" t="s">
         <v>36</v>
@@ -6895,33 +7128,33 @@
         <v>37</v>
       </c>
       <c r="Q47" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R47" t="s">
         <v>39</v>
       </c>
       <c r="S47" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="U47" t="s">
         <v>89</v>
       </c>
       <c r="V47" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="Z47" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AA47" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>90047</v>
       </c>
       <c r="B48" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C48">
         <v>31</v>
@@ -6933,10 +7166,10 @@
         <v>44880</v>
       </c>
       <c r="G48" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H48" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I48" t="s">
         <v>33</v>
@@ -6954,7 +7187,7 @@
         <v>-117.41121130000001</v>
       </c>
       <c r="N48" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O48" t="s">
         <v>36</v>
@@ -6963,30 +7196,30 @@
         <v>37</v>
       </c>
       <c r="Q48" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R48" t="s">
         <v>116</v>
       </c>
       <c r="S48" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="U48" t="s">
         <v>52</v>
       </c>
       <c r="V48" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="AD48" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>90048</v>
       </c>
       <c r="B49" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C49">
         <v>32</v>
@@ -6998,10 +7231,10 @@
         <v>44883</v>
       </c>
       <c r="G49" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H49" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I49" t="s">
         <v>33</v>
@@ -7028,27 +7261,27 @@
         <v>37</v>
       </c>
       <c r="Q49" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="R49" t="s">
         <v>87</v>
       </c>
       <c r="S49" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="U49" t="s">
         <v>89</v>
       </c>
       <c r="V49" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>90049</v>
       </c>
       <c r="B50" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C50">
         <v>36</v>
@@ -7060,10 +7293,10 @@
         <v>44910</v>
       </c>
       <c r="G50" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H50" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I50" t="s">
         <v>33</v>
@@ -7072,7 +7305,7 @@
         <v>99163</v>
       </c>
       <c r="K50" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="L50">
         <v>46.725550300000002</v>
@@ -7081,7 +7314,7 @@
         <v>-117.17009</v>
       </c>
       <c r="N50" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="O50" t="s">
         <v>36</v>
@@ -7090,30 +7323,30 @@
         <v>37</v>
       </c>
       <c r="Q50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S50" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="U50" t="s">
         <v>52</v>
       </c>
       <c r="V50" t="s">
+        <v>367</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>368</v>
+      </c>
+      <c r="AD50" t="s">
         <v>369</v>
       </c>
-      <c r="AA50" t="s">
-        <v>370</v>
-      </c>
-      <c r="AD50" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>90050</v>
       </c>
       <c r="B51" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C51">
         <v>38</v>
@@ -7125,10 +7358,10 @@
         <v>44912</v>
       </c>
       <c r="G51" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H51" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I51" t="s">
         <v>33</v>
@@ -7137,7 +7370,7 @@
         <v>98632</v>
       </c>
       <c r="K51" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L51">
         <v>46.170058699999998</v>
@@ -7146,7 +7379,7 @@
         <v>-123.0043654</v>
       </c>
       <c r="N51" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="O51" t="s">
         <v>36</v>
@@ -7155,27 +7388,27 @@
         <v>37</v>
       </c>
       <c r="Q51" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S51" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="U51" t="s">
         <v>52</v>
       </c>
       <c r="V51" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AA51" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>90051</v>
       </c>
       <c r="B52" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C52">
         <v>39</v>
@@ -7187,7 +7420,7 @@
         <v>44925</v>
       </c>
       <c r="G52" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H52" t="s">
         <v>121</v>
@@ -7217,27 +7450,27 @@
         <v>37</v>
       </c>
       <c r="Q52" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R52" t="s">
         <v>87</v>
       </c>
       <c r="S52" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="U52" t="s">
         <v>89</v>
       </c>
       <c r="V52" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>90052</v>
       </c>
       <c r="B53" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C53">
         <v>18</v>
@@ -7252,10 +7485,10 @@
         <v>42254</v>
       </c>
       <c r="G53" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H53" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I53" t="s">
         <v>33</v>
@@ -7264,7 +7497,7 @@
         <v>98296</v>
       </c>
       <c r="K53" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L53">
         <v>47.864757699999998</v>
@@ -7273,7 +7506,7 @@
         <v>-122.1448482</v>
       </c>
       <c r="N53" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="O53" t="s">
         <v>39</v>
@@ -7282,21 +7515,21 @@
         <v>39</v>
       </c>
       <c r="S53" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="U53" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="V53" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>90053</v>
       </c>
       <c r="B54" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C54">
         <v>30</v>
@@ -7308,10 +7541,10 @@
         <v>44939</v>
       </c>
       <c r="G54" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H54" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I54" t="s">
         <v>33</v>
@@ -7320,7 +7553,7 @@
         <v>98258</v>
       </c>
       <c r="K54" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L54">
         <v>47.978063900000002</v>
@@ -7329,7 +7562,7 @@
         <v>-122.1048409</v>
       </c>
       <c r="N54" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="O54" t="s">
         <v>36</v>
@@ -7338,27 +7571,27 @@
         <v>87</v>
       </c>
       <c r="S54" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="U54" t="s">
         <v>89</v>
       </c>
       <c r="V54" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>90054</v>
       </c>
       <c r="B55" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C55">
         <v>23</v>
       </c>
       <c r="D55" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E55" t="s">
         <v>69</v>
@@ -7367,7 +7600,7 @@
         <v>44949</v>
       </c>
       <c r="G55" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H55" t="s">
         <v>129</v>
@@ -7394,27 +7627,30 @@
         <v>39</v>
       </c>
       <c r="S55" t="s">
+        <v>396</v>
+      </c>
+      <c r="U55" t="s">
+        <v>397</v>
+      </c>
+      <c r="V55" t="s">
         <v>398</v>
       </c>
-      <c r="U55" t="s">
+      <c r="AA55" t="s">
         <v>399</v>
       </c>
-      <c r="V55" t="s">
-        <v>400</v>
-      </c>
-      <c r="AA55" t="s">
-        <v>401</v>
-      </c>
       <c r="AD55" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+        <v>850</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>90055</v>
       </c>
       <c r="B56" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C56">
         <v>29</v>
@@ -7429,10 +7665,10 @@
         <v>44974</v>
       </c>
       <c r="G56" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H56" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I56" t="s">
         <v>33</v>
@@ -7441,7 +7677,7 @@
         <v>98930</v>
       </c>
       <c r="K56" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L56">
         <v>46.253122099999999</v>
@@ -7450,7 +7686,7 @@
         <v>-119.92039130000001</v>
       </c>
       <c r="N56" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O56" t="s">
         <v>36</v>
@@ -7459,27 +7695,27 @@
         <v>37</v>
       </c>
       <c r="Q56" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S56" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="U56" t="s">
         <v>52</v>
       </c>
       <c r="V56" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AA56" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>90056</v>
       </c>
       <c r="B57" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C57">
         <v>58</v>
@@ -7490,8 +7726,11 @@
       <c r="F57" s="1">
         <v>44996</v>
       </c>
+      <c r="G57" t="s">
+        <v>941</v>
+      </c>
       <c r="H57" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I57" t="s">
         <v>33</v>
@@ -7500,7 +7739,7 @@
         <v>98204</v>
       </c>
       <c r="K57" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L57">
         <v>47.914765000000003</v>
@@ -7509,33 +7748,36 @@
         <v>-122.2467448</v>
       </c>
       <c r="N57" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="O57" t="s">
         <v>36</v>
       </c>
       <c r="S57" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="U57" t="s">
         <v>52</v>
       </c>
       <c r="V57" t="s">
+        <v>410</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>411</v>
+      </c>
+      <c r="AA57" t="s">
         <v>412</v>
       </c>
-      <c r="Z57" t="s">
-        <v>413</v>
-      </c>
-      <c r="AA57" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD57" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>90057</v>
       </c>
       <c r="B58" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C58">
         <v>29</v>
@@ -7543,11 +7785,14 @@
       <c r="D58" t="s">
         <v>30</v>
       </c>
+      <c r="E58" t="s">
+        <v>84</v>
+      </c>
       <c r="F58" s="1">
         <v>45005</v>
       </c>
       <c r="G58" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H58" t="s">
         <v>129</v>
@@ -7568,7 +7813,7 @@
         <v>-122.3686316</v>
       </c>
       <c r="N58" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O58" t="s">
         <v>36</v>
@@ -7577,22 +7822,28 @@
         <v>37</v>
       </c>
       <c r="Q58" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S58" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="U58" t="s">
         <v>41</v>
       </c>
       <c r="V58" t="s">
-        <v>418</v>
+        <v>416</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>928</v>
       </c>
       <c r="AD58" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+        <v>850</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>90058</v>
       </c>
@@ -7606,10 +7857,10 @@
         <v>45007</v>
       </c>
       <c r="G59" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H59" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I59" t="s">
         <v>33</v>
@@ -7618,7 +7869,7 @@
         <v>98208</v>
       </c>
       <c r="K59" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L59">
         <v>47.9198831</v>
@@ -7627,7 +7878,7 @@
         <v>-122.2337272</v>
       </c>
       <c r="N59" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="O59" t="s">
         <v>36</v>
@@ -7636,33 +7887,33 @@
         <v>37</v>
       </c>
       <c r="Q59" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R59" t="s">
         <v>116</v>
       </c>
       <c r="S59" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="U59" t="s">
         <v>52</v>
       </c>
       <c r="V59" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>421</v>
+      </c>
+      <c r="AD59" t="s">
         <v>422</v>
       </c>
-      <c r="Y59" t="s">
-        <v>423</v>
-      </c>
-      <c r="AD59" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>90059</v>
       </c>
       <c r="B60" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C60">
         <v>28</v>
@@ -7677,7 +7928,7 @@
         <v>43914</v>
       </c>
       <c r="G60" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H60" t="s">
         <v>113</v>
@@ -7707,24 +7958,24 @@
         <v>39</v>
       </c>
       <c r="S60" t="s">
+        <v>425</v>
+      </c>
+      <c r="U60" t="s">
+        <v>170</v>
+      </c>
+      <c r="V60" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y60" t="s">
         <v>427</v>
       </c>
-      <c r="U60" t="s">
-        <v>171</v>
-      </c>
-      <c r="V60" t="s">
-        <v>428</v>
-      </c>
-      <c r="Y60" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>90060</v>
       </c>
       <c r="B61" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C61">
         <v>27</v>
@@ -7739,10 +7990,10 @@
         <v>37147</v>
       </c>
       <c r="G61" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H61" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="I61" t="s">
         <v>33</v>
@@ -7751,7 +8002,7 @@
         <v>98229</v>
       </c>
       <c r="K61" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="L61">
         <v>48.731298099999997</v>
@@ -7760,7 +8011,7 @@
         <v>-122.47041590000001</v>
       </c>
       <c r="N61" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="O61" t="s">
         <v>39</v>
@@ -7769,21 +8020,21 @@
         <v>39</v>
       </c>
       <c r="S61" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="U61" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="V61" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>90061</v>
       </c>
       <c r="B62" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C62">
         <v>25</v>
@@ -7795,7 +8046,7 @@
         <v>45009</v>
       </c>
       <c r="G62" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H62" t="s">
         <v>121</v>
@@ -7822,30 +8073,30 @@
         <v>36</v>
       </c>
       <c r="S62" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="U62" t="s">
         <v>52</v>
       </c>
       <c r="V62" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AA62" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>90062</v>
       </c>
       <c r="B63" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C63">
         <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E63" t="s">
         <v>44</v>
@@ -7854,10 +8105,10 @@
         <v>44985</v>
       </c>
       <c r="G63" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H63" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I63" t="s">
         <v>33</v>
@@ -7866,7 +8117,7 @@
         <v>98944</v>
       </c>
       <c r="K63" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L63">
         <v>46.311247999999999</v>
@@ -7875,7 +8126,7 @@
         <v>-120.049481</v>
       </c>
       <c r="N63" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="O63" t="s">
         <v>39</v>
@@ -7884,24 +8135,24 @@
         <v>107</v>
       </c>
       <c r="S63" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="U63" t="s">
         <v>141</v>
       </c>
       <c r="V63" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AA63" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>90063</v>
       </c>
       <c r="B64" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C64">
         <v>6</v>
@@ -7916,10 +8167,10 @@
         <v>44985</v>
       </c>
       <c r="G64" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I64" t="s">
         <v>33</v>
@@ -7928,7 +8179,7 @@
         <v>98944</v>
       </c>
       <c r="K64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L64">
         <v>46.311247999999999</v>
@@ -7937,7 +8188,7 @@
         <v>-120.049481</v>
       </c>
       <c r="N64" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="O64" t="s">
         <v>39</v>
@@ -7946,24 +8197,24 @@
         <v>107</v>
       </c>
       <c r="S64" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="U64" t="s">
         <v>141</v>
       </c>
       <c r="V64" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AA64" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>90064</v>
       </c>
       <c r="B65" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C65">
         <v>52</v>
@@ -7971,11 +8222,14 @@
       <c r="D65" t="s">
         <v>30</v>
       </c>
+      <c r="E65" t="s">
+        <v>84</v>
+      </c>
       <c r="F65" s="1">
         <v>45034</v>
       </c>
       <c r="G65" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H65" t="s">
         <v>137</v>
@@ -7996,7 +8250,7 @@
         <v>-122.1812953</v>
       </c>
       <c r="N65" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O65" t="s">
         <v>36</v>
@@ -8005,27 +8259,30 @@
         <v>37</v>
       </c>
       <c r="Q65" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="S65" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="U65" t="s">
         <v>52</v>
       </c>
       <c r="V65" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AD65" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
+        <v>850</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>90065</v>
       </c>
       <c r="B66" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C66">
         <v>39</v>
@@ -8040,10 +8297,10 @@
         <v>45049</v>
       </c>
       <c r="G66" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H66" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I66" t="s">
         <v>33</v>
@@ -8052,7 +8309,7 @@
         <v>98901</v>
       </c>
       <c r="K66" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L66">
         <v>46.603682599999999</v>
@@ -8061,7 +8318,7 @@
         <v>-120.49626840000001</v>
       </c>
       <c r="N66" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O66" t="s">
         <v>36</v>
@@ -8070,24 +8327,24 @@
         <v>37</v>
       </c>
       <c r="Q66" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S66" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="U66" t="s">
         <v>52</v>
       </c>
       <c r="V66" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>90066</v>
       </c>
       <c r="B67" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C67">
         <v>34</v>
@@ -8099,10 +8356,10 @@
         <v>45065</v>
       </c>
       <c r="G67" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H67" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I67" t="s">
         <v>33</v>
@@ -8111,7 +8368,7 @@
         <v>98201</v>
       </c>
       <c r="K67" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L67">
         <v>48.005420000000001</v>
@@ -8120,7 +8377,7 @@
         <v>-122.1902</v>
       </c>
       <c r="N67" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="O67" t="s">
         <v>36</v>
@@ -8129,27 +8386,27 @@
         <v>37</v>
       </c>
       <c r="Q67" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R67" t="s">
         <v>116</v>
       </c>
       <c r="S67" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="U67" t="s">
         <v>52</v>
       </c>
       <c r="V67" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>90067</v>
       </c>
       <c r="B68" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C68">
         <v>43</v>
@@ -8161,7 +8418,7 @@
         <v>45076</v>
       </c>
       <c r="G68" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H68" t="s">
         <v>46</v>
@@ -8182,7 +8439,7 @@
         <v>-122.60169999999999</v>
       </c>
       <c r="N68" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="O68" t="s">
         <v>36</v>
@@ -8191,27 +8448,27 @@
         <v>37</v>
       </c>
       <c r="Q68" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R68" t="s">
         <v>116</v>
       </c>
       <c r="S68" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="U68" t="s">
         <v>52</v>
       </c>
       <c r="V68" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>90068</v>
       </c>
       <c r="B69" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C69">
         <v>30</v>
@@ -8223,7 +8480,7 @@
         <v>45081</v>
       </c>
       <c r="G69" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H69" t="s">
         <v>71</v>
@@ -8244,7 +8501,7 @@
         <v>-117.3219332</v>
       </c>
       <c r="N69" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O69" t="s">
         <v>36</v>
@@ -8253,30 +8510,30 @@
         <v>37</v>
       </c>
       <c r="Q69" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R69" t="s">
         <v>116</v>
       </c>
       <c r="S69" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="U69" t="s">
         <v>52</v>
       </c>
       <c r="V69" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AA69" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>90069</v>
       </c>
       <c r="B70" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C70">
         <v>31</v>
@@ -8291,10 +8548,10 @@
         <v>45081</v>
       </c>
       <c r="G70" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H70" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="I70" t="s">
         <v>33</v>
@@ -8303,7 +8560,7 @@
         <v>99336</v>
       </c>
       <c r="K70" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="L70">
         <v>46.223049699999997</v>
@@ -8312,7 +8569,7 @@
         <v>-119.2266156</v>
       </c>
       <c r="N70" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="O70" t="s">
         <v>36</v>
@@ -8321,27 +8578,27 @@
         <v>37</v>
       </c>
       <c r="Q70" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R70" t="s">
         <v>39</v>
       </c>
       <c r="S70" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="U70" t="s">
         <v>89</v>
       </c>
       <c r="V70" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>90070</v>
       </c>
       <c r="B71" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C71">
         <v>20</v>
@@ -8356,10 +8613,10 @@
         <v>45013</v>
       </c>
       <c r="G71" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H71" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="I71" t="s">
         <v>33</v>
@@ -8368,7 +8625,7 @@
         <v>99336</v>
       </c>
       <c r="K71" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="L71">
         <v>46.212164700000002</v>
@@ -8377,7 +8634,7 @@
         <v>-119.1937616</v>
       </c>
       <c r="N71" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="O71" t="s">
         <v>39</v>
@@ -8386,21 +8643,21 @@
         <v>39</v>
       </c>
       <c r="S71" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="U71" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="V71" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>90071</v>
       </c>
       <c r="B72" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C72">
         <v>57</v>
@@ -8415,10 +8672,10 @@
         <v>45106</v>
       </c>
       <c r="G72" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H72" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I72" t="s">
         <v>33</v>
@@ -8436,7 +8693,7 @@
         <v>-122.556043</v>
       </c>
       <c r="N72" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O72" t="s">
         <v>39</v>
@@ -8445,36 +8702,36 @@
         <v>39</v>
       </c>
       <c r="S72" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="U72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="V72" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>90072</v>
       </c>
       <c r="B73" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C73">
         <v>39</v>
       </c>
       <c r="D73" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F73" s="1">
         <v>45011</v>
       </c>
       <c r="G73" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H73" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="I73" t="s">
         <v>33</v>
@@ -8483,7 +8740,7 @@
         <v>99336</v>
       </c>
       <c r="K73" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="L73">
         <v>46.200349199999998</v>
@@ -8492,7 +8749,7 @@
         <v>-119.15132010000001</v>
       </c>
       <c r="N73" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="O73" t="s">
         <v>39</v>
@@ -8501,27 +8758,27 @@
         <v>37</v>
       </c>
       <c r="Q73" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R73" t="s">
         <v>39</v>
       </c>
       <c r="S73" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="U73" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="V73" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>90073</v>
       </c>
       <c r="B74" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C74">
         <v>29</v>
@@ -8533,10 +8790,10 @@
         <v>45102</v>
       </c>
       <c r="G74" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H74" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="I74" t="s">
         <v>33</v>
@@ -8545,7 +8802,7 @@
         <v>99344</v>
       </c>
       <c r="K74" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="L74">
         <v>46.809284699999999</v>
@@ -8554,7 +8811,7 @@
         <v>-118.85936649999999</v>
       </c>
       <c r="N74" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="O74" t="s">
         <v>36</v>
@@ -8563,24 +8820,24 @@
         <v>37</v>
       </c>
       <c r="Q74" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S74" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="U74" t="s">
         <v>52</v>
       </c>
       <c r="V74" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>90074</v>
       </c>
       <c r="B75" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C75">
         <v>41</v>
@@ -8592,7 +8849,7 @@
         <v>45146</v>
       </c>
       <c r="G75" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="H75" t="s">
         <v>121</v>
@@ -8622,33 +8879,33 @@
         <v>37</v>
       </c>
       <c r="Q75" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S75" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="U75" t="s">
         <v>52</v>
       </c>
       <c r="V75" t="s">
+        <v>501</v>
+      </c>
+      <c r="W75" t="s">
+        <v>502</v>
+      </c>
+      <c r="X75" t="s">
         <v>503</v>
       </c>
-      <c r="W75" t="s">
+      <c r="Y75" t="s">
         <v>504</v>
       </c>
-      <c r="X75" t="s">
-        <v>505</v>
-      </c>
-      <c r="Y75" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>90075</v>
       </c>
       <c r="B76" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C76">
         <v>30</v>
@@ -8660,10 +8917,10 @@
         <v>45171</v>
       </c>
       <c r="G76" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="H76" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I76" t="s">
         <v>33</v>
@@ -8672,7 +8929,7 @@
         <v>98632</v>
       </c>
       <c r="K76" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L76">
         <v>46.135197900000001</v>
@@ -8681,7 +8938,7 @@
         <v>-122.9459976</v>
       </c>
       <c r="N76" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="O76" t="s">
         <v>36</v>
@@ -8690,42 +8947,42 @@
         <v>37</v>
       </c>
       <c r="Q76" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R76" t="s">
         <v>39</v>
       </c>
       <c r="S76" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="U76" t="s">
         <v>89</v>
       </c>
       <c r="V76" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>90076</v>
       </c>
       <c r="B77" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C77">
         <v>32</v>
       </c>
       <c r="D77" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F77" s="1">
         <v>45205</v>
       </c>
       <c r="G77" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="H77" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="I77" t="s">
         <v>33</v>
@@ -8734,7 +8991,7 @@
         <v>98271</v>
       </c>
       <c r="K77" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L77">
         <v>48.057438300000001</v>
@@ -8743,7 +9000,7 @@
         <v>-122.1927298</v>
       </c>
       <c r="N77" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="O77" t="s">
         <v>39</v>
@@ -8752,24 +9009,24 @@
         <v>39</v>
       </c>
       <c r="S77" t="s">
+        <v>514</v>
+      </c>
+      <c r="U77" t="s">
+        <v>170</v>
+      </c>
+      <c r="V77" t="s">
+        <v>515</v>
+      </c>
+      <c r="Z77" t="s">
         <v>516</v>
       </c>
-      <c r="U77" t="s">
-        <v>171</v>
-      </c>
-      <c r="V77" t="s">
-        <v>517</v>
-      </c>
-      <c r="Z77" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>90077</v>
       </c>
       <c r="B78" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C78">
         <v>39</v>
@@ -8784,10 +9041,10 @@
         <v>45219</v>
       </c>
       <c r="G78" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H78" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I78" t="s">
         <v>33</v>
@@ -8814,36 +9071,48 @@
         <v>39</v>
       </c>
       <c r="S78" t="s">
+        <v>520</v>
+      </c>
+      <c r="U78" t="s">
+        <v>170</v>
+      </c>
+      <c r="V78" t="s">
+        <v>521</v>
+      </c>
+      <c r="Y78" t="s">
         <v>522</v>
       </c>
-      <c r="U78" t="s">
-        <v>171</v>
-      </c>
-      <c r="V78" t="s">
-        <v>523</v>
-      </c>
-      <c r="Y78" t="s">
-        <v>524</v>
-      </c>
       <c r="AD78" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
+        <v>850</v>
+      </c>
+      <c r="AE78" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>90078</v>
       </c>
+      <c r="B79" s="15" t="s">
+        <v>930</v>
+      </c>
+      <c r="C79">
+        <v>19</v>
+      </c>
       <c r="D79" t="s">
         <v>30</v>
+      </c>
+      <c r="E79" t="s">
+        <v>186</v>
       </c>
       <c r="F79" s="1">
         <v>45167</v>
       </c>
       <c r="G79" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="H79" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="I79" t="s">
         <v>33</v>
@@ -8861,7 +9130,7 @@
         <v>-122.0479765</v>
       </c>
       <c r="N79" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="O79" t="s">
         <v>39</v>
@@ -8870,27 +9139,30 @@
         <v>37</v>
       </c>
       <c r="Q79" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R79" t="s">
         <v>39</v>
       </c>
       <c r="S79" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="U79" t="s">
         <v>52</v>
       </c>
       <c r="V79" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+      <c r="AE79" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>90079</v>
       </c>
       <c r="B80" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="C80">
         <v>24</v>
@@ -8905,7 +9177,7 @@
         <v>45223</v>
       </c>
       <c r="G80" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H80" t="s">
         <v>137</v>
@@ -8926,7 +9198,7 @@
         <v>-122.2929762</v>
       </c>
       <c r="N80" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O80" t="s">
         <v>36</v>
@@ -8935,30 +9207,33 @@
         <v>37</v>
       </c>
       <c r="Q80" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R80" t="s">
         <v>116</v>
       </c>
       <c r="S80" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="U80" t="s">
         <v>52</v>
       </c>
       <c r="V80" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AD80" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
+        <v>850</v>
+      </c>
+      <c r="AE80" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>90080</v>
       </c>
       <c r="B81" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C81">
         <v>19</v>
@@ -8973,10 +9248,10 @@
         <v>45227</v>
       </c>
       <c r="G81" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H81" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="I81" t="s">
         <v>33</v>
@@ -8985,7 +9260,7 @@
         <v>97862</v>
       </c>
       <c r="K81" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="L81">
         <v>46.000798400000001</v>
@@ -8994,7 +9269,7 @@
         <v>-118.43531470000001</v>
       </c>
       <c r="N81" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="O81" t="s">
         <v>39</v>
@@ -9003,24 +9278,24 @@
         <v>39</v>
       </c>
       <c r="S81" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="U81" t="s">
         <v>89</v>
       </c>
       <c r="V81" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="Z81" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>90081</v>
       </c>
       <c r="B82" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C82">
         <v>38</v>
@@ -9029,16 +9304,16 @@
         <v>30</v>
       </c>
       <c r="E82" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F82" s="1">
         <v>44921</v>
       </c>
       <c r="G82" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H82" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I82" t="s">
         <v>33</v>
@@ -9056,33 +9331,36 @@
         <v>-122.35401210000001</v>
       </c>
       <c r="N82" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O82" t="s">
+        <v>540</v>
+      </c>
+      <c r="S82" t="s">
+        <v>541</v>
+      </c>
+      <c r="U82" t="s">
+        <v>540</v>
+      </c>
+      <c r="V82" t="s">
         <v>542</v>
       </c>
-      <c r="S82" t="s">
+      <c r="Y82" t="s">
         <v>543</v>
       </c>
-      <c r="U82" t="s">
-        <v>542</v>
-      </c>
-      <c r="V82" t="s">
+      <c r="Z82" t="s">
         <v>544</v>
       </c>
-      <c r="Y82" t="s">
-        <v>545</v>
-      </c>
-      <c r="Z82" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE82" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>90082</v>
       </c>
       <c r="B83" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C83">
         <v>49</v>
@@ -9094,10 +9372,10 @@
         <v>45247</v>
       </c>
       <c r="G83" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H83" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="I83" t="s">
         <v>33</v>
@@ -9106,7 +9384,7 @@
         <v>98310</v>
       </c>
       <c r="K83" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="L83">
         <v>47.592022999999998</v>
@@ -9115,7 +9393,7 @@
         <v>-122.618617</v>
       </c>
       <c r="N83" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="O83" t="s">
         <v>36</v>
@@ -9124,24 +9402,24 @@
         <v>37</v>
       </c>
       <c r="Q83" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S83" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="U83" t="s">
         <v>52</v>
       </c>
       <c r="V83" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>90083</v>
       </c>
       <c r="B84" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C84">
         <v>22</v>
@@ -9156,7 +9434,7 @@
         <v>45258</v>
       </c>
       <c r="G84" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H84" t="s">
         <v>57</v>
@@ -9186,27 +9464,27 @@
         <v>37</v>
       </c>
       <c r="Q84" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R84" t="s">
         <v>87</v>
       </c>
       <c r="S84" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="U84" t="s">
         <v>52</v>
       </c>
       <c r="V84" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>90084</v>
       </c>
       <c r="B85" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C85">
         <v>16</v>
@@ -9218,10 +9496,10 @@
         <v>45262</v>
       </c>
       <c r="G85" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H85" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I85" t="s">
         <v>33</v>
@@ -9239,36 +9517,36 @@
         <v>-122.5169212</v>
       </c>
       <c r="N85" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O85" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="P85" t="s">
         <v>37</v>
       </c>
       <c r="Q85" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R85" t="s">
         <v>87</v>
       </c>
       <c r="S85" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="U85" t="s">
         <v>89</v>
       </c>
       <c r="V85" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>90085</v>
       </c>
       <c r="B86" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C86">
         <v>44</v>
@@ -9280,10 +9558,10 @@
         <v>45265</v>
       </c>
       <c r="G86" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H86" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="I86" t="s">
         <v>33</v>
@@ -9301,7 +9579,7 @@
         <v>-122.13592920000001</v>
       </c>
       <c r="N86" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="O86" t="s">
         <v>36</v>
@@ -9310,27 +9588,27 @@
         <v>37</v>
       </c>
       <c r="Q86" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S86" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="U86" t="s">
         <v>52</v>
       </c>
       <c r="V86" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="AD86" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>90086</v>
       </c>
       <c r="B87" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C87">
         <v>43</v>
@@ -9338,14 +9616,17 @@
       <c r="D87" t="s">
         <v>30</v>
       </c>
+      <c r="E87" t="s">
+        <v>69</v>
+      </c>
       <c r="F87" s="1">
         <v>45246</v>
       </c>
       <c r="G87" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I87" t="s">
         <v>33</v>
@@ -9363,7 +9644,7 @@
         <v>-122.40221649999999</v>
       </c>
       <c r="N87" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O87" t="s">
         <v>36</v>
@@ -9372,30 +9653,33 @@
         <v>37</v>
       </c>
       <c r="Q87" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S87" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="U87" t="s">
         <v>52</v>
       </c>
       <c r="V87" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="Z87" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AD87" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
+        <v>850</v>
+      </c>
+      <c r="AE87" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>90087</v>
       </c>
       <c r="B88" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C88">
         <v>34</v>
@@ -9407,7 +9691,7 @@
         <v>45263</v>
       </c>
       <c r="G88" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="H88" t="s">
         <v>71</v>
@@ -9437,27 +9721,27 @@
         <v>37</v>
       </c>
       <c r="Q88" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R88" t="s">
         <v>116</v>
       </c>
       <c r="S88" t="s">
+        <v>574</v>
+      </c>
+      <c r="V88" t="s">
+        <v>575</v>
+      </c>
+      <c r="AA88" t="s">
         <v>576</v>
       </c>
-      <c r="V88" t="s">
-        <v>577</v>
-      </c>
-      <c r="AA88" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>90088</v>
       </c>
       <c r="B89" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C89">
         <v>33</v>
@@ -9469,10 +9753,10 @@
         <v>45270</v>
       </c>
       <c r="G89" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="H89" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="I89" t="s">
         <v>33</v>
@@ -9490,42 +9774,42 @@
         <v>-123.15425089999999</v>
       </c>
       <c r="N89" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O89" t="s">
         <v>36</v>
       </c>
       <c r="S89" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="U89" t="s">
         <v>52</v>
       </c>
       <c r="V89" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>90089</v>
       </c>
       <c r="B90" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C90">
         <v>61</v>
       </c>
       <c r="D90" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E90" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F90" s="1">
         <v>45300</v>
       </c>
       <c r="G90" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="H90" t="s">
         <v>121</v>
@@ -9555,36 +9839,36 @@
         <v>37</v>
       </c>
       <c r="Q90" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S90" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="U90" t="s">
         <v>52</v>
       </c>
       <c r="V90" t="s">
+        <v>586</v>
+      </c>
+      <c r="W90" t="s">
+        <v>587</v>
+      </c>
+      <c r="Z90" t="s">
         <v>588</v>
       </c>
-      <c r="W90" t="s">
-        <v>589</v>
-      </c>
-      <c r="Z90" t="s">
-        <v>590</v>
-      </c>
       <c r="AA90" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AB90" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90091</v>
       </c>
       <c r="B91" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C91">
         <v>53</v>
@@ -9599,10 +9883,10 @@
         <v>42528</v>
       </c>
       <c r="G91" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="H91" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="I91" t="s">
         <v>33</v>
@@ -9620,7 +9904,7 @@
         <v>-121.988895</v>
       </c>
       <c r="N91" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O91" t="s">
         <v>39</v>
@@ -9629,30 +9913,30 @@
         <v>39</v>
       </c>
       <c r="S91" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="U91" t="s">
         <v>89</v>
       </c>
       <c r="V91" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="Z91" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90092</v>
       </c>
       <c r="B92" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C92">
         <v>29</v>
       </c>
       <c r="D92" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E92" t="s">
         <v>84</v>
@@ -9661,10 +9945,10 @@
         <v>45292</v>
       </c>
       <c r="G92" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="H92" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I92" t="s">
         <v>33</v>
@@ -9673,7 +9957,7 @@
         <v>98632</v>
       </c>
       <c r="K92" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L92">
         <v>46.158275600000003</v>
@@ -9682,7 +9966,7 @@
         <v>-122.9399118</v>
       </c>
       <c r="N92" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="O92" t="s">
         <v>36</v>
@@ -9691,27 +9975,27 @@
         <v>37</v>
       </c>
       <c r="Q92" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S92" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="U92" t="s">
         <v>52</v>
       </c>
       <c r="V92" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="X92" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>90093</v>
       </c>
       <c r="B93" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C93">
         <v>24</v>
@@ -9726,10 +10010,10 @@
         <v>45299</v>
       </c>
       <c r="G93" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="H93" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="I93" t="s">
         <v>33</v>
@@ -9738,7 +10022,7 @@
         <v>98848</v>
       </c>
       <c r="K93" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="L93">
         <v>47.233648199999998</v>
@@ -9747,7 +10031,7 @@
         <v>-120.12856739999999</v>
       </c>
       <c r="N93" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="O93" t="s">
         <v>36</v>
@@ -9756,24 +10040,24 @@
         <v>37</v>
       </c>
       <c r="Q93" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S93" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="U93" t="s">
         <v>52</v>
       </c>
       <c r="V93" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>90094</v>
       </c>
       <c r="B94" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C94">
         <v>35</v>
@@ -9788,10 +10072,10 @@
         <v>45305</v>
       </c>
       <c r="G94" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="H94" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="I94" t="s">
         <v>33</v>
@@ -9800,7 +10084,7 @@
         <v>98942</v>
       </c>
       <c r="K94" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L94">
         <v>46.689708500000002</v>
@@ -9809,7 +10093,7 @@
         <v>-120.49731730000001</v>
       </c>
       <c r="N94" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="O94" t="s">
         <v>36</v>
@@ -9818,24 +10102,24 @@
         <v>87</v>
       </c>
       <c r="S94" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="U94" t="s">
         <v>52</v>
       </c>
       <c r="V94" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="AA94" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="95" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="95" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>90095</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C95">
         <v>31</v>
@@ -9844,16 +10128,16 @@
         <v>30</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F95" s="1">
         <v>45315</v>
       </c>
       <c r="G95" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H95" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I95" t="s">
         <v>33</v>
@@ -9880,24 +10164,24 @@
         <v>37</v>
       </c>
       <c r="Q95" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S95" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="U95" t="s">
         <v>52</v>
       </c>
       <c r="V95" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>90096</v>
       </c>
       <c r="B96" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C96">
         <v>55</v>
@@ -9909,7 +10193,7 @@
         <v>45321</v>
       </c>
       <c r="G96" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H96" t="s">
         <v>71</v>
@@ -9930,7 +10214,7 @@
         <v>-117.4175343</v>
       </c>
       <c r="N96" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O96" t="s">
         <v>36</v>
@@ -9939,19 +10223,19 @@
         <v>37</v>
       </c>
       <c r="Q96" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S96" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="U96" t="s">
         <v>52</v>
       </c>
       <c r="V96" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="AA96" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="97" spans="1:30" x14ac:dyDescent="0.25">
@@ -9959,7 +10243,7 @@
         <v>90097</v>
       </c>
       <c r="B97" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C97">
         <v>43</v>
@@ -9974,7 +10258,7 @@
         <v>45322</v>
       </c>
       <c r="G97" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H97" t="s">
         <v>71</v>
@@ -10004,25 +10288,25 @@
         <v>37</v>
       </c>
       <c r="Q97" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S97" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="U97" t="s">
         <v>52</v>
       </c>
       <c r="V97" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="X97" t="s">
         <v>99</v>
       </c>
       <c r="AA97" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="AB97" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="98" spans="1:30" x14ac:dyDescent="0.25">
@@ -10030,7 +10314,7 @@
         <v>90098</v>
       </c>
       <c r="B98" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C98">
         <v>50</v>
@@ -10042,7 +10326,7 @@
         <v>45334</v>
       </c>
       <c r="G98" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="H98" t="s">
         <v>71</v>
@@ -10072,16 +10356,16 @@
         <v>37</v>
       </c>
       <c r="Q98" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S98" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="U98" t="s">
         <v>52</v>
       </c>
       <c r="V98" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="99" spans="1:30" x14ac:dyDescent="0.25">
@@ -10089,7 +10373,7 @@
         <v>90099</v>
       </c>
       <c r="B99" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D99" t="s">
         <v>30</v>
@@ -10101,7 +10385,7 @@
         <v>45332</v>
       </c>
       <c r="G99" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="H99" t="s">
         <v>71</v>
@@ -10125,16 +10409,16 @@
         <v>72</v>
       </c>
       <c r="O99" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="S99" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="U99" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="V99" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="100" spans="1:30" x14ac:dyDescent="0.25">
@@ -10142,7 +10426,7 @@
         <v>90100</v>
       </c>
       <c r="B100" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C100">
         <v>35</v>
@@ -10154,7 +10438,7 @@
         <v>45334</v>
       </c>
       <c r="G100" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H100" t="s">
         <v>71</v>
@@ -10184,19 +10468,19 @@
         <v>37</v>
       </c>
       <c r="Q100" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S100" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="U100" t="s">
         <v>52</v>
       </c>
       <c r="V100" s="4" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="W100" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="X100" t="s">
         <v>99</v>
@@ -10207,16 +10491,16 @@
         <v>90101</v>
       </c>
       <c r="B101" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D101" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F101" s="1">
         <v>45338</v>
       </c>
       <c r="G101" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="H101" t="s">
         <v>71</v>
@@ -10246,19 +10530,19 @@
         <v>37</v>
       </c>
       <c r="Q101" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R101" t="s">
         <v>39</v>
       </c>
       <c r="S101" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="U101" t="s">
         <v>41</v>
       </c>
       <c r="V101" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="102" spans="1:30" x14ac:dyDescent="0.25">
@@ -10266,7 +10550,7 @@
         <v>90102</v>
       </c>
       <c r="B102" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C102">
         <v>53</v>
@@ -10278,10 +10562,10 @@
         <v>45342</v>
       </c>
       <c r="G102" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="H102" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="I102" t="s">
         <v>33</v>
@@ -10299,7 +10583,7 @@
         <v>-122.5163099</v>
       </c>
       <c r="N102" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="O102" t="s">
         <v>36</v>
@@ -10308,22 +10592,22 @@
         <v>37</v>
       </c>
       <c r="Q102" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S102" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="U102" t="s">
         <v>52</v>
       </c>
       <c r="V102" s="3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AA102" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="AB102" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="103" spans="1:30" x14ac:dyDescent="0.25">
@@ -10331,7 +10615,7 @@
         <v>90103</v>
       </c>
       <c r="B103" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C103">
         <v>40</v>
@@ -10346,7 +10630,7 @@
         <v>45369</v>
       </c>
       <c r="G103" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="H103" t="s">
         <v>121</v>
@@ -10376,16 +10660,16 @@
         <v>37</v>
       </c>
       <c r="Q103" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S103" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="U103" t="s">
         <v>52</v>
       </c>
       <c r="V103" s="3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="104" spans="1:30" x14ac:dyDescent="0.25">
@@ -10393,22 +10677,22 @@
         <v>90104</v>
       </c>
       <c r="B104" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C104">
         <v>83</v>
       </c>
       <c r="D104" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F104" s="1">
         <v>45393</v>
       </c>
       <c r="G104" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="H104" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="I104" t="s">
         <v>33</v>
@@ -10417,7 +10701,7 @@
         <v>98236</v>
       </c>
       <c r="K104" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L104">
         <v>47.992808799999999</v>
@@ -10426,7 +10710,7 @@
         <v>-122.4006334</v>
       </c>
       <c r="N104" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="O104" t="s">
         <v>39</v>
@@ -10435,13 +10719,13 @@
         <v>39</v>
       </c>
       <c r="S104" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="U104" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="V104" s="3" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="105" spans="1:30" x14ac:dyDescent="0.25">
@@ -10449,7 +10733,7 @@
         <v>90105</v>
       </c>
       <c r="B105" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C105">
         <v>41</v>
@@ -10461,7 +10745,7 @@
         <v>45395</v>
       </c>
       <c r="G105" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="H105" t="s">
         <v>46</v>
@@ -10482,7 +10766,7 @@
         <v>-122.6689896</v>
       </c>
       <c r="N105" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="O105" t="s">
         <v>36</v>
@@ -10491,19 +10775,19 @@
         <v>37</v>
       </c>
       <c r="Q105" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S105" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="U105" t="s">
         <v>52</v>
       </c>
       <c r="V105" s="3" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="AA105" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="106" spans="1:30" x14ac:dyDescent="0.25">
@@ -10511,7 +10795,7 @@
         <v>90106</v>
       </c>
       <c r="B106" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C106">
         <v>38</v>
@@ -10523,7 +10807,7 @@
         <v>45382</v>
       </c>
       <c r="G106" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="H106" t="s">
         <v>71</v>
@@ -10553,16 +10837,16 @@
         <v>37</v>
       </c>
       <c r="Q106" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S106" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="U106" t="s">
         <v>52</v>
       </c>
       <c r="V106" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="107" spans="1:30" x14ac:dyDescent="0.25">
@@ -10570,7 +10854,7 @@
         <v>90107</v>
       </c>
       <c r="B107" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C107">
         <v>67</v>
@@ -10585,10 +10869,10 @@
         <v>45399</v>
       </c>
       <c r="G107" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="H107" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="I107" t="s">
         <v>33</v>
@@ -10615,25 +10899,25 @@
         <v>37</v>
       </c>
       <c r="Q107" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S107" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="U107" t="s">
         <v>52</v>
       </c>
       <c r="V107" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AA107" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="AB107" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="AD107" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
     </row>
     <row r="108" spans="1:30" x14ac:dyDescent="0.25">
@@ -10641,7 +10925,7 @@
         <v>90108</v>
       </c>
       <c r="B108" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C108">
         <v>43</v>
@@ -10656,10 +10940,10 @@
         <v>45380</v>
       </c>
       <c r="G108" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="H108" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="I108" t="s">
         <v>33</v>
@@ -10677,25 +10961,25 @@
         <v>-117.5001469</v>
       </c>
       <c r="N108" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="O108" t="s">
         <v>36</v>
       </c>
       <c r="S108" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="U108" t="s">
         <v>52</v>
       </c>
       <c r="V108" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="AA108" t="s">
+        <v>685</v>
+      </c>
+      <c r="AB108" t="s">
         <v>686</v>
-      </c>
-      <c r="AA108" t="s">
-        <v>687</v>
-      </c>
-      <c r="AB108" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="109" spans="1:30" x14ac:dyDescent="0.25">
@@ -10703,7 +10987,7 @@
         <v>90109</v>
       </c>
       <c r="B109" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C109">
         <v>38</v>
@@ -10715,10 +10999,10 @@
         <v>45415</v>
       </c>
       <c r="G109" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="H109" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="I109" t="s">
         <v>33</v>
@@ -10727,7 +11011,7 @@
         <v>98362</v>
       </c>
       <c r="K109" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L109">
         <v>48.120190000000001</v>
@@ -10736,7 +11020,7 @@
         <v>-123.4376948</v>
       </c>
       <c r="N109" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="O109" t="s">
         <v>36</v>
@@ -10745,16 +11029,16 @@
         <v>37</v>
       </c>
       <c r="Q109" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S109" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="U109" t="s">
         <v>52</v>
       </c>
       <c r="V109" s="3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="110" spans="1:30" x14ac:dyDescent="0.25">
@@ -10762,7 +11046,7 @@
         <v>90110</v>
       </c>
       <c r="B110" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C110">
         <v>31</v>
@@ -10777,10 +11061,10 @@
         <v>45428</v>
       </c>
       <c r="G110" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="H110" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I110" t="s">
         <v>33</v>
@@ -10789,7 +11073,7 @@
         <v>98201</v>
       </c>
       <c r="K110" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L110">
         <v>47.970298100000001</v>
@@ -10807,16 +11091,16 @@
         <v>37</v>
       </c>
       <c r="Q110" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="S110" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="U110" t="s">
         <v>52</v>
       </c>
       <c r="V110" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="111" spans="1:30" x14ac:dyDescent="0.25">
@@ -10824,7 +11108,7 @@
         <v>90111</v>
       </c>
       <c r="B111" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C111">
         <v>47</v>
@@ -10836,7 +11120,7 @@
         <v>45435</v>
       </c>
       <c r="G111" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="H111" t="s">
         <v>145</v>
@@ -10866,25 +11150,25 @@
         <v>37</v>
       </c>
       <c r="Q111" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="S111" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="U111" t="s">
         <v>52</v>
       </c>
       <c r="V111" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="X111" t="s">
         <v>99</v>
       </c>
       <c r="AA111" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="AB111" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="112" spans="1:30" x14ac:dyDescent="0.25">
@@ -10892,7 +11176,7 @@
         <v>90112</v>
       </c>
       <c r="B112" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C112">
         <v>48</v>
@@ -10904,10 +11188,10 @@
         <v>45436</v>
       </c>
       <c r="G112" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="H112" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="I112" t="s">
         <v>33</v>
@@ -10925,22 +11209,22 @@
         <v>-122.2278898</v>
       </c>
       <c r="N112" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="O112" t="s">
         <v>36</v>
       </c>
       <c r="S112" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="U112" t="s">
         <v>52</v>
       </c>
       <c r="V112" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="AD112" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
     </row>
     <row r="113" spans="1:31" x14ac:dyDescent="0.25">
@@ -10948,7 +11232,7 @@
         <v>90113</v>
       </c>
       <c r="B113" t="s">
-        <v>724</v>
+        <v>931</v>
       </c>
       <c r="C113">
         <v>43</v>
@@ -10963,7 +11247,7 @@
         <v>45451</v>
       </c>
       <c r="G113" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="H113" t="s">
         <v>46</v>
@@ -10993,25 +11277,25 @@
         <v>37</v>
       </c>
       <c r="Q113" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S113" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="U113" t="s">
         <v>52</v>
       </c>
       <c r="V113" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="Z113" t="s">
+        <v>718</v>
+      </c>
+      <c r="AA113" t="s">
+        <v>721</v>
+      </c>
+      <c r="AB113" t="s">
         <v>720</v>
-      </c>
-      <c r="AA113" t="s">
-        <v>723</v>
-      </c>
-      <c r="AB113" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="114" spans="1:31" x14ac:dyDescent="0.25">
@@ -11019,7 +11303,7 @@
         <v>90114</v>
       </c>
       <c r="B114" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C114">
         <v>42</v>
@@ -11031,7 +11315,7 @@
         <v>45460</v>
       </c>
       <c r="G114" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="H114" t="s">
         <v>46</v>
@@ -11061,25 +11345,25 @@
         <v>37</v>
       </c>
       <c r="Q114" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S114" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="U114" t="s">
         <v>52</v>
       </c>
       <c r="V114" t="s">
+        <v>715</v>
+      </c>
+      <c r="Z114" t="s">
         <v>717</v>
       </c>
-      <c r="Z114" t="s">
-        <v>719</v>
-      </c>
       <c r="AA114" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="AB114" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="115" spans="1:31" x14ac:dyDescent="0.25">
@@ -11087,7 +11371,10 @@
         <v>90115</v>
       </c>
       <c r="B115" t="s">
-        <v>734</v>
+        <v>932</v>
+      </c>
+      <c r="C115">
+        <v>41</v>
       </c>
       <c r="D115" t="s">
         <v>30</v>
@@ -11099,7 +11386,7 @@
         <v>45475</v>
       </c>
       <c r="G115" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="H115" t="s">
         <v>153</v>
@@ -11129,22 +11416,25 @@
         <v>37</v>
       </c>
       <c r="Q115" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R115" t="s">
         <v>39</v>
       </c>
       <c r="S115" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="U115" t="s">
         <v>52</v>
       </c>
       <c r="V115" s="3" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="Z115" t="s">
-        <v>730</v>
+        <v>727</v>
+      </c>
+      <c r="AE115" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="116" spans="1:31" x14ac:dyDescent="0.25">
@@ -11152,7 +11442,7 @@
         <v>90116</v>
       </c>
       <c r="B116" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="C116">
         <v>42</v>
@@ -11164,7 +11454,7 @@
         <v>45462</v>
       </c>
       <c r="G116" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="H116" t="s">
         <v>121</v>
@@ -11194,16 +11484,16 @@
         <v>116</v>
       </c>
       <c r="S116" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="U116" t="s">
         <v>52</v>
       </c>
       <c r="V116" s="3" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="AD116" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="117" spans="1:31" x14ac:dyDescent="0.25">
@@ -11211,7 +11501,7 @@
         <v>90117</v>
       </c>
       <c r="B117" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="C117">
         <v>41</v>
@@ -11223,7 +11513,7 @@
         <v>45486</v>
       </c>
       <c r="G117" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="H117" t="s">
         <v>137</v>
@@ -11244,7 +11534,7 @@
         <v>-122.2099808</v>
       </c>
       <c r="N117" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O117" t="s">
         <v>39</v>
@@ -11253,13 +11543,13 @@
         <v>39</v>
       </c>
       <c r="S117" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="U117" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="V117" s="3" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="118" spans="1:31" x14ac:dyDescent="0.25">
@@ -11267,13 +11557,13 @@
         <v>90118</v>
       </c>
       <c r="B118" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="C118">
         <v>67</v>
       </c>
       <c r="D118" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E118" t="s">
         <v>84</v>
@@ -11282,7 +11572,7 @@
         <v>45512</v>
       </c>
       <c r="G118" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="H118" t="s">
         <v>129</v>
@@ -11312,19 +11602,19 @@
         <v>39</v>
       </c>
       <c r="S118" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="U118" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="V118" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="Y118" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="Z118" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="119" spans="1:31" x14ac:dyDescent="0.25">
@@ -11332,7 +11622,7 @@
         <v>90119</v>
       </c>
       <c r="B119" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="C119">
         <v>33</v>
@@ -11341,13 +11631,13 @@
         <v>30</v>
       </c>
       <c r="E119" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F119" s="1">
         <v>45532</v>
       </c>
       <c r="G119" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="H119" t="s">
         <v>137</v>
@@ -11368,25 +11658,25 @@
         <v>-122.2476602</v>
       </c>
       <c r="N119" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O119" t="s">
         <v>36</v>
       </c>
       <c r="S119" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="U119" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="V119" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="Z119" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="AD119" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
     </row>
     <row r="120" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11394,7 +11684,7 @@
         <v>90120</v>
       </c>
       <c r="B120" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="C120" s="5">
         <v>48</v>
@@ -11409,7 +11699,7 @@
         <v>45497</v>
       </c>
       <c r="G120" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="H120" t="s">
         <v>32</v>
@@ -11439,19 +11729,19 @@
         <v>37</v>
       </c>
       <c r="Q120" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S120" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="U120" t="s">
         <v>52</v>
       </c>
       <c r="V120" s="3" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="Z120" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="121" spans="1:31" x14ac:dyDescent="0.25">
@@ -11459,7 +11749,7 @@
         <v>90121</v>
       </c>
       <c r="B121" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="C121">
         <v>57</v>
@@ -11474,10 +11764,10 @@
         <v>45492</v>
       </c>
       <c r="G121" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="H121" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="I121" t="s">
         <v>33</v>
@@ -11486,7 +11776,7 @@
         <v>99114</v>
       </c>
       <c r="K121" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="L121">
         <v>48.580203400000002</v>
@@ -11495,7 +11785,7 @@
         <v>-117.9693434</v>
       </c>
       <c r="N121" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="O121" t="s">
         <v>36</v>
@@ -11507,13 +11797,13 @@
         <v>49</v>
       </c>
       <c r="S121" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="U121" t="s">
         <v>52</v>
       </c>
       <c r="V121" s="3" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="122" spans="1:31" x14ac:dyDescent="0.25">
@@ -11521,7 +11811,7 @@
         <v>90122</v>
       </c>
       <c r="B122" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="C122">
         <v>38</v>
@@ -11533,10 +11823,10 @@
         <v>45488</v>
       </c>
       <c r="G122" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="H122" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="I122" t="s">
         <v>33</v>
@@ -11563,13 +11853,13 @@
         <v>39</v>
       </c>
       <c r="S122" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="U122" t="s">
         <v>89</v>
       </c>
       <c r="V122" s="3" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="123" spans="1:31" x14ac:dyDescent="0.25">
@@ -11577,13 +11867,13 @@
         <v>90123</v>
       </c>
       <c r="B123" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C123">
         <v>70</v>
       </c>
       <c r="D123" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E123" t="s">
         <v>84</v>
@@ -11592,10 +11882,10 @@
         <v>45542</v>
       </c>
       <c r="G123" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="H123" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I123" t="s">
         <v>33</v>
@@ -11613,7 +11903,7 @@
         <v>-122.84954310000001</v>
       </c>
       <c r="N123" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O123" t="s">
         <v>39</v>
@@ -11622,94 +11912,83 @@
         <v>39</v>
       </c>
       <c r="S123" t="s">
+        <v>764</v>
+      </c>
+      <c r="U123" t="s">
+        <v>170</v>
+      </c>
+      <c r="V123" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="124" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>90124</v>
+      </c>
+      <c r="B124" t="s">
+        <v>864</v>
+      </c>
+      <c r="C124">
+        <v>19</v>
+      </c>
+      <c r="D124" t="s">
+        <v>30</v>
+      </c>
+      <c r="E124" t="s">
+        <v>84</v>
+      </c>
+      <c r="F124" s="1">
+        <v>45550</v>
+      </c>
+      <c r="G124" t="s">
         <v>768</v>
       </c>
-      <c r="U123" t="s">
-        <v>171</v>
-      </c>
-      <c r="V123" t="s">
+      <c r="H124" t="s">
+        <v>189</v>
+      </c>
+      <c r="I124" t="s">
+        <v>33</v>
+      </c>
+      <c r="J124">
+        <v>98258</v>
+      </c>
+      <c r="K124" t="s">
+        <v>189</v>
+      </c>
+      <c r="L124">
+        <v>48.060391199999998</v>
+      </c>
+      <c r="M124">
+        <v>-122.11364639999999</v>
+      </c>
+      <c r="N124" t="s">
+        <v>766</v>
+      </c>
+      <c r="O124" t="s">
+        <v>39</v>
+      </c>
+      <c r="R124" t="s">
+        <v>39</v>
+      </c>
+      <c r="S124" t="s">
+        <v>769</v>
+      </c>
+      <c r="U124" t="s">
+        <v>170</v>
+      </c>
+      <c r="V124" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="124" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A124" s="6">
-        <v>90124</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>868</v>
-      </c>
-      <c r="C124" s="6">
-        <v>19</v>
-      </c>
-      <c r="D124" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E124" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F124" s="7">
-        <v>45549</v>
-      </c>
-      <c r="G124" s="6" t="s">
-        <v>772</v>
-      </c>
-      <c r="H124" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="I124" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J124" s="6">
-        <v>98258</v>
-      </c>
-      <c r="K124" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="L124" s="6">
-        <v>48.060391199999998</v>
-      </c>
-      <c r="M124" s="6">
-        <v>-122.11364639999999</v>
-      </c>
-      <c r="N124" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="O124" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="P124" s="6"/>
-      <c r="Q124" s="6"/>
-      <c r="R124" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="S124" s="6" t="s">
-        <v>773</v>
-      </c>
-      <c r="T124" s="6"/>
-      <c r="U124" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="V124" s="6" t="s">
-        <v>771</v>
-      </c>
-      <c r="W124" s="6"/>
-      <c r="X124" s="6"/>
-      <c r="Y124" s="6"/>
-      <c r="Z124" s="6" t="s">
-        <v>869</v>
-      </c>
-      <c r="AA124" s="6"/>
-      <c r="AB124" s="6"/>
-      <c r="AC124" s="6"/>
-      <c r="AD124" s="6"/>
-      <c r="AE124" s="6"/>
+      <c r="Z124" t="s">
+        <v>865</v>
+      </c>
     </row>
     <row r="125" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>90125</v>
       </c>
       <c r="B125" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C125">
         <v>35</v>
@@ -11718,16 +11997,16 @@
         <v>30</v>
       </c>
       <c r="E125" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F125" s="1">
-        <v>45549</v>
+        <v>45550</v>
       </c>
       <c r="G125" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="H125" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="I125" t="s">
         <v>33</v>
@@ -11745,7 +12024,7 @@
         <v>-122.24831690000001</v>
       </c>
       <c r="N125" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="O125" t="s">
         <v>36</v>
@@ -11757,16 +12036,16 @@
         <v>49</v>
       </c>
       <c r="S125" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="U125" t="s">
         <v>52</v>
       </c>
       <c r="V125" s="3" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="AE125" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
     </row>
     <row r="126" spans="1:31" x14ac:dyDescent="0.25">
@@ -11774,7 +12053,7 @@
         <v>90126</v>
       </c>
       <c r="B126" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="C126">
         <v>45</v>
@@ -11789,7 +12068,7 @@
         <v>45272</v>
       </c>
       <c r="G126" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="H126" t="s">
         <v>121</v>
@@ -11822,19 +12101,19 @@
         <v>39</v>
       </c>
       <c r="S126" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="U126" t="s">
         <v>89</v>
       </c>
       <c r="V126" s="3" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="Z126" t="s">
+        <v>776</v>
+      </c>
+      <c r="AD126" t="s">
         <v>780</v>
-      </c>
-      <c r="AD126" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="127" spans="1:31" x14ac:dyDescent="0.25">
@@ -11842,7 +12121,7 @@
         <v>90127</v>
       </c>
       <c r="B127" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="C127">
         <v>72</v>
@@ -11857,10 +12136,10 @@
         <v>45388</v>
       </c>
       <c r="G127" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="H127" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="I127" t="s">
         <v>33</v>
@@ -11869,7 +12148,7 @@
         <v>98584</v>
       </c>
       <c r="K127" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="L127">
         <v>47.142985500000002</v>
@@ -11884,13 +12163,13 @@
         <v>39</v>
       </c>
       <c r="S127" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="U127" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="V127" s="3" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
     </row>
     <row r="128" spans="1:31" x14ac:dyDescent="0.25">
@@ -11898,13 +12177,13 @@
         <v>90128</v>
       </c>
       <c r="B128" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C128">
         <v>49</v>
       </c>
       <c r="D128" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E128" t="s">
         <v>84</v>
@@ -11913,10 +12192,10 @@
         <v>45388</v>
       </c>
       <c r="G128" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="H128" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="I128" t="s">
         <v>33</v>
@@ -11925,7 +12204,7 @@
         <v>98584</v>
       </c>
       <c r="K128" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="L128">
         <v>47.142985500000002</v>
@@ -11940,84 +12219,84 @@
         <v>39</v>
       </c>
       <c r="S128" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="U128" t="s">
+        <v>792</v>
+      </c>
+      <c r="V128" s="3" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="129" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>90129</v>
+      </c>
+      <c r="B129" t="s">
+        <v>812</v>
+      </c>
+      <c r="C129">
+        <v>18</v>
+      </c>
+      <c r="D129" t="s">
+        <v>30</v>
+      </c>
+      <c r="E129" t="s">
+        <v>44</v>
+      </c>
+      <c r="F129" s="1">
+        <v>45557</v>
+      </c>
+      <c r="G129" t="s">
         <v>796</v>
       </c>
-      <c r="V128" s="3" t="s">
+      <c r="H129" t="s">
+        <v>407</v>
+      </c>
+      <c r="I129" t="s">
+        <v>33</v>
+      </c>
+      <c r="J129">
+        <v>98203</v>
+      </c>
+      <c r="K129" t="s">
+        <v>189</v>
+      </c>
+      <c r="L129">
+        <v>47.929929199999997</v>
+      </c>
+      <c r="M129">
+        <v>-122.23107</v>
+      </c>
+      <c r="N129" t="s">
+        <v>418</v>
+      </c>
+      <c r="O129" t="s">
+        <v>39</v>
+      </c>
+      <c r="P129" t="s">
+        <v>37</v>
+      </c>
+      <c r="R129" t="s">
+        <v>39</v>
+      </c>
+      <c r="S129" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="129" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="13">
-        <v>90129</v>
-      </c>
-      <c r="B129" s="13" t="s">
-        <v>816</v>
-      </c>
-      <c r="C129" s="13">
-        <v>18</v>
-      </c>
-      <c r="D129" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E129" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F129" s="14">
-        <v>45557</v>
-      </c>
-      <c r="G129" s="13" t="s">
-        <v>800</v>
-      </c>
-      <c r="H129" s="13" t="s">
-        <v>409</v>
-      </c>
-      <c r="I129" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="J129" s="13">
-        <v>98203</v>
-      </c>
-      <c r="K129" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="L129" s="13">
-        <v>47.929929199999997</v>
-      </c>
-      <c r="M129" s="13">
-        <v>-122.23107</v>
-      </c>
-      <c r="N129" s="13" t="s">
-        <v>420</v>
-      </c>
-      <c r="O129" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="P129" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="R129" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="S129" s="13" t="s">
-        <v>801</v>
-      </c>
-      <c r="U129" s="13" t="s">
+      <c r="U129" t="s">
         <v>41</v>
       </c>
-      <c r="V129" s="13" t="s">
-        <v>817</v>
-      </c>
-      <c r="Y129" s="13" t="s">
-        <v>866</v>
-      </c>
-      <c r="AC129" s="13" t="s">
-        <v>825</v>
-      </c>
-      <c r="AE129" s="15" t="s">
+      <c r="V129" t="s">
         <v>813</v>
+      </c>
+      <c r="Y129" t="s">
+        <v>862</v>
+      </c>
+      <c r="AC129" t="s">
+        <v>821</v>
+      </c>
+      <c r="AE129" s="13" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="130" spans="1:31" x14ac:dyDescent="0.25">
@@ -12025,7 +12304,7 @@
         <v>90130</v>
       </c>
       <c r="B130" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="C130">
         <v>36</v>
@@ -12037,10 +12316,10 @@
         <v>45555</v>
       </c>
       <c r="G130" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="H130" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I130" t="s">
         <v>33</v>
@@ -12058,7 +12337,7 @@
         <v>-122.844269</v>
       </c>
       <c r="N130" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="O130" t="s">
         <v>39</v>
@@ -12067,13 +12346,13 @@
         <v>139</v>
       </c>
       <c r="S130" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="U130" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="V130" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
     </row>
     <row r="131" spans="1:31" x14ac:dyDescent="0.25">
@@ -12081,7 +12360,7 @@
         <v>90131</v>
       </c>
       <c r="B131" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="C131">
         <v>56</v>
@@ -12093,7 +12372,7 @@
         <v>45562</v>
       </c>
       <c r="G131" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="H131" t="s">
         <v>46</v>
@@ -12114,7 +12393,7 @@
         <v>-122.61947189999999</v>
       </c>
       <c r="N131" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="O131" t="s">
         <v>36</v>
@@ -12123,16 +12402,16 @@
         <v>37</v>
       </c>
       <c r="Q131" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S131" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="U131" t="s">
         <v>52</v>
       </c>
       <c r="V131" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
     </row>
     <row r="132" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -12146,10 +12425,10 @@
         <v>45564</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="H132" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I132" s="6" t="s">
         <v>33</v>
@@ -12158,7 +12437,7 @@
         <v>98201</v>
       </c>
       <c r="K132" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L132" s="6">
         <v>47.992366400000002</v>
@@ -12176,17 +12455,17 @@
         <v>39</v>
       </c>
       <c r="S132" s="6" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="U132" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="V132" s="8" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="W132" s="9"/>
       <c r="Y132" s="6" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
     </row>
     <row r="133" spans="1:31" x14ac:dyDescent="0.25">
@@ -12194,13 +12473,13 @@
         <v>90133</v>
       </c>
       <c r="B133" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="C133">
         <v>39</v>
       </c>
       <c r="D133" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E133" t="s">
         <v>84</v>
@@ -12209,7 +12488,7 @@
         <v>45524</v>
       </c>
       <c r="G133" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="H133" t="s">
         <v>153</v>
@@ -12239,13 +12518,13 @@
         <v>39</v>
       </c>
       <c r="S133" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="U133" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="V133" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="134" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -12253,7 +12532,7 @@
         <v>90134</v>
       </c>
       <c r="B134" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="C134">
         <v>42</v>
@@ -12268,10 +12547,10 @@
         <v>43543</v>
       </c>
       <c r="G134" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="H134" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="I134" t="s">
         <v>33</v>
@@ -12280,7 +12559,7 @@
         <v>98934</v>
       </c>
       <c r="K134" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="L134">
         <v>46.987940000000002</v>
@@ -12289,7 +12568,7 @@
         <v>-120.41889999999999</v>
       </c>
       <c r="N134" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="O134" t="s">
         <v>36</v>
@@ -12298,25 +12577,25 @@
         <v>37</v>
       </c>
       <c r="Q134" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R134" t="s">
         <v>39</v>
       </c>
       <c r="S134" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="T134"/>
       <c r="U134" t="s">
         <v>89</v>
       </c>
       <c r="V134" s="3" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="W134"/>
       <c r="X134"/>
       <c r="Y134" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="Z134"/>
       <c r="AA134"/>
@@ -12330,7 +12609,7 @@
         <v>90135</v>
       </c>
       <c r="B135" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="C135">
         <v>40</v>
@@ -12342,10 +12621,10 @@
         <v>45605</v>
       </c>
       <c r="G135" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="H135" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I135" t="s">
         <v>33</v>
@@ -12354,7 +12633,7 @@
         <v>98204</v>
       </c>
       <c r="K135" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L135">
         <v>47.891606600000003</v>
@@ -12363,7 +12642,7 @@
         <v>-122.2639744</v>
       </c>
       <c r="N135" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="O135" t="s">
         <v>39</v>
@@ -12372,13 +12651,13 @@
         <v>39</v>
       </c>
       <c r="S135" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="U135" t="s">
         <v>141</v>
       </c>
       <c r="V135" s="4" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
     </row>
     <row r="136" spans="1:31" x14ac:dyDescent="0.25">
@@ -12386,7 +12665,7 @@
         <v>90136</v>
       </c>
       <c r="B136" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="C136">
         <v>34</v>
@@ -12398,10 +12677,10 @@
         <v>45606</v>
       </c>
       <c r="G136" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="H136" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I136" t="s">
         <v>33</v>
@@ -12410,7 +12689,7 @@
         <v>98205</v>
       </c>
       <c r="K136" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L136">
         <v>47.891606600000003</v>
@@ -12419,7 +12698,7 @@
         <v>-122.2639744</v>
       </c>
       <c r="N136" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="O136" t="s">
         <v>39</v>
@@ -12428,13 +12707,13 @@
         <v>39</v>
       </c>
       <c r="S136" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="U136" t="s">
         <v>141</v>
       </c>
       <c r="V136" s="4" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
     </row>
     <row r="137" spans="1:31" x14ac:dyDescent="0.25">
@@ -12442,22 +12721,22 @@
         <v>90137</v>
       </c>
       <c r="B137" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="C137">
         <v>25</v>
       </c>
       <c r="D137" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F137" s="1">
         <v>45607</v>
       </c>
       <c r="G137" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="H137" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I137" t="s">
         <v>33</v>
@@ -12466,7 +12745,7 @@
         <v>98206</v>
       </c>
       <c r="K137" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L137">
         <v>47.891606600000003</v>
@@ -12475,7 +12754,7 @@
         <v>-122.2639744</v>
       </c>
       <c r="N137" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="O137" t="s">
         <v>39</v>
@@ -12484,13 +12763,13 @@
         <v>39</v>
       </c>
       <c r="S137" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="U137" t="s">
         <v>141</v>
       </c>
       <c r="V137" s="4" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
     </row>
     <row r="138" spans="1:31" x14ac:dyDescent="0.25">
@@ -12498,7 +12777,7 @@
         <v>90138</v>
       </c>
       <c r="B138" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="C138">
         <v>33</v>
@@ -12510,10 +12789,10 @@
         <v>45610</v>
       </c>
       <c r="G138" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="H138" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I138" t="s">
         <v>33</v>
@@ -12531,7 +12810,7 @@
         <v>-122.9441752</v>
       </c>
       <c r="N138" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O138" t="s">
         <v>39</v>
@@ -12540,19 +12819,19 @@
         <v>39</v>
       </c>
       <c r="S138" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="U138" t="s">
         <v>89</v>
       </c>
       <c r="V138" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="Y138" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="Z138" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
     </row>
     <row r="139" spans="1:31" x14ac:dyDescent="0.25">
@@ -12560,7 +12839,7 @@
         <v>90139</v>
       </c>
       <c r="B139" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="C139">
         <v>50</v>
@@ -12572,7 +12851,7 @@
         <v>45619</v>
       </c>
       <c r="G139" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="H139" t="s">
         <v>153</v>
@@ -12593,7 +12872,7 @@
         <v>-122.43758130000001</v>
       </c>
       <c r="N139" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="O139" t="s">
         <v>39</v>
@@ -12602,19 +12881,19 @@
         <v>39</v>
       </c>
       <c r="S139" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="U139" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="V139" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="Z139" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="AE139" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="140" spans="1:31" x14ac:dyDescent="0.25">
@@ -12622,7 +12901,7 @@
         <v>90140</v>
       </c>
       <c r="B140" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="C140">
         <v>45</v>
@@ -12634,7 +12913,7 @@
         <v>45630</v>
       </c>
       <c r="G140" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="H140" t="s">
         <v>46</v>
@@ -12664,25 +12943,25 @@
         <v>37</v>
       </c>
       <c r="Q140" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S140" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="U140" t="s">
         <v>52</v>
       </c>
       <c r="V140" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="Z140" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="AA140" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="AD140" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
     </row>
     <row r="141" spans="1:31" x14ac:dyDescent="0.25">
@@ -12690,7 +12969,7 @@
         <v>90141</v>
       </c>
       <c r="B141" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="C141">
         <v>67</v>
@@ -12702,10 +12981,10 @@
         <v>45635</v>
       </c>
       <c r="G141" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="H141" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="I141" t="s">
         <v>33</v>
@@ -12723,7 +13002,7 @@
         <v>-122.1821357</v>
       </c>
       <c r="N141" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="O141" t="s">
         <v>36</v>
@@ -12732,19 +13011,19 @@
         <v>37</v>
       </c>
       <c r="Q141" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S141" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="U141" t="s">
         <v>52</v>
       </c>
       <c r="V141" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="AD141" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
     </row>
     <row r="142" spans="1:31" ht="16.5" x14ac:dyDescent="0.3">
@@ -12752,7 +13031,7 @@
         <v>90142</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="C142">
         <v>29</v>
@@ -12764,7 +13043,7 @@
         <v>45655</v>
       </c>
       <c r="G142" s="11" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="H142" t="s">
         <v>71</v>
@@ -12794,13 +13073,16 @@
         <v>37</v>
       </c>
       <c r="Q142" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S142" t="s">
-        <v>872</v>
+        <v>868</v>
+      </c>
+      <c r="U142" t="s">
+        <v>52</v>
       </c>
       <c r="V142" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="W142" t="s">
         <v>99</v>
@@ -12809,13 +13091,13 @@
         <v>99</v>
       </c>
       <c r="Y142" t="s">
+        <v>870</v>
+      </c>
+      <c r="Z142" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="AA142" s="12" t="s">
         <v>874</v>
-      </c>
-      <c r="Z142" s="4" t="s">
-        <v>879</v>
-      </c>
-      <c r="AA142" s="12" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="143" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -12826,10 +13108,10 @@
         <v>45664</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="H143" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="I143" s="6" t="s">
         <v>33</v>
@@ -12838,7 +13120,7 @@
         <v>98271</v>
       </c>
       <c r="K143" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L143" s="6">
         <v>48.1475255</v>
@@ -12847,16 +13129,19 @@
         <v>-122.1943472</v>
       </c>
       <c r="N143" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="O143" s="6" t="s">
         <v>36</v>
       </c>
       <c r="S143" s="6" t="s">
-        <v>877</v>
+        <v>873</v>
+      </c>
+      <c r="U143" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="V143" s="6" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
     </row>
     <row r="144" spans="1:31" x14ac:dyDescent="0.25">
@@ -12864,7 +13149,7 @@
         <v>90144</v>
       </c>
       <c r="B144" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="C144">
         <v>57</v>
@@ -12876,10 +13161,10 @@
         <v>45672</v>
       </c>
       <c r="G144" s="11" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="H144" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="I144" t="s">
         <v>33</v>
@@ -12897,7 +13182,7 @@
         <v>-122.22397460000001</v>
       </c>
       <c r="N144" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="O144" t="s">
         <v>36</v>
@@ -12906,16 +13191,19 @@
         <v>37</v>
       </c>
       <c r="Q144" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S144" t="s">
-        <v>903</v>
+        <v>899</v>
+      </c>
+      <c r="U144" t="s">
+        <v>52</v>
       </c>
       <c r="V144" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="AE144" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
     </row>
     <row r="145" spans="1:31" x14ac:dyDescent="0.25">
@@ -12923,7 +13211,7 @@
         <v>90145</v>
       </c>
       <c r="B145" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="C145">
         <v>22</v>
@@ -12935,19 +13223,19 @@
         <v>45429</v>
       </c>
       <c r="G145" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="H145" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I145" t="s">
         <v>33</v>
       </c>
       <c r="K145" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="N145" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="O145" t="s">
         <v>39</v>
@@ -12956,13 +13244,13 @@
         <v>39</v>
       </c>
       <c r="S145" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="U145" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="V145" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
     </row>
     <row r="146" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -12979,10 +13267,10 @@
         <v>45705</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="H146" s="6" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="I146" s="6" t="s">
         <v>33</v>
@@ -13009,20 +13297,19 @@
         <v>39</v>
       </c>
       <c r="S146" s="6" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="U146" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="V146" s="6" t="s">
-        <v>891</v>
-      </c>
-      <c r="W146" s="16"/>
+        <v>887</v>
+      </c>
       <c r="Z146" s="6" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="AE146" s="6" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
     </row>
     <row r="147" spans="1:31" x14ac:dyDescent="0.25">
@@ -13030,22 +13317,22 @@
         <v>90147</v>
       </c>
       <c r="B147" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="C147">
         <v>53</v>
       </c>
       <c r="D147" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F147" s="1">
         <v>45710</v>
       </c>
       <c r="G147" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="H147" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I147" t="s">
         <v>33</v>
@@ -13063,7 +13350,7 @@
         <v>-122.335251817</v>
       </c>
       <c r="N147" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O147" t="s">
         <v>39</v>
@@ -13072,19 +13359,19 @@
         <v>37</v>
       </c>
       <c r="Q147" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R147" t="s">
         <v>39</v>
       </c>
       <c r="S147" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="U147" t="s">
         <v>141</v>
       </c>
       <c r="V147" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
     </row>
     <row r="148" spans="1:31" x14ac:dyDescent="0.25">
@@ -13092,7 +13379,7 @@
         <v>90148</v>
       </c>
       <c r="B148" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="C148">
         <v>39</v>
@@ -13104,10 +13391,10 @@
         <v>45713</v>
       </c>
       <c r="G148" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="H148" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="I148" t="s">
         <v>33</v>
@@ -13116,16 +13403,16 @@
         <v>98329</v>
       </c>
       <c r="K148" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="L148">
         <v>47.384203999999997</v>
       </c>
       <c r="M148">
-        <v>122.7687815</v>
+        <v>-122.7687815</v>
       </c>
       <c r="N148" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="O148" t="s">
         <v>39</v>
@@ -13134,16 +13421,400 @@
         <v>39</v>
       </c>
       <c r="S148" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="U148" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="V148" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="Z148" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="149" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>90149</v>
+      </c>
+      <c r="B149" t="s">
+        <v>948</v>
+      </c>
+      <c r="C149">
+        <v>36</v>
+      </c>
+      <c r="D149" t="s">
+        <v>30</v>
+      </c>
+      <c r="F149" s="1">
+        <v>45735</v>
+      </c>
+      <c r="G149" t="s">
         <v>902</v>
+      </c>
+      <c r="H149" t="s">
+        <v>129</v>
+      </c>
+      <c r="I149" t="s">
+        <v>33</v>
+      </c>
+      <c r="J149">
+        <v>98106</v>
+      </c>
+      <c r="K149" t="s">
+        <v>130</v>
+      </c>
+      <c r="L149">
+        <v>47.535888399999997</v>
+      </c>
+      <c r="M149">
+        <v>-122.36438200000001</v>
+      </c>
+      <c r="N149" t="s">
+        <v>131</v>
+      </c>
+      <c r="O149" t="s">
+        <v>36</v>
+      </c>
+      <c r="P149" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>215</v>
+      </c>
+      <c r="S149" t="s">
+        <v>903</v>
+      </c>
+      <c r="U149" t="s">
+        <v>52</v>
+      </c>
+      <c r="V149" t="s">
+        <v>904</v>
+      </c>
+      <c r="X149" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA149" t="s">
+        <v>905</v>
+      </c>
+      <c r="AE149" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="150" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>90150</v>
+      </c>
+      <c r="D150" t="s">
+        <v>30</v>
+      </c>
+      <c r="F150" s="1">
+        <v>45740</v>
+      </c>
+      <c r="G150" t="s">
+        <v>907</v>
+      </c>
+      <c r="H150" t="s">
+        <v>906</v>
+      </c>
+      <c r="I150" t="s">
+        <v>33</v>
+      </c>
+      <c r="J150">
+        <v>99157</v>
+      </c>
+      <c r="K150" t="s">
+        <v>739</v>
+      </c>
+      <c r="L150">
+        <v>48.828353</v>
+      </c>
+      <c r="M150">
+        <v>-117.9129664</v>
+      </c>
+      <c r="N150" t="s">
+        <v>741</v>
+      </c>
+      <c r="O150" t="s">
+        <v>36</v>
+      </c>
+      <c r="P150" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>206</v>
+      </c>
+      <c r="S150" t="s">
+        <v>908</v>
+      </c>
+      <c r="U150" t="s">
+        <v>52</v>
+      </c>
+      <c r="V150" t="s">
+        <v>909</v>
+      </c>
+      <c r="AD150" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="151" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>90151</v>
+      </c>
+      <c r="B151" t="s">
+        <v>922</v>
+      </c>
+      <c r="C151">
+        <v>26</v>
+      </c>
+      <c r="D151" t="s">
+        <v>30</v>
+      </c>
+      <c r="E151" t="s">
+        <v>44</v>
+      </c>
+      <c r="F151" s="1">
+        <v>44566</v>
+      </c>
+      <c r="G151" s="14" t="s">
+        <v>918</v>
+      </c>
+      <c r="H151" t="s">
+        <v>129</v>
+      </c>
+      <c r="I151" t="s">
+        <v>33</v>
+      </c>
+      <c r="J151">
+        <v>98108</v>
+      </c>
+      <c r="K151" t="s">
+        <v>130</v>
+      </c>
+      <c r="L151">
+        <v>47.545392399999997</v>
+      </c>
+      <c r="M151">
+        <v>-122.30667579999999</v>
+      </c>
+      <c r="N151" t="s">
+        <v>131</v>
+      </c>
+      <c r="O151" t="s">
+        <v>36</v>
+      </c>
+      <c r="P151" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q151" t="s">
+        <v>215</v>
+      </c>
+      <c r="S151" t="s">
+        <v>919</v>
+      </c>
+      <c r="U151" t="s">
+        <v>52</v>
+      </c>
+      <c r="V151" t="s">
+        <v>920</v>
+      </c>
+      <c r="X151" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z151" t="s">
+        <v>923</v>
+      </c>
+      <c r="AA151" t="s">
+        <v>921</v>
+      </c>
+      <c r="AE151" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="152" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>90152</v>
+      </c>
+      <c r="B152" t="s">
+        <v>914</v>
+      </c>
+      <c r="C152">
+        <v>30</v>
+      </c>
+      <c r="D152" t="s">
+        <v>30</v>
+      </c>
+      <c r="F152" s="1">
+        <v>45696</v>
+      </c>
+      <c r="G152" t="s">
+        <v>911</v>
+      </c>
+      <c r="H152" t="s">
+        <v>244</v>
+      </c>
+      <c r="I152" t="s">
+        <v>33</v>
+      </c>
+      <c r="J152">
+        <v>98901</v>
+      </c>
+      <c r="K152" t="s">
+        <v>244</v>
+      </c>
+      <c r="L152">
+        <v>46.6037289</v>
+      </c>
+      <c r="M152">
+        <v>-120.4813324</v>
+      </c>
+      <c r="N152" t="s">
+        <v>330</v>
+      </c>
+      <c r="O152" t="s">
+        <v>36</v>
+      </c>
+      <c r="P152" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q152" t="s">
+        <v>206</v>
+      </c>
+      <c r="S152" t="s">
+        <v>912</v>
+      </c>
+      <c r="U152" t="s">
+        <v>52</v>
+      </c>
+      <c r="V152" t="s">
+        <v>913</v>
+      </c>
+      <c r="Y152" t="s">
+        <v>916</v>
+      </c>
+      <c r="AA152" t="s">
+        <v>915</v>
+      </c>
+      <c r="AB152" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="AD152" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="153" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>90153</v>
+      </c>
+      <c r="B153" t="s">
+        <v>934</v>
+      </c>
+      <c r="C153">
+        <v>23</v>
+      </c>
+      <c r="D153" t="s">
+        <v>30</v>
+      </c>
+      <c r="E153" t="s">
+        <v>44</v>
+      </c>
+      <c r="F153" s="1">
+        <v>45669</v>
+      </c>
+      <c r="G153" t="s">
+        <v>935</v>
+      </c>
+      <c r="H153" t="s">
+        <v>936</v>
+      </c>
+      <c r="I153" t="s">
+        <v>33</v>
+      </c>
+      <c r="J153">
+        <v>98531</v>
+      </c>
+      <c r="K153" t="s">
+        <v>114</v>
+      </c>
+      <c r="L153">
+        <v>46.711324699999999</v>
+      </c>
+      <c r="M153">
+        <v>-122.9696589</v>
+      </c>
+      <c r="N153" t="s">
+        <v>115</v>
+      </c>
+      <c r="O153" t="s">
+        <v>36</v>
+      </c>
+      <c r="S153" t="s">
+        <v>937</v>
+      </c>
+      <c r="U153" t="s">
+        <v>52</v>
+      </c>
+      <c r="V153" t="s">
+        <v>938</v>
+      </c>
+      <c r="AA153" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="154" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>90154</v>
+      </c>
+      <c r="C154">
+        <v>43</v>
+      </c>
+      <c r="D154" t="s">
+        <v>30</v>
+      </c>
+      <c r="F154" s="1">
+        <v>45701</v>
+      </c>
+      <c r="G154" t="s">
+        <v>943</v>
+      </c>
+      <c r="H154" t="s">
+        <v>944</v>
+      </c>
+      <c r="I154" t="s">
+        <v>33</v>
+      </c>
+      <c r="J154">
+        <v>98233</v>
+      </c>
+      <c r="K154" t="s">
+        <v>105</v>
+      </c>
+      <c r="L154">
+        <v>48.444980299999997</v>
+      </c>
+      <c r="M154">
+        <v>-122.3437534</v>
+      </c>
+      <c r="N154" t="s">
+        <v>138</v>
+      </c>
+      <c r="O154" t="s">
+        <v>39</v>
+      </c>
+      <c r="R154" t="s">
+        <v>139</v>
+      </c>
+      <c r="S154" t="s">
+        <v>945</v>
+      </c>
+      <c r="U154" t="s">
+        <v>141</v>
+      </c>
+      <c r="V154" t="s">
+        <v>946</v>
+      </c>
+      <c r="AD154" t="s">
+        <v>946</v>
       </c>
     </row>
   </sheetData>
@@ -13167,11 +13838,12 @@
     <hyperlink ref="V135" r:id="rId16" xr:uid="{BA72CA17-17FE-4204-92F9-E3B7A7B178FC}"/>
     <hyperlink ref="V136:V137" r:id="rId17" display="https://www.heraldnet.com/news/3-killed-in-everett-crash-identified" xr:uid="{72736085-B288-4412-AF90-4A5264F0BBCC}"/>
     <hyperlink ref="Z142" r:id="rId18" xr:uid="{A10364A5-8911-4E8A-A2F2-CBCDCC825EB0}"/>
+    <hyperlink ref="AB152" r:id="rId19" xr:uid="{C17B2F71-10F6-4EAA-AE91-FB58FC8BB0DE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
   <tableParts count="1">
-    <tablePart r:id="rId20"/>
+    <tablePart r:id="rId21"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Data/Raw/fe_newnames.xlsx
+++ b/Data/Raw/fe_newnames.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\fewapo\Data\Raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928D2619-80F8-4953-AB4F-B0A957E51A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F60B79-32D8-4600-851F-66D134481B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3783,8 +3783,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AE158" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
   <autoFilter ref="A1:AE158" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AE157">
-    <sortCondition ref="F1:F157"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AE158">
+    <sortCondition ref="F1:F158"/>
   </sortState>
   <tableColumns count="31">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Unique ID" dataDxfId="30"/>
@@ -4123,10 +4123,10 @@
   <dimension ref="A1:AE158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="R116" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U132" sqref="U132"/>
+      <selection pane="bottomRight" activeCell="F146" sqref="F146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -14257,59 +14257,59 @@
         <v>944</v>
       </c>
     </row>
-    <row r="156" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A156">
+    <row r="156" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="6">
         <v>90150</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D156" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F156" s="1">
+      <c r="F156" s="7">
         <v>45740</v>
       </c>
-      <c r="G156" t="s">
+      <c r="G156" s="6" t="s">
         <v>902</v>
       </c>
-      <c r="H156" t="s">
+      <c r="H156" s="6" t="s">
         <v>901</v>
       </c>
-      <c r="I156" t="s">
-        <v>33</v>
-      </c>
-      <c r="J156">
+      <c r="I156" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J156" s="6">
         <v>99157</v>
       </c>
-      <c r="K156" t="s">
+      <c r="K156" s="6" t="s">
         <v>737</v>
       </c>
-      <c r="L156">
+      <c r="L156" s="6">
         <v>48.828353</v>
       </c>
-      <c r="M156">
+      <c r="M156" s="6">
         <v>-117.9129664</v>
       </c>
-      <c r="N156" t="s">
+      <c r="N156" s="6" t="s">
         <v>739</v>
       </c>
-      <c r="O156" t="s">
+      <c r="O156" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P156" t="s">
+      <c r="P156" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Q156" t="s">
+      <c r="Q156" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="S156" t="s">
+      <c r="S156" s="6" t="s">
         <v>903</v>
       </c>
-      <c r="U156" t="s">
+      <c r="U156" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="V156" t="s">
+      <c r="V156" s="6" t="s">
         <v>904</v>
       </c>
-      <c r="AD156" t="s">
+      <c r="AD156" s="6" t="s">
         <v>905</v>
       </c>
     </row>
